--- a/VerveStacks_ITA/SuppXLS/scen_tsparameters_s1p1v1_d.xlsx
+++ b/VerveStacks_ITA/SuppXLS/scen_tsparameters_s1p1v1_d.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB477BCD-BFF7-4E5B-A24C-CF8E38C957C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDE904E1-37E1-45A0-8BF9-2D81F6088F5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -273,7 +273,7 @@
     <t>a</t>
   </si>
   <si>
-    <t>0202h01</t>
+    <t>0103h01</t>
   </si>
   <si>
     <t>S1,S2,S3,S4,S5</t>
@@ -282,13 +282,13 @@
     <t>S2</t>
   </si>
   <si>
-    <t>0202h02</t>
+    <t>0103h02</t>
   </si>
   <si>
     <t>S3</t>
   </si>
   <si>
-    <t>0202h03</t>
+    <t>0103h03</t>
   </si>
   <si>
     <t>S4</t>
@@ -297,142 +297,142 @@
     <t>d</t>
   </si>
   <si>
-    <t>0202h04</t>
+    <t>0103h04</t>
   </si>
   <si>
     <t>S5</t>
   </si>
   <si>
-    <t>0202h05</t>
-  </si>
-  <si>
-    <t>0202h06</t>
-  </si>
-  <si>
-    <t>0202h07</t>
-  </si>
-  <si>
-    <t>0202h08</t>
-  </si>
-  <si>
-    <t>0202h09</t>
-  </si>
-  <si>
-    <t>0202h10</t>
-  </si>
-  <si>
-    <t>0202h11</t>
-  </si>
-  <si>
-    <t>0202h12</t>
-  </si>
-  <si>
-    <t>0202h13</t>
-  </si>
-  <si>
-    <t>0202h14</t>
-  </si>
-  <si>
-    <t>0202h15</t>
-  </si>
-  <si>
-    <t>0202h16</t>
-  </si>
-  <si>
-    <t>0202h17</t>
-  </si>
-  <si>
-    <t>0202h18</t>
-  </si>
-  <si>
-    <t>0202h19</t>
-  </si>
-  <si>
-    <t>0202h20</t>
-  </si>
-  <si>
-    <t>0202h21</t>
-  </si>
-  <si>
-    <t>0202h22</t>
-  </si>
-  <si>
-    <t>0202h23</t>
-  </si>
-  <si>
-    <t>0202h24</t>
-  </si>
-  <si>
-    <t>0304h01</t>
-  </si>
-  <si>
-    <t>0304h02</t>
-  </si>
-  <si>
-    <t>0304h03</t>
-  </si>
-  <si>
-    <t>0304h04</t>
-  </si>
-  <si>
-    <t>0304h05</t>
-  </si>
-  <si>
-    <t>0304h06</t>
-  </si>
-  <si>
-    <t>0304h07</t>
-  </si>
-  <si>
-    <t>0304h08</t>
-  </si>
-  <si>
-    <t>0304h09</t>
-  </si>
-  <si>
-    <t>0304h10</t>
-  </si>
-  <si>
-    <t>0304h11</t>
-  </si>
-  <si>
-    <t>0304h12</t>
-  </si>
-  <si>
-    <t>0304h13</t>
-  </si>
-  <si>
-    <t>0304h14</t>
-  </si>
-  <si>
-    <t>0304h15</t>
-  </si>
-  <si>
-    <t>0304h16</t>
-  </si>
-  <si>
-    <t>0304h17</t>
-  </si>
-  <si>
-    <t>0304h18</t>
-  </si>
-  <si>
-    <t>0304h19</t>
-  </si>
-  <si>
-    <t>0304h20</t>
-  </si>
-  <si>
-    <t>0304h21</t>
-  </si>
-  <si>
-    <t>0304h22</t>
-  </si>
-  <si>
-    <t>0304h23</t>
-  </si>
-  <si>
-    <t>0304h24</t>
+    <t>0103h05</t>
+  </si>
+  <si>
+    <t>0103h06</t>
+  </si>
+  <si>
+    <t>0103h07</t>
+  </si>
+  <si>
+    <t>0103h08</t>
+  </si>
+  <si>
+    <t>0103h09</t>
+  </si>
+  <si>
+    <t>0103h10</t>
+  </si>
+  <si>
+    <t>0103h11</t>
+  </si>
+  <si>
+    <t>0103h12</t>
+  </si>
+  <si>
+    <t>0103h13</t>
+  </si>
+  <si>
+    <t>0103h14</t>
+  </si>
+  <si>
+    <t>0103h15</t>
+  </si>
+  <si>
+    <t>0103h16</t>
+  </si>
+  <si>
+    <t>0103h17</t>
+  </si>
+  <si>
+    <t>0103h18</t>
+  </si>
+  <si>
+    <t>0103h19</t>
+  </si>
+  <si>
+    <t>0103h20</t>
+  </si>
+  <si>
+    <t>0103h21</t>
+  </si>
+  <si>
+    <t>0103h22</t>
+  </si>
+  <si>
+    <t>0103h23</t>
+  </si>
+  <si>
+    <t>0103h24</t>
+  </si>
+  <si>
+    <t>0321h01</t>
+  </si>
+  <si>
+    <t>0321h02</t>
+  </si>
+  <si>
+    <t>0321h03</t>
+  </si>
+  <si>
+    <t>0321h04</t>
+  </si>
+  <si>
+    <t>0321h05</t>
+  </si>
+  <si>
+    <t>0321h06</t>
+  </si>
+  <si>
+    <t>0321h07</t>
+  </si>
+  <si>
+    <t>0321h08</t>
+  </si>
+  <si>
+    <t>0321h09</t>
+  </si>
+  <si>
+    <t>0321h10</t>
+  </si>
+  <si>
+    <t>0321h11</t>
+  </si>
+  <si>
+    <t>0321h12</t>
+  </si>
+  <si>
+    <t>0321h13</t>
+  </si>
+  <si>
+    <t>0321h14</t>
+  </si>
+  <si>
+    <t>0321h15</t>
+  </si>
+  <si>
+    <t>0321h16</t>
+  </si>
+  <si>
+    <t>0321h17</t>
+  </si>
+  <si>
+    <t>0321h18</t>
+  </si>
+  <si>
+    <t>0321h19</t>
+  </si>
+  <si>
+    <t>0321h20</t>
+  </si>
+  <si>
+    <t>0321h21</t>
+  </si>
+  <si>
+    <t>0321h22</t>
+  </si>
+  <si>
+    <t>0321h23</t>
+  </si>
+  <si>
+    <t>0321h24</t>
   </si>
   <si>
     <t>1024h01</t>
@@ -573,148 +573,76 @@
     <t>S1aH8</t>
   </si>
   <si>
-    <t>S1b0202h01</t>
-  </si>
-  <si>
-    <t>S1b0202h02</t>
-  </si>
-  <si>
-    <t>S1b0202h03</t>
-  </si>
-  <si>
-    <t>S1b0202h04</t>
-  </si>
-  <si>
-    <t>S1b0202h05</t>
-  </si>
-  <si>
-    <t>S1b0202h06</t>
-  </si>
-  <si>
-    <t>S1b0202h07</t>
-  </si>
-  <si>
-    <t>S1b0202h08</t>
-  </si>
-  <si>
-    <t>S1b0202h09</t>
-  </si>
-  <si>
-    <t>S1b0202h10</t>
-  </si>
-  <si>
-    <t>S1b0202h11</t>
-  </si>
-  <si>
-    <t>S1b0202h12</t>
-  </si>
-  <si>
-    <t>S1b0202h13</t>
-  </si>
-  <si>
-    <t>S1b0202h14</t>
-  </si>
-  <si>
-    <t>S1b0202h15</t>
-  </si>
-  <si>
-    <t>S1b0202h16</t>
-  </si>
-  <si>
-    <t>S1b0202h17</t>
-  </si>
-  <si>
-    <t>S1b0202h18</t>
-  </si>
-  <si>
-    <t>S1b0202h19</t>
-  </si>
-  <si>
-    <t>S1b0202h20</t>
-  </si>
-  <si>
-    <t>S1b0202h21</t>
-  </si>
-  <si>
-    <t>S1b0202h22</t>
-  </si>
-  <si>
-    <t>S1b0202h23</t>
-  </si>
-  <si>
-    <t>S1b0202h24</t>
-  </si>
-  <si>
-    <t>S1c0304h01</t>
-  </si>
-  <si>
-    <t>S1c0304h02</t>
-  </si>
-  <si>
-    <t>S1c0304h03</t>
-  </si>
-  <si>
-    <t>S1c0304h04</t>
-  </si>
-  <si>
-    <t>S1c0304h05</t>
-  </si>
-  <si>
-    <t>S1c0304h06</t>
-  </si>
-  <si>
-    <t>S1c0304h07</t>
-  </si>
-  <si>
-    <t>S1c0304h08</t>
-  </si>
-  <si>
-    <t>S1c0304h09</t>
-  </si>
-  <si>
-    <t>S1c0304h10</t>
-  </si>
-  <si>
-    <t>S1c0304h11</t>
-  </si>
-  <si>
-    <t>S1c0304h12</t>
-  </si>
-  <si>
-    <t>S1c0304h13</t>
-  </si>
-  <si>
-    <t>S1c0304h14</t>
-  </si>
-  <si>
-    <t>S1c0304h15</t>
-  </si>
-  <si>
-    <t>S1c0304h16</t>
-  </si>
-  <si>
-    <t>S1c0304h17</t>
-  </si>
-  <si>
-    <t>S1c0304h18</t>
-  </si>
-  <si>
-    <t>S1c0304h19</t>
-  </si>
-  <si>
-    <t>S1c0304h20</t>
-  </si>
-  <si>
-    <t>S1c0304h21</t>
-  </si>
-  <si>
-    <t>S1c0304h22</t>
-  </si>
-  <si>
-    <t>S1c0304h23</t>
-  </si>
-  <si>
-    <t>S1c0304h24</t>
+    <t>S1b0103h01</t>
+  </si>
+  <si>
+    <t>S1b0103h02</t>
+  </si>
+  <si>
+    <t>S1b0103h03</t>
+  </si>
+  <si>
+    <t>S1b0103h04</t>
+  </si>
+  <si>
+    <t>S1b0103h05</t>
+  </si>
+  <si>
+    <t>S1b0103h06</t>
+  </si>
+  <si>
+    <t>S1b0103h07</t>
+  </si>
+  <si>
+    <t>S1b0103h08</t>
+  </si>
+  <si>
+    <t>S1b0103h09</t>
+  </si>
+  <si>
+    <t>S1b0103h10</t>
+  </si>
+  <si>
+    <t>S1b0103h11</t>
+  </si>
+  <si>
+    <t>S1b0103h12</t>
+  </si>
+  <si>
+    <t>S1b0103h13</t>
+  </si>
+  <si>
+    <t>S1b0103h14</t>
+  </si>
+  <si>
+    <t>S1b0103h15</t>
+  </si>
+  <si>
+    <t>S1b0103h16</t>
+  </si>
+  <si>
+    <t>S1b0103h17</t>
+  </si>
+  <si>
+    <t>S1b0103h18</t>
+  </si>
+  <si>
+    <t>S1b0103h19</t>
+  </si>
+  <si>
+    <t>S1b0103h20</t>
+  </si>
+  <si>
+    <t>S1b0103h21</t>
+  </si>
+  <si>
+    <t>S1b0103h22</t>
+  </si>
+  <si>
+    <t>S1b0103h23</t>
+  </si>
+  <si>
+    <t>S1b0103h24</t>
   </si>
   <si>
     <t>S2aH1</t>
@@ -741,6 +669,78 @@
     <t>S2aH8</t>
   </si>
   <si>
+    <t>S2c0321h01</t>
+  </si>
+  <si>
+    <t>S2c0321h02</t>
+  </si>
+  <si>
+    <t>S2c0321h03</t>
+  </si>
+  <si>
+    <t>S2c0321h04</t>
+  </si>
+  <si>
+    <t>S2c0321h05</t>
+  </si>
+  <si>
+    <t>S2c0321h06</t>
+  </si>
+  <si>
+    <t>S2c0321h07</t>
+  </si>
+  <si>
+    <t>S2c0321h08</t>
+  </si>
+  <si>
+    <t>S2c0321h09</t>
+  </si>
+  <si>
+    <t>S2c0321h10</t>
+  </si>
+  <si>
+    <t>S2c0321h11</t>
+  </si>
+  <si>
+    <t>S2c0321h12</t>
+  </si>
+  <si>
+    <t>S2c0321h13</t>
+  </si>
+  <si>
+    <t>S2c0321h14</t>
+  </si>
+  <si>
+    <t>S2c0321h15</t>
+  </si>
+  <si>
+    <t>S2c0321h16</t>
+  </si>
+  <si>
+    <t>S2c0321h17</t>
+  </si>
+  <si>
+    <t>S2c0321h18</t>
+  </si>
+  <si>
+    <t>S2c0321h19</t>
+  </si>
+  <si>
+    <t>S2c0321h20</t>
+  </si>
+  <si>
+    <t>S2c0321h21</t>
+  </si>
+  <si>
+    <t>S2c0321h22</t>
+  </si>
+  <si>
+    <t>S2c0321h23</t>
+  </si>
+  <si>
+    <t>S2c0321h24</t>
+  </si>
+  <si>
     <t>S3aH1</t>
   </si>
   <si>
@@ -900,10 +900,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S1aH4,S1b0202h12,S1c0304h09,S1c0304h17,S2aH2,S4d1024h17,S1b0202h08,S1b0202h11,S1c0304h07,S3aH2,S4d1024h09,S1aH2,S1b0202h17,S2aH3,S1aH3,S1c0304h13,S4d1024h12,S4d1024h14,S1c0304h14,S4aH5,S1b0202h13,S1b0202h16,S5aH4,S1b0202h14,S1c0304h08,S3aH5,S4d1024h13,S4d1024h18,S5aH3,S1c0304h11,S4aH2,S1b0202h15,S1c0304h18,S3aH3,S1b0202h10,S1b0202h18,S3aH4,S4aH3,S4aH4,S4d1024h11,S1c0304h15,S1aH5,S1b0202h07,S2aH4,S2aH5,S4d1024h16,S5aH2,S5aH5,S1c0304h12,S1b0202h09,S1c0304h10,S4d1024h15,S1c0304h16,S4d1024h07,S4d1024h08,S4d1024h10</t>
-  </si>
-  <si>
-    <t>S4aH1,S4d1024h24,S1b0202h24,S1c0304h05,S3aH8,S1c0304h01,S4d1024h05,S1aH7,S1c0304h24,S3aH6,S4aH7,S5aH6,S5aH7,S1c0304h04,S1c0304h06,S1c0304h21,S1c0304h23,S4d1024h23,S1c0304h02,S4d1024h03,S1aH8,S5aH1,S1b0202h03,S1b0202h22,S2aH1,S3aH7,S4d1024h02,S4d1024h06,S5aH8,S1b0202h01,S4aH6,S4d1024h21,S4d1024h19,S1aH1,S1b0202h20,S1b0202h23,S2aH7,S4d1024h20,S4d1024h22,S1aH6,S1b0202h05,S1b0202h06,S1c0304h19,S4d1024h01,S1b0202h19,S2aH6,S3aH1,S1b0202h04,S1c0304h03,S1c0304h20,S4aH8,S1b0202h02,S1b0202h21,S2aH8,S4d1024h04,S1c0304h22</t>
+    <t>S4aH2,S1b0103h09,S1b0103h14,S3aH3,S1aH5,S2aH4,S2aH5,S4d1024h16,S5aH2,S5aH5,S1b0103h07,S1b0103h12,S2c0321h09,S1b0103h08,S4d1024h07,S1aH3,S1b0103h10,S1b0103h16,S2c0321h13,S4d1024h12,S4d1024h14,S1aH2,S2aH3,S1b0103h11,S3aH2,S4d1024h09,S2c0321h10,S2c0321h11,S2c0321h15,S5aH4,S2c0321h16,S2c0321h17,S3aH4,S4aH3,S4aH4,S4d1024h11,S1b0103h13,S4aH5,S2c0321h12,S2c0321h14,S4d1024h15,S1b0103h18,S2c0321h07,S2c0321h08,S2c0321h18,S4d1024h08,S4d1024h10,S1aH4,S1b0103h15,S1b0103h17,S2aH2,S4d1024h17,S3aH5,S4d1024h13,S4d1024h18,S5aH3</t>
+  </si>
+  <si>
+    <t>S2aH1,S3aH7,S4d1024h02,S4d1024h06,S5aH8,S1b0103h06,S2c0321h06,S4aH6,S4d1024h21,S1aH6,S2c0321h05,S2c0321h20,S4d1024h01,S2aH6,S3aH1,S1b0103h01,S1b0103h02,S2aH8,S2c0321h21,S4d1024h04,S1aH7,S3aH6,S4aH7,S5aH6,S5aH7,S4d1024h05,S2c0321h02,S3aH8,S1b0103h04,S1b0103h20,S4d1024h03,S1b0103h22,S1b0103h24,S2c0321h01,S2c0321h22,S4d1024h19,S4d1024h23,S1aH1,S1b0103h23,S2aH7,S4d1024h20,S4d1024h22,S2c0321h03,S2c0321h19,S2c0321h23,S4aH8,S2c0321h24,S1b0103h03,S1b0103h05,S1b0103h19,S2c0321h04,S4aH1,S4d1024h24,S1aH8,S1b0103h21,S5aH1</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -1475,7 +1475,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S4aH1,S4d1024h24,S1b0202h24,S1c0304h05,S3aH8,S1c0304h01,S4d1024h05,S1aH7,S1c0304h24,S3aH6,S4aH7,S5aH6,S5aH7,S1c0304h04,S1c0304h06,S1c0304h21,S1c0304h23,S4d1024h23,S1c0304h02,S4d1024h03,S1aH8,S5aH1,S1b0202h03,S1b0202h22,S2aH1,S3aH7,S4d1024h02,S4d1024h06,S5aH8,S1b0202h01,S4aH6,S4d1024h21,S4d1024h19,S1aH1,S1b0202h20,S1b0202h23,S2aH7,S4d1024h20,S4d1024h22,S1aH6,S1b0202h05,S1b0202h06,S1c0304h19,S4d1024h01,S1b0202h19,S2aH6,S3aH1,S1b0202h04,S1c0304h03,S1c0304h20,S4aH8,S1b0202h02,S1b0202h21,S2aH8,S4d1024h04,S1c0304h22</v>
+        <v>S2aH1,S3aH7,S4d1024h02,S4d1024h06,S5aH8,S1b0103h06,S2c0321h06,S4aH6,S4d1024h21,S1aH6,S2c0321h05,S2c0321h20,S4d1024h01,S2aH6,S3aH1,S1b0103h01,S1b0103h02,S2aH8,S2c0321h21,S4d1024h04,S1aH7,S3aH6,S4aH7,S5aH6,S5aH7,S4d1024h05,S2c0321h02,S3aH8,S1b0103h04,S1b0103h20,S4d1024h03,S1b0103h22,S1b0103h24,S2c0321h01,S2c0321h22,S4d1024h19,S4d1024h23,S1aH1,S1b0103h23,S2aH7,S4d1024h20,S4d1024h22,S2c0321h03,S2c0321h19,S2c0321h23,S4aH8,S2c0321h24,S1b0103h03,S1b0103h05,S1b0103h19,S2c0321h04,S4aH1,S4d1024h24,S1aH8,S1b0103h21,S5aH1</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -1507,7 +1507,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S1aH4,S1b0202h12,S1c0304h09,S1c0304h17,S2aH2,S4d1024h17,S1b0202h08,S1b0202h11,S1c0304h07,S3aH2,S4d1024h09,S1aH2,S1b0202h17,S2aH3,S1aH3,S1c0304h13,S4d1024h12,S4d1024h14,S1c0304h14,S4aH5,S1b0202h13,S1b0202h16,S5aH4,S1b0202h14,S1c0304h08,S3aH5,S4d1024h13,S4d1024h18,S5aH3,S1c0304h11,S4aH2,S1b0202h15,S1c0304h18,S3aH3,S1b0202h10,S1b0202h18,S3aH4,S4aH3,S4aH4,S4d1024h11,S1c0304h15,S1aH5,S1b0202h07,S2aH4,S2aH5,S4d1024h16,S5aH2,S5aH5,S1c0304h12,S1b0202h09,S1c0304h10,S4d1024h15,S1c0304h16,S4d1024h07,S4d1024h08,S4d1024h10</v>
+        <v>S4aH2,S1b0103h09,S1b0103h14,S3aH3,S1aH5,S2aH4,S2aH5,S4d1024h16,S5aH2,S5aH5,S1b0103h07,S1b0103h12,S2c0321h09,S1b0103h08,S4d1024h07,S1aH3,S1b0103h10,S1b0103h16,S2c0321h13,S4d1024h12,S4d1024h14,S1aH2,S2aH3,S1b0103h11,S3aH2,S4d1024h09,S2c0321h10,S2c0321h11,S2c0321h15,S5aH4,S2c0321h16,S2c0321h17,S3aH4,S4aH3,S4aH4,S4d1024h11,S1b0103h13,S4aH5,S2c0321h12,S2c0321h14,S4d1024h15,S1b0103h18,S2c0321h07,S2c0321h08,S2c0321h18,S4d1024h08,S4d1024h10,S1aH4,S1b0103h15,S1b0103h17,S2aH2,S4d1024h17,S3aH5,S4d1024h13,S4d1024h18,S5aH3</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -2120,7 +2120,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A9656DE-3613-4A13-9D37-5E9AEF62380A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{917CC5D9-9410-4C49-B9D3-72A4C48A46C9}">
   <dimension ref="B2:F83"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2194,7 +2194,7 @@
         <v>82</v>
       </c>
       <c r="E6" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F6" t="s">
         <v>61</v>
@@ -2834,7 +2834,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3884D56E-E4DE-4C58-84A3-4239AAAB4559}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D5DD4EE-B82E-4C94-97F6-84EE09AD57C2}">
   <dimension ref="B2:O115"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2904,7 +2904,7 @@
         <v>167</v>
       </c>
       <c r="I4">
-        <v>0.10729017268326745</v>
+        <v>6.90184361946969E-2</v>
       </c>
       <c r="J4" t="s">
         <v>168</v>
@@ -2916,7 +2916,7 @@
         <v>81</v>
       </c>
       <c r="N4">
-        <v>9.3706617306802395E-2</v>
+        <v>0.6318949560388708</v>
       </c>
       <c r="O4" t="s">
         <v>293</v>
@@ -2939,7 +2939,7 @@
         <v>170</v>
       </c>
       <c r="I5">
-        <v>1.4277382248521471E-2</v>
+        <v>9.0226963324159439E-3</v>
       </c>
       <c r="J5" t="s">
         <v>168</v>
@@ -2951,7 +2951,7 @@
         <v>83</v>
       </c>
       <c r="N5">
-        <v>8.8500694123091153E-2</v>
+        <v>0.18220731142989352</v>
       </c>
       <c r="O5" t="s">
         <v>293</v>
@@ -2962,7 +2962,7 @@
         <v>171</v>
       </c>
       <c r="C6">
-        <v>2.8846100000000001E-3</v>
+        <v>8.8889999999999998E-5</v>
       </c>
       <c r="D6" t="s">
         <v>168</v>
@@ -2974,7 +2974,7 @@
         <v>171</v>
       </c>
       <c r="I6">
-        <v>1.5329012647353233E-2</v>
+        <v>9.4295385769276509E-3</v>
       </c>
       <c r="J6" t="s">
         <v>168</v>
@@ -2986,7 +2986,7 @@
         <v>75</v>
       </c>
       <c r="N6">
-        <v>0.22322998611753814</v>
+        <v>0.14770939379916703</v>
       </c>
       <c r="O6" t="s">
         <v>293</v>
@@ -2997,7 +2997,7 @@
         <v>172</v>
       </c>
       <c r="C7">
-        <v>1.390952E-2</v>
+        <v>9.4046200000000007E-3</v>
       </c>
       <c r="D7" t="s">
         <v>168</v>
@@ -3009,7 +3009,7 @@
         <v>172</v>
       </c>
       <c r="I7">
-        <v>1.6525269860500416E-2</v>
+        <v>1.0132280672175331E-2</v>
       </c>
       <c r="J7" t="s">
         <v>168</v>
@@ -3021,7 +3021,7 @@
         <v>79</v>
       </c>
       <c r="N7">
-        <v>0.63189495603887091</v>
+        <v>7.5520592318371105E-2</v>
       </c>
       <c r="O7" t="s">
         <v>293</v>
@@ -3032,7 +3032,7 @@
         <v>173</v>
       </c>
       <c r="C8">
-        <v>0.15659186999999999</v>
+        <v>0.10991865000000001</v>
       </c>
       <c r="D8" t="s">
         <v>168</v>
@@ -3044,7 +3044,7 @@
         <v>173</v>
       </c>
       <c r="I8">
-        <v>0.13886358431062812</v>
+        <v>8.5976819358131049E-2</v>
       </c>
       <c r="J8" t="s">
         <v>168</v>
@@ -3067,7 +3067,7 @@
         <v>174</v>
       </c>
       <c r="C9">
-        <v>5.5472000000000004E-3</v>
+        <v>2.6397600000000001E-3</v>
       </c>
       <c r="D9" t="s">
         <v>168</v>
@@ -3079,7 +3079,7 @@
         <v>174</v>
       </c>
       <c r="I9">
-        <v>1.5830247983376428E-2</v>
+        <v>9.9425111551383338E-3</v>
       </c>
       <c r="J9" t="s">
         <v>168</v>
@@ -3093,7 +3093,7 @@
         <v>175</v>
       </c>
       <c r="C10">
-        <v>2.9050000000000001E-5</v>
+        <v>0</v>
       </c>
       <c r="D10" t="s">
         <v>168</v>
@@ -3105,7 +3105,7 @@
         <v>175</v>
       </c>
       <c r="I10">
-        <v>1.5933728197032534E-2</v>
+        <v>9.9678825675442433E-3</v>
       </c>
       <c r="J10" t="s">
         <v>168</v>
@@ -3131,7 +3131,7 @@
         <v>176</v>
       </c>
       <c r="I11">
-        <v>6.5650844968796848E-2</v>
+        <v>4.0733844461979481E-2</v>
       </c>
       <c r="J11" t="s">
         <v>168</v>
@@ -3157,7 +3157,7 @@
         <v>177</v>
       </c>
       <c r="I12">
-        <v>4.166825586694E-4</v>
+        <v>2.0887130334319409E-5</v>
       </c>
       <c r="J12" t="s">
         <v>168</v>
@@ -3183,7 +3183,7 @@
         <v>178</v>
       </c>
       <c r="I13">
-        <v>4.341942729497E-4</v>
+        <v>1.7372234278059984E-5</v>
       </c>
       <c r="J13" t="s">
         <v>168</v>
@@ -3209,7 +3209,7 @@
         <v>179</v>
       </c>
       <c r="I14">
-        <v>4.4692879715349998E-4</v>
+        <v>1.3996818224033076E-5</v>
       </c>
       <c r="J14" t="s">
         <v>168</v>
@@ -3235,7 +3235,7 @@
         <v>180</v>
       </c>
       <c r="I15">
-        <v>4.4992761720150001E-4</v>
+        <v>1.0816674173131688E-5</v>
       </c>
       <c r="J15" t="s">
         <v>168</v>
@@ -3261,7 +3261,7 @@
         <v>181</v>
       </c>
       <c r="I16">
-        <v>4.5480941727960001E-4</v>
+        <v>8.703552139309057E-6</v>
       </c>
       <c r="J16" t="s">
         <v>168</v>
@@ -3287,7 +3287,7 @@
         <v>182</v>
       </c>
       <c r="I17">
-        <v>4.620205333951E-4</v>
+        <v>6.7508321080538194E-6</v>
       </c>
       <c r="J17" t="s">
         <v>168</v>
@@ -3313,7 +3313,7 @@
         <v>183</v>
       </c>
       <c r="I18">
-        <v>4.6610729746050003E-4</v>
+        <v>5.7814460925378271E-6</v>
       </c>
       <c r="J18" t="s">
         <v>168</v>
@@ -3339,7 +3339,7 @@
         <v>184</v>
       </c>
       <c r="I19">
-        <v>4.5968424335770001E-4</v>
+        <v>5.6349920901936844E-6</v>
       </c>
       <c r="J19" t="s">
         <v>168</v>
@@ -3365,7 +3365,7 @@
         <v>185</v>
       </c>
       <c r="I20">
-        <v>4.7259311756429998E-4</v>
+        <v>5.9069780945470925E-6</v>
       </c>
       <c r="J20" t="s">
         <v>168</v>
@@ -3379,7 +3379,7 @@
         <v>186</v>
       </c>
       <c r="C21">
-        <v>9.0699999999999996E-6</v>
+        <v>1.4316E-4</v>
       </c>
       <c r="D21" t="s">
         <v>168</v>
@@ -3391,7 +3391,7 @@
         <v>186</v>
       </c>
       <c r="I21">
-        <v>4.9691145595350005E-4</v>
+        <v>5.767498092314575E-6</v>
       </c>
       <c r="J21" t="s">
         <v>168</v>
@@ -3405,7 +3405,7 @@
         <v>187</v>
       </c>
       <c r="C22">
-        <v>3.3880000000000001E-5</v>
+        <v>3.0005E-4</v>
       </c>
       <c r="D22" t="s">
         <v>168</v>
@@ -3417,7 +3417,7 @@
         <v>187</v>
       </c>
       <c r="I22">
-        <v>5.1509267424449995E-4</v>
+        <v>6.0952760975609898E-6</v>
       </c>
       <c r="J22" t="s">
         <v>168</v>
@@ -3431,7 +3431,7 @@
         <v>188</v>
       </c>
       <c r="C23">
-        <v>4.3630000000000001E-5</v>
+        <v>3.7617E-4</v>
       </c>
       <c r="D23" t="s">
         <v>168</v>
@@ -3443,7 +3443,7 @@
         <v>188</v>
       </c>
       <c r="I23">
-        <v>5.221503623575E-4</v>
+        <v>9.1777841468996162E-6</v>
       </c>
       <c r="J23" t="s">
         <v>168</v>
@@ -3457,7 +3457,7 @@
         <v>189</v>
       </c>
       <c r="C24">
-        <v>1.3066999999999999E-4</v>
+        <v>3.9981000000000001E-4</v>
       </c>
       <c r="D24" t="s">
         <v>168</v>
@@ -3469,7 +3469,7 @@
         <v>189</v>
       </c>
       <c r="I24">
-        <v>5.2544209041020004E-4</v>
+        <v>1.3759702220237796E-5</v>
       </c>
       <c r="J24" t="s">
         <v>168</v>
@@ -3483,7 +3483,7 @@
         <v>190</v>
       </c>
       <c r="C25">
-        <v>3.3956999999999998E-4</v>
+        <v>4.0495E-4</v>
       </c>
       <c r="D25" t="s">
         <v>168</v>
@@ -3495,7 +3495,7 @@
         <v>190</v>
       </c>
       <c r="I25">
-        <v>5.2051844633139999E-4</v>
+        <v>1.9422590310877984E-5</v>
       </c>
       <c r="J25" t="s">
         <v>168</v>
@@ -3509,7 +3509,7 @@
         <v>191</v>
       </c>
       <c r="C26">
-        <v>2.8479999999999998E-5</v>
+        <v>3.9812000000000002E-4</v>
       </c>
       <c r="D26" t="s">
         <v>168</v>
@@ -3521,7 +3521,7 @@
         <v>191</v>
       </c>
       <c r="I26">
-        <v>5.0763049412510001E-4</v>
+        <v>2.2170346354858564E-5</v>
       </c>
       <c r="J26" t="s">
         <v>168</v>
@@ -3535,7 +3535,7 @@
         <v>192</v>
       </c>
       <c r="C27">
-        <v>1.173E-5</v>
+        <v>3.5532000000000001E-4</v>
       </c>
       <c r="D27" t="s">
         <v>168</v>
@@ -3547,7 +3547,7 @@
         <v>192</v>
       </c>
       <c r="I27">
-        <v>5.0143758202599996E-4</v>
+        <v>2.4248598388123071E-5</v>
       </c>
       <c r="J27" t="s">
         <v>168</v>
@@ -3561,7 +3561,7 @@
         <v>193</v>
       </c>
       <c r="C28">
-        <v>1.5290000000000001E-5</v>
+        <v>2.9901999999999999E-4</v>
       </c>
       <c r="D28" t="s">
         <v>168</v>
@@ -3573,7 +3573,7 @@
         <v>193</v>
       </c>
       <c r="I28">
-        <v>5.1173818019079997E-4</v>
+        <v>2.7889026446391758E-5</v>
       </c>
       <c r="J28" t="s">
         <v>168</v>
@@ -3587,7 +3587,7 @@
         <v>194</v>
       </c>
       <c r="C29">
-        <v>3.2993999999999998E-4</v>
+        <v>1.4504000000000001E-4</v>
       </c>
       <c r="D29" t="s">
         <v>168</v>
@@ -3599,7 +3599,7 @@
         <v>194</v>
       </c>
       <c r="I29">
-        <v>5.2418677039009997E-4</v>
+        <v>3.0134654482335281E-5</v>
       </c>
       <c r="J29" t="s">
         <v>168</v>
@@ -3625,7 +3625,7 @@
         <v>195</v>
       </c>
       <c r="I30">
-        <v>5.2969623047830004E-4</v>
+        <v>3.1152858498632659E-5</v>
       </c>
       <c r="J30" t="s">
         <v>168</v>
@@ -3651,7 +3651,7 @@
         <v>196</v>
       </c>
       <c r="I31">
-        <v>5.267183324306E-4</v>
+        <v>3.2108296513925397E-5</v>
       </c>
       <c r="J31" t="s">
         <v>168</v>
@@ -3677,7 +3677,7 @@
         <v>197</v>
       </c>
       <c r="I32">
-        <v>5.1846809029859999E-4</v>
+        <v>3.4849078557794355E-5</v>
       </c>
       <c r="J32" t="s">
         <v>168</v>
@@ -3703,7 +3703,7 @@
         <v>198</v>
       </c>
       <c r="I33">
-        <v>4.9887812398500002E-4</v>
+        <v>3.7652626602667951E-5</v>
       </c>
       <c r="J33" t="s">
         <v>168</v>
@@ -3729,7 +3729,7 @@
         <v>199</v>
       </c>
       <c r="I34">
-        <v>4.9700211795500001E-4</v>
+        <v>4.4828872717530944E-5</v>
       </c>
       <c r="J34" t="s">
         <v>168</v>
@@ -3755,7 +3755,7 @@
         <v>200</v>
       </c>
       <c r="I35">
-        <v>4.8348650573860002E-4</v>
+        <v>5.2535142840877497E-5</v>
       </c>
       <c r="J35" t="s">
         <v>168</v>
@@ -3781,7 +3781,7 @@
         <v>201</v>
       </c>
       <c r="I36">
-        <v>5.8023680928727044E-6</v>
+        <v>3.925878764636944E-2</v>
       </c>
       <c r="J36" t="s">
         <v>168</v>
@@ -3807,7 +3807,7 @@
         <v>202</v>
       </c>
       <c r="I37">
-        <v>7.929438126918588E-6</v>
+        <v>5.2365604898154325E-3</v>
       </c>
       <c r="J37" t="s">
         <v>168</v>
@@ -3821,7 +3821,7 @@
         <v>203</v>
       </c>
       <c r="C38">
-        <v>0</v>
+        <v>2.6182499999999999E-3</v>
       </c>
       <c r="D38" t="s">
         <v>168</v>
@@ -3833,7 +3833,7 @@
         <v>203</v>
       </c>
       <c r="I38">
-        <v>1.1646580186415163E-5</v>
+        <v>5.8684746399294265E-3</v>
       </c>
       <c r="J38" t="s">
         <v>168</v>
@@ -3847,7 +3847,7 @@
         <v>204</v>
       </c>
       <c r="C39">
-        <v>0</v>
+        <v>4.28598E-3</v>
       </c>
       <c r="D39" t="s">
         <v>168</v>
@@ -3859,7 +3859,7 @@
         <v>204</v>
       </c>
       <c r="I39">
-        <v>1.3627196218116904E-5</v>
+        <v>6.3781973340883225E-3</v>
       </c>
       <c r="J39" t="s">
         <v>168</v>
@@ -3873,7 +3873,7 @@
         <v>205</v>
       </c>
       <c r="C40">
-        <v>0</v>
+        <v>4.4561829999999997E-2</v>
       </c>
       <c r="D40" t="s">
         <v>168</v>
@@ -3885,7 +3885,7 @@
         <v>205</v>
       </c>
       <c r="I40">
-        <v>1.388523422224706E-5</v>
+        <v>5.3151797878739089E-2</v>
       </c>
       <c r="J40" t="s">
         <v>168</v>
@@ -3899,7 +3899,7 @@
         <v>206</v>
       </c>
       <c r="C41">
-        <v>0</v>
+        <v>2.84505E-3</v>
       </c>
       <c r="D41" t="s">
         <v>168</v>
@@ -3911,7 +3911,7 @@
         <v>206</v>
       </c>
       <c r="I41">
-        <v>1.3494690215996013E-5</v>
+        <v>6.0715923931809303E-3</v>
       </c>
       <c r="J41" t="s">
         <v>168</v>
@@ -3925,7 +3925,7 @@
         <v>207</v>
       </c>
       <c r="C42">
-        <v>0</v>
+        <v>2.9050000000000001E-5</v>
       </c>
       <c r="D42" t="s">
         <v>168</v>
@@ -3937,7 +3937,7 @@
         <v>207</v>
       </c>
       <c r="I42">
-        <v>1.2399772198470756E-5</v>
+        <v>6.1940697831412853E-3</v>
       </c>
       <c r="J42" t="s">
         <v>168</v>
@@ -3963,7 +3963,7 @@
         <v>208</v>
       </c>
       <c r="I43">
-        <v>1.0077430161299347E-5</v>
+        <v>2.6182251503069111E-2</v>
       </c>
       <c r="J43" t="s">
         <v>168</v>
@@ -3977,7 +3977,7 @@
         <v>209</v>
       </c>
       <c r="C44">
-        <v>8.7470000000000001E-5</v>
+        <v>0</v>
       </c>
       <c r="D44" t="s">
         <v>168</v>
@@ -3989,7 +3989,7 @@
         <v>209</v>
       </c>
       <c r="I44">
-        <v>1.3132042210191469E-5</v>
+        <v>2.6168540618849999E-4</v>
       </c>
       <c r="J44" t="s">
         <v>168</v>
@@ -4003,7 +4003,7 @@
         <v>210</v>
       </c>
       <c r="C45">
-        <v>2.9012999999999999E-4</v>
+        <v>0</v>
       </c>
       <c r="D45" t="s">
         <v>168</v>
@@ -4015,7 +4015,7 @@
         <v>210</v>
       </c>
       <c r="I45">
-        <v>1.5928616254953433E-5</v>
+        <v>2.5040147400790002E-4</v>
       </c>
       <c r="J45" t="s">
         <v>168</v>
@@ -4029,7 +4029,7 @@
         <v>211</v>
       </c>
       <c r="C46">
-        <v>3.5263999999999998E-4</v>
+        <v>0</v>
       </c>
       <c r="D46" t="s">
         <v>168</v>
@@ -4041,7 +4041,7 @@
         <v>211</v>
       </c>
       <c r="I46">
-        <v>1.7539610280739002E-5</v>
+        <v>2.4463397591559997E-4</v>
       </c>
       <c r="J46" t="s">
         <v>168</v>
@@ -4055,7 +4055,7 @@
         <v>212</v>
       </c>
       <c r="C47">
-        <v>3.9892999999999998E-4</v>
+        <v>0</v>
       </c>
       <c r="D47" t="s">
         <v>168</v>
@@ -4067,7 +4067,7 @@
         <v>212</v>
       </c>
       <c r="I47">
-        <v>1.8522944296478247E-5</v>
+        <v>2.6381945022260002E-4</v>
       </c>
       <c r="J47" t="s">
         <v>168</v>
@@ -4081,7 +4081,7 @@
         <v>213</v>
       </c>
       <c r="C48">
-        <v>3.5998999999999997E-4</v>
+        <v>0</v>
       </c>
       <c r="D48" t="s">
         <v>168</v>
@@ -4093,7 +4093,7 @@
         <v>213</v>
       </c>
       <c r="I48">
-        <v>1.9492330311994241E-5</v>
+        <v>3.1078236697430002E-4</v>
       </c>
       <c r="J48" t="s">
         <v>168</v>
@@ -4107,7 +4107,7 @@
         <v>214</v>
       </c>
       <c r="C49">
-        <v>4.1721999999999999E-4</v>
+        <v>0</v>
       </c>
       <c r="D49" t="s">
         <v>168</v>
@@ -4119,7 +4119,7 @@
         <v>214</v>
       </c>
       <c r="I49">
-        <v>2.2156398354635315E-5</v>
+        <v>3.7073087193390002E-4</v>
       </c>
       <c r="J49" t="s">
         <v>168</v>
@@ -4133,7 +4133,7 @@
         <v>215</v>
       </c>
       <c r="C50">
-        <v>3.9962999999999999E-4</v>
+        <v>0</v>
       </c>
       <c r="D50" t="s">
         <v>168</v>
@@ -4145,7 +4145,7 @@
         <v>215</v>
       </c>
       <c r="I50">
-        <v>2.4325312389350954E-5</v>
+        <v>4.3604238297919999E-4</v>
       </c>
       <c r="J50" t="s">
         <v>168</v>
@@ -4159,7 +4159,7 @@
         <v>216</v>
       </c>
       <c r="C51">
-        <v>4.0189000000000002E-4</v>
+        <v>0</v>
       </c>
       <c r="D51" t="s">
         <v>168</v>
@@ -4171,7 +4171,7 @@
         <v>216</v>
       </c>
       <c r="I51">
-        <v>2.7630988442261605E-5</v>
+        <v>4.8225210771890001E-4</v>
       </c>
       <c r="J51" t="s">
         <v>168</v>
@@ -4185,7 +4185,7 @@
         <v>217</v>
       </c>
       <c r="C52">
-        <v>3.8787000000000001E-4</v>
+        <v>2.6494000000000002E-4</v>
       </c>
       <c r="D52" t="s">
         <v>168</v>
@@ -4197,7 +4197,7 @@
         <v>217</v>
       </c>
       <c r="I52">
-        <v>3.389364054250161E-5</v>
+        <v>5.1081761217609996E-4</v>
       </c>
       <c r="J52" t="s">
         <v>168</v>
@@ -4211,7 +4211,7 @@
         <v>218</v>
       </c>
       <c r="C53">
-        <v>3.4312999999999998E-4</v>
+        <v>3.7495999999999997E-4</v>
       </c>
       <c r="D53" t="s">
         <v>168</v>
@@ -4223,7 +4223,7 @@
         <v>218</v>
       </c>
       <c r="I53">
-        <v>4.0212084643634631E-5</v>
+        <v>5.2186442835289995E-4</v>
       </c>
       <c r="J53" t="s">
         <v>168</v>
@@ -4237,7 +4237,7 @@
         <v>219</v>
       </c>
       <c r="C54">
-        <v>1.9991E-4</v>
+        <v>4.1879999999999999E-4</v>
       </c>
       <c r="D54" t="s">
         <v>168</v>
@@ -4249,7 +4249,7 @@
         <v>219</v>
       </c>
       <c r="I54">
-        <v>4.5930764735167832E-5</v>
+        <v>5.278969384495E-4</v>
       </c>
       <c r="J54" t="s">
         <v>168</v>
@@ -4263,7 +4263,7 @@
         <v>220</v>
       </c>
       <c r="C55">
-        <v>0</v>
+        <v>4.3636E-4</v>
       </c>
       <c r="D55" t="s">
         <v>168</v>
@@ -4275,7 +4275,7 @@
         <v>220</v>
       </c>
       <c r="I55">
-        <v>5.4480888872021113E-5</v>
+        <v>5.3526845656750005E-4</v>
       </c>
       <c r="J55" t="s">
         <v>168</v>
@@ -4289,7 +4289,7 @@
         <v>221</v>
       </c>
       <c r="C56">
-        <v>0</v>
+        <v>4.5135999999999999E-4</v>
       </c>
       <c r="D56" t="s">
         <v>168</v>
@@ -4301,7 +4301,7 @@
         <v>221</v>
       </c>
       <c r="I56">
-        <v>6.3400635014790571E-5</v>
+        <v>5.3540793656969995E-4</v>
       </c>
       <c r="J56" t="s">
         <v>168</v>
@@ -4315,7 +4315,7 @@
         <v>222</v>
       </c>
       <c r="C57">
-        <v>0</v>
+        <v>4.6214999999999998E-4</v>
       </c>
       <c r="D57" t="s">
         <v>168</v>
@@ -4327,7 +4327,7 @@
         <v>222</v>
       </c>
       <c r="I57">
-        <v>7.2159979154992639E-5</v>
+        <v>5.2579079041580002E-4</v>
       </c>
       <c r="J57" t="s">
         <v>168</v>
@@ -4341,7 +4341,7 @@
         <v>223</v>
       </c>
       <c r="C58">
-        <v>0</v>
+        <v>4.4820999999999999E-4</v>
       </c>
       <c r="D58" t="s">
         <v>168</v>
@@ -4353,7 +4353,7 @@
         <v>223</v>
       </c>
       <c r="I58">
-        <v>8.335324933415212E-5</v>
+        <v>5.1069208017409998E-4</v>
       </c>
       <c r="J58" t="s">
         <v>168</v>
@@ -4367,7 +4367,7 @@
         <v>224</v>
       </c>
       <c r="C59">
-        <v>0</v>
+        <v>4.5320000000000001E-4</v>
       </c>
       <c r="D59" t="s">
         <v>168</v>
@@ -4379,7 +4379,7 @@
         <v>224</v>
       </c>
       <c r="I59">
-        <v>9.3988599504381517E-5</v>
+        <v>4.7912775566889999E-4</v>
       </c>
       <c r="J59" t="s">
         <v>168</v>
@@ -4393,7 +4393,7 @@
         <v>225</v>
       </c>
       <c r="C60">
-        <v>3.1587199999999998E-3</v>
+        <v>4.0219000000000002E-4</v>
       </c>
       <c r="D60" t="s">
         <v>168</v>
@@ -4405,7 +4405,7 @@
         <v>225</v>
       </c>
       <c r="I60">
-        <v>7.8546642925202359E-2</v>
+        <v>4.1530868064740002E-4</v>
       </c>
       <c r="J60" t="s">
         <v>168</v>
@@ -4419,7 +4419,7 @@
         <v>226</v>
       </c>
       <c r="C61">
-        <v>2.1776719999999999E-2</v>
+        <v>3.5513E-4</v>
       </c>
       <c r="D61" t="s">
         <v>168</v>
@@ -4431,7 +4431,7 @@
         <v>226</v>
       </c>
       <c r="I61">
-        <v>1.1027302924501286E-2</v>
+        <v>3.8454636615500002E-4</v>
       </c>
       <c r="J61" t="s">
         <v>168</v>
@@ -4445,7 +4445,7 @@
         <v>227</v>
       </c>
       <c r="C62">
-        <v>3.625229E-2</v>
+        <v>2.6229999999999998E-4</v>
       </c>
       <c r="D62" t="s">
         <v>168</v>
@@ -4457,7 +4457,7 @@
         <v>227</v>
       </c>
       <c r="I62">
-        <v>1.1826997569300394E-2</v>
+        <v>3.6061857177200002E-4</v>
       </c>
       <c r="J62" t="s">
         <v>168</v>
@@ -4471,7 +4471,7 @@
         <v>228</v>
       </c>
       <c r="C63">
-        <v>4.3965539999999997E-2</v>
+        <v>0</v>
       </c>
       <c r="D63" t="s">
         <v>168</v>
@@ -4483,7 +4483,7 @@
         <v>228</v>
       </c>
       <c r="I63">
-        <v>1.2378097006121405E-2</v>
+        <v>3.208667711357E-4</v>
       </c>
       <c r="J63" t="s">
         <v>168</v>
@@ -4497,7 +4497,7 @@
         <v>229</v>
       </c>
       <c r="C64">
-        <v>0.37751600000000002</v>
+        <v>0</v>
       </c>
       <c r="D64" t="s">
         <v>168</v>
@@ -4509,7 +4509,7 @@
         <v>229</v>
       </c>
       <c r="I64">
-        <v>0.11771605876014028</v>
+        <v>2.748592923993E-4</v>
       </c>
       <c r="J64" t="s">
         <v>168</v>
@@ -4523,7 +4523,7 @@
         <v>230</v>
       </c>
       <c r="C65">
-        <v>3.4526719999999997E-2</v>
+        <v>0</v>
       </c>
       <c r="D65" t="s">
         <v>168</v>
@@ -4535,7 +4535,7 @@
         <v>230</v>
       </c>
       <c r="I65">
-        <v>1.1691046411124525E-2</v>
+        <v>2.3754839180210001E-4</v>
       </c>
       <c r="J65" t="s">
         <v>168</v>
@@ -4549,7 +4549,7 @@
         <v>231</v>
       </c>
       <c r="C66">
-        <v>2.228991E-2</v>
+        <v>0</v>
       </c>
       <c r="D66" t="s">
         <v>168</v>
@@ -4561,7 +4561,7 @@
         <v>231</v>
       </c>
       <c r="I66">
-        <v>1.121011238942698E-2</v>
+        <v>1.9982602519839999E-4</v>
       </c>
       <c r="J66" t="s">
         <v>168</v>
@@ -4575,7 +4575,7 @@
         <v>232</v>
       </c>
       <c r="C67">
-        <v>4.3419000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="D67" t="s">
         <v>168</v>
@@ -4587,7 +4587,7 @@
         <v>232</v>
       </c>
       <c r="I67">
-        <v>4.5567523939345392E-2</v>
+        <v>1.633868746151E-4</v>
       </c>
       <c r="J67" t="s">
         <v>168</v>
@@ -4601,7 +4601,7 @@
         <v>233</v>
       </c>
       <c r="C68">
-        <v>0</v>
+        <v>3.1587199999999998E-3</v>
       </c>
       <c r="D68" t="s">
         <v>168</v>
@@ -4613,7 +4613,7 @@
         <v>233</v>
       </c>
       <c r="I68">
-        <v>1.3334762445433577E-2</v>
+        <v>7.8546642925202359E-2</v>
       </c>
       <c r="J68" t="s">
         <v>168</v>
@@ -4627,7 +4627,7 @@
         <v>234</v>
       </c>
       <c r="C69">
-        <v>1.1604300000000001E-3</v>
+        <v>2.1776719999999999E-2</v>
       </c>
       <c r="D69" t="s">
         <v>168</v>
@@ -4639,7 +4639,7 @@
         <v>234</v>
       </c>
       <c r="I69">
-        <v>1.9110155105873099E-3</v>
+        <v>1.1027302924501286E-2</v>
       </c>
       <c r="J69" t="s">
         <v>168</v>
@@ -4653,7 +4653,7 @@
         <v>235</v>
       </c>
       <c r="C70">
-        <v>6.3854599999999999E-3</v>
+        <v>3.625229E-2</v>
       </c>
       <c r="D70" t="s">
         <v>168</v>
@@ -4665,7 +4665,7 @@
         <v>235</v>
       </c>
       <c r="I70">
-        <v>2.0911469594705359E-3</v>
+        <v>1.1826997569300394E-2</v>
       </c>
       <c r="J70" t="s">
         <v>168</v>
@@ -4679,7 +4679,7 @@
         <v>236</v>
       </c>
       <c r="C71">
-        <v>8.2340099999999999E-3</v>
+        <v>4.3965539999999997E-2</v>
       </c>
       <c r="D71" t="s">
         <v>168</v>
@@ -4691,7 +4691,7 @@
         <v>236</v>
       </c>
       <c r="I71">
-        <v>2.2526369060554556E-3</v>
+        <v>1.2378097006121405E-2</v>
       </c>
       <c r="J71" t="s">
         <v>168</v>
@@ -4705,7 +4705,7 @@
         <v>237</v>
       </c>
       <c r="C72">
-        <v>7.3607709999999993E-2</v>
+        <v>0.37751600000000002</v>
       </c>
       <c r="D72" t="s">
         <v>168</v>
@@ -4717,7 +4717,7 @@
         <v>237</v>
       </c>
       <c r="I72">
-        <v>2.1338466699538636E-2</v>
+        <v>0.11771605876014028</v>
       </c>
       <c r="J72" t="s">
         <v>168</v>
@@ -4731,7 +4731,7 @@
         <v>238</v>
       </c>
       <c r="C73">
-        <v>5.7424700000000004E-3</v>
+        <v>3.4526719999999997E-2</v>
       </c>
       <c r="D73" t="s">
         <v>168</v>
@@ -4743,7 +4743,7 @@
         <v>238</v>
       </c>
       <c r="I73">
-        <v>1.9564441473145294E-3</v>
+        <v>1.1691046411124525E-2</v>
       </c>
       <c r="J73" t="s">
         <v>168</v>
@@ -4757,7 +4757,7 @@
         <v>239</v>
       </c>
       <c r="C74">
-        <v>6.8303999999999999E-4</v>
+        <v>2.228991E-2</v>
       </c>
       <c r="D74" t="s">
         <v>168</v>
@@ -4769,7 +4769,7 @@
         <v>239</v>
       </c>
       <c r="I74">
-        <v>1.8820524881237449E-3</v>
+        <v>1.121011238942698E-2</v>
       </c>
       <c r="J74" t="s">
         <v>168</v>
@@ -4783,7 +4783,7 @@
         <v>240</v>
       </c>
       <c r="C75">
-        <v>0</v>
+        <v>4.3419000000000001E-3</v>
       </c>
       <c r="D75" t="s">
         <v>168</v>
@@ -4795,7 +4795,7 @@
         <v>240</v>
       </c>
       <c r="I75">
-        <v>7.9634921694619522E-3</v>
+        <v>4.5567523939345392E-2</v>
       </c>
       <c r="J75" t="s">
         <v>168</v>
@@ -4821,7 +4821,7 @@
         <v>241</v>
       </c>
       <c r="I76">
-        <v>1.2060766053042528E-2</v>
+        <v>2.5395528498476105E-2</v>
       </c>
       <c r="J76" t="s">
         <v>168</v>
@@ -4835,7 +4835,7 @@
         <v>242</v>
       </c>
       <c r="C77">
-        <v>0</v>
+        <v>1.1604300000000001E-3</v>
       </c>
       <c r="D77" t="s">
         <v>168</v>
@@ -4847,7 +4847,7 @@
         <v>242</v>
       </c>
       <c r="I77">
-        <v>1.6289660240728879E-3</v>
+        <v>3.5399815346601978E-3</v>
       </c>
       <c r="J77" t="s">
         <v>168</v>
@@ -4861,7 +4861,7 @@
         <v>243</v>
       </c>
       <c r="C78">
-        <v>3.0495299999999999E-3</v>
+        <v>9.4349900000000007E-3</v>
       </c>
       <c r="D78" t="s">
         <v>168</v>
@@ -4873,7 +4873,7 @@
         <v>243</v>
       </c>
       <c r="I78">
-        <v>1.8370004474027857E-3</v>
+        <v>3.9281474068733214E-3</v>
       </c>
       <c r="J78" t="s">
         <v>168</v>
@@ -4887,7 +4887,7 @@
         <v>244</v>
       </c>
       <c r="C79">
-        <v>5.5238200000000005E-3</v>
+        <v>1.375783E-2</v>
       </c>
       <c r="D79" t="s">
         <v>168</v>
@@ -4899,7 +4899,7 @@
         <v>244</v>
       </c>
       <c r="I79">
-        <v>1.9892637918398574E-3</v>
+        <v>4.2419006978953134E-3</v>
       </c>
       <c r="J79" t="s">
         <v>168</v>
@@ -4913,7 +4913,7 @@
         <v>245</v>
       </c>
       <c r="C80">
-        <v>5.6898549999999999E-2</v>
+        <v>0.13050626000000001</v>
       </c>
       <c r="D80" t="s">
         <v>168</v>
@@ -4925,7 +4925,7 @@
         <v>245</v>
       </c>
       <c r="I80">
-        <v>1.608118645539304E-2</v>
+        <v>3.7419653154931676E-2</v>
       </c>
       <c r="J80" t="s">
         <v>168</v>
@@ -4939,7 +4939,7 @@
         <v>246</v>
       </c>
       <c r="C81">
-        <v>1.07004E-3</v>
+        <v>6.8125099999999999E-3</v>
       </c>
       <c r="D81" t="s">
         <v>168</v>
@@ -4951,7 +4951,7 @@
         <v>246</v>
       </c>
       <c r="I81">
-        <v>1.5946888135244439E-3</v>
+        <v>3.5511329608389733E-3</v>
       </c>
       <c r="J81" t="s">
         <v>168</v>
@@ -4965,7 +4965,7 @@
         <v>247</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>6.8303999999999999E-4</v>
       </c>
       <c r="D82" t="s">
         <v>168</v>
@@ -4977,7 +4977,7 @@
         <v>247</v>
       </c>
       <c r="I82">
-        <v>1.6258695680234632E-3</v>
+        <v>3.5079220561472081E-3</v>
       </c>
       <c r="J82" t="s">
         <v>168</v>
@@ -5003,7 +5003,7 @@
         <v>248</v>
       </c>
       <c r="I83">
-        <v>6.814658157074582E-3</v>
+        <v>1.4778150326536534E-2</v>
       </c>
       <c r="J83" t="s">
         <v>168</v>
@@ -5850,7 +5850,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CCDD696-70CE-4294-AC0B-85FB2B83EC0E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5632DDA3-0617-4735-88DD-098DC922CA76}">
   <dimension ref="B2:O227"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -5902,10 +5902,10 @@
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B4">
-        <v>7.031963470319634E-2</v>
+        <v>4.6347031963470321E-2</v>
       </c>
       <c r="C4">
-        <v>2.7770512724892064E-2</v>
+        <v>1.830329247776977E-2</v>
       </c>
       <c r="D4" t="s">
         <v>167</v>
@@ -5920,7 +5920,7 @@
         <v>167</v>
       </c>
       <c r="J4">
-        <v>6.0801705115371363E-2</v>
+        <v>4.0621909405171935E-2</v>
       </c>
       <c r="M4" t="s">
         <v>13</v>
@@ -5929,15 +5929,15 @@
         <v>167</v>
       </c>
       <c r="O4">
-        <v>0.30858405088329577</v>
+        <v>0.29538499251913142</v>
       </c>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B5">
-        <v>1.0045662100456621E-2</v>
+        <v>6.6210045662100456E-3</v>
       </c>
       <c r="C5">
-        <v>1.6773156320181653E-2</v>
+        <v>1.1055034847392457E-2</v>
       </c>
       <c r="D5" t="s">
         <v>170</v>
@@ -5952,7 +5952,7 @@
         <v>170</v>
       </c>
       <c r="J5">
-        <v>1.175329925329068E-2</v>
+        <v>7.9412180731892688E-3</v>
       </c>
       <c r="M5" t="s">
         <v>13</v>
@@ -5961,15 +5961,15 @@
         <v>170</v>
       </c>
       <c r="O5">
-        <v>6.9246529191771877E-2</v>
+        <v>4.7880346720967637E-2</v>
       </c>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B6">
-        <v>1.0045662100456621E-2</v>
+        <v>6.6210045662100456E-3</v>
       </c>
       <c r="C6">
-        <v>1.2835110923269446E-2</v>
+        <v>8.4595049267003151E-3</v>
       </c>
       <c r="D6" t="s">
         <v>171</v>
@@ -5984,7 +5984,7 @@
         <v>171</v>
       </c>
       <c r="J6">
-        <v>1.2220554658099445E-2</v>
+        <v>8.2446842141027793E-3</v>
       </c>
       <c r="M6" t="s">
         <v>13</v>
@@ -5993,15 +5993,15 @@
         <v>171</v>
       </c>
       <c r="O6">
-        <v>6.8481250757174816E-2</v>
+        <v>4.8271431939471476E-2</v>
       </c>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B7">
-        <v>1.0045662100456621E-2</v>
+        <v>6.6210045662100456E-3</v>
       </c>
       <c r="C7">
-        <v>1.2718428096694268E-2</v>
+        <v>8.3826003364575845E-3</v>
       </c>
       <c r="D7" t="s">
         <v>172</v>
@@ -6016,7 +6016,7 @@
         <v>172</v>
       </c>
       <c r="J7">
-        <v>1.2425434853477397E-2</v>
+        <v>8.3734725950227341E-3</v>
       </c>
       <c r="M7" t="s">
         <v>13</v>
@@ -6025,15 +6025,15 @@
         <v>172</v>
       </c>
       <c r="O7">
-        <v>6.4993842116702005E-2</v>
+        <v>4.5772929750830249E-2</v>
       </c>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B8">
-        <v>8.0365296803652966E-2</v>
+        <v>5.2968036529680365E-2</v>
       </c>
       <c r="C8">
-        <v>0.11790799625421611</v>
+        <v>7.7712088440278798E-2</v>
       </c>
       <c r="D8" t="s">
         <v>173</v>
@@ -6048,7 +6048,7 @@
         <v>173</v>
       </c>
       <c r="J8">
-        <v>9.8342759084460843E-2</v>
+        <v>6.6493608242087332E-2</v>
       </c>
       <c r="M8" t="s">
         <v>13</v>
@@ -6057,15 +6057,15 @@
         <v>173</v>
       </c>
       <c r="O8">
-        <v>0.10373029369846321</v>
+        <v>8.084695589871238E-2</v>
       </c>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B9">
-        <v>1.0045662100456621E-2</v>
+        <v>6.6210045662100456E-3</v>
       </c>
       <c r="C9">
-        <v>1.5168767454772974E-2</v>
+        <v>9.9975967315549183E-3</v>
       </c>
       <c r="D9" t="s">
         <v>174</v>
@@ -6080,7 +6080,7 @@
         <v>174</v>
       </c>
       <c r="J9">
-        <v>1.2815122864874153E-2</v>
+        <v>8.6877634029194871E-3</v>
       </c>
       <c r="M9" t="s">
         <v>13</v>
@@ -6089,15 +6089,15 @@
         <v>174</v>
       </c>
       <c r="O9">
-        <v>6.5272922499129749E-2</v>
+        <v>4.0708805821492611E-2</v>
       </c>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B10">
-        <v>1.0045662100456621E-2</v>
+        <v>6.6210045662100456E-3</v>
       </c>
       <c r="C10">
-        <v>1.3710232122583267E-2</v>
+        <v>9.0362893535207902E-3</v>
       </c>
       <c r="D10" t="s">
         <v>175</v>
@@ -6112,7 +6112,7 @@
         <v>175</v>
       </c>
       <c r="J10">
-        <v>1.2460477037644796E-2</v>
+        <v>8.3898654136314189E-3</v>
       </c>
       <c r="M10" t="s">
         <v>13</v>
@@ -6121,15 +6121,15 @@
         <v>175</v>
       </c>
       <c r="O10">
-        <v>4.9403409269146437E-2</v>
+        <v>3.1195793865904875E-2</v>
       </c>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B11">
-        <v>4.0182648401826483E-2</v>
+        <v>2.6484018264840183E-2</v>
       </c>
       <c r="C11">
-        <v>2.4211686514349171E-2</v>
+        <v>1.59577024753665E-2</v>
       </c>
       <c r="D11" t="s">
         <v>176</v>
@@ -6144,7 +6144,7 @@
         <v>176</v>
       </c>
       <c r="J11">
-        <v>4.1935114069182197E-2</v>
+        <v>2.8063478230292309E-2</v>
       </c>
       <c r="M11" t="s">
         <v>13</v>
@@ -6153,7 +6153,7 @@
         <v>176</v>
       </c>
       <c r="O11">
-        <v>0.12332832238189217</v>
+        <v>0.10997710713671438</v>
       </c>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.45">
@@ -6176,7 +6176,7 @@
         <v>177</v>
       </c>
       <c r="J12">
-        <v>9.4838184132964588E-5</v>
+        <v>9.4207888183753881E-5</v>
       </c>
       <c r="M12" t="s">
         <v>13</v>
@@ -6208,7 +6208,7 @@
         <v>178</v>
       </c>
       <c r="J13">
-        <v>8.8624232049278322E-5</v>
+        <v>8.9217953247669855E-5</v>
       </c>
       <c r="M13" t="s">
         <v>13</v>
@@ -6240,7 +6240,7 @@
         <v>179</v>
       </c>
       <c r="J14">
-        <v>8.5582962449407696E-5</v>
+        <v>8.8733602903986751E-5</v>
       </c>
       <c r="M14" t="s">
         <v>13</v>
@@ -6272,7 +6272,7 @@
         <v>180</v>
       </c>
       <c r="J15">
-        <v>8.5710620679525724E-5</v>
+        <v>8.8733602903986751E-5</v>
       </c>
       <c r="M15" t="s">
         <v>13</v>
@@ -6304,7 +6304,7 @@
         <v>181</v>
       </c>
       <c r="J16">
-        <v>8.6251290830613849E-5</v>
+        <v>9.4005136877095831E-5</v>
       </c>
       <c r="M16" t="s">
         <v>13</v>
@@ -6336,7 +6336,7 @@
         <v>182</v>
       </c>
       <c r="J17">
-        <v>9.7616627964945175E-5</v>
+        <v>1.1564696153592828E-4</v>
       </c>
       <c r="M17" t="s">
         <v>13</v>
@@ -6368,7 +6368,7 @@
         <v>183</v>
       </c>
       <c r="J18">
-        <v>1.0350017051185539E-4</v>
+        <v>1.3554662681903237E-4</v>
       </c>
       <c r="M18" t="s">
         <v>13</v>
@@ -6400,7 +6400,7 @@
         <v>184</v>
       </c>
       <c r="J19">
-        <v>1.153573672975238E-4</v>
+        <v>1.4393076881472511E-4</v>
       </c>
       <c r="M19" t="s">
         <v>13</v>
@@ -6432,7 +6432,7 @@
         <v>185</v>
       </c>
       <c r="J20">
-        <v>1.2044492323310986E-4</v>
+        <v>1.4970167174682529E-4</v>
       </c>
       <c r="M20" t="s">
         <v>13</v>
@@ -6464,7 +6464,7 @@
         <v>186</v>
       </c>
       <c r="J21">
-        <v>1.2244239906907426E-4</v>
+        <v>1.4997200682236931E-4</v>
       </c>
       <c r="M21" t="s">
         <v>13</v>
@@ -6496,7 +6496,7 @@
         <v>187</v>
       </c>
       <c r="J22">
-        <v>1.2351998471742348E-4</v>
+        <v>1.4877802690538308E-4</v>
       </c>
       <c r="M22" t="s">
         <v>13</v>
@@ -6528,7 +6528,7 @@
         <v>188</v>
       </c>
       <c r="J23">
-        <v>1.2240860718463128E-4</v>
+        <v>1.4705839545261674E-4</v>
       </c>
       <c r="M23" t="s">
         <v>13</v>
@@ -6560,7 +6560,7 @@
         <v>189</v>
       </c>
       <c r="J24">
-        <v>1.2126343776739603E-4</v>
+        <v>1.4620608903388756E-4</v>
       </c>
       <c r="M24" t="s">
         <v>13</v>
@@ -6592,7 +6592,7 @@
         <v>190</v>
       </c>
       <c r="J25">
-        <v>1.2044867788693686E-4</v>
+        <v>1.4522612438504033E-4</v>
       </c>
       <c r="M25" t="s">
         <v>13</v>
@@ -6624,7 +6624,7 @@
         <v>191</v>
       </c>
       <c r="J26">
-        <v>1.2044867788693686E-4</v>
+        <v>1.4447519361964021E-4</v>
       </c>
       <c r="M26" t="s">
         <v>13</v>
@@ -6656,7 +6656,7 @@
         <v>192</v>
       </c>
       <c r="J27">
-        <v>1.2116957142172102E-4</v>
+        <v>1.4602586565019149E-4</v>
       </c>
       <c r="M27" t="s">
         <v>13</v>
@@ -6688,7 +6688,7 @@
         <v>193</v>
       </c>
       <c r="J28">
-        <v>1.2568641997560295E-4</v>
+        <v>1.4929616913350919E-4</v>
       </c>
       <c r="M28" t="s">
         <v>13</v>
@@ -6720,7 +6720,7 @@
         <v>194</v>
       </c>
       <c r="J29">
-        <v>1.2820203803969347E-4</v>
+        <v>1.5358773845777107E-4</v>
       </c>
       <c r="M29" t="s">
         <v>13</v>
@@ -6752,7 +6752,7 @@
         <v>195</v>
       </c>
       <c r="J30">
-        <v>1.2839352538487049E-4</v>
+        <v>1.5358773845777107E-4</v>
       </c>
       <c r="M30" t="s">
         <v>13</v>
@@ -6784,7 +6784,7 @@
         <v>196</v>
       </c>
       <c r="J31">
-        <v>1.2751869104317933E-4</v>
+        <v>1.4866163263674607E-4</v>
       </c>
       <c r="M31" t="s">
         <v>13</v>
@@ -6816,7 +6816,7 @@
         <v>197</v>
       </c>
       <c r="J32">
-        <v>1.2463136225021571E-4</v>
+        <v>1.3730005015624171E-4</v>
       </c>
       <c r="M32" t="s">
         <v>13</v>
@@ -6848,7 +6848,7 @@
         <v>198</v>
       </c>
       <c r="J33">
-        <v>1.2189046495650517E-4</v>
+        <v>1.3011739738518925E-4</v>
       </c>
       <c r="M33" t="s">
         <v>13</v>
@@ -6880,7 +6880,7 @@
         <v>199</v>
       </c>
       <c r="J34">
-        <v>1.1644997156118104E-4</v>
+        <v>1.211024735465604E-4</v>
       </c>
       <c r="M34" t="s">
         <v>13</v>
@@ -6912,7 +6912,7 @@
         <v>200</v>
       </c>
       <c r="J35">
-        <v>9.9985814529782665E-5</v>
+        <v>1.0137552233949834E-4</v>
       </c>
       <c r="M35" t="s">
         <v>13</v>
@@ -6926,10 +6926,10 @@
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B36">
-        <v>1.1415525114155251E-4</v>
+        <v>2.3972602739726026E-2</v>
       </c>
       <c r="C36">
-        <v>2.1546544680075254E-5</v>
+        <v>9.4672202471222967E-3</v>
       </c>
       <c r="D36" t="s">
         <v>201</v>
@@ -6944,7 +6944,7 @@
         <v>201</v>
       </c>
       <c r="J36">
-        <v>9.7622232284060308E-5</v>
+        <v>2.0129033143856129E-2</v>
       </c>
       <c r="M36" t="s">
         <v>13</v>
@@ -6953,15 +6953,15 @@
         <v>201</v>
       </c>
       <c r="O36">
-        <v>0</v>
+        <v>0.28000442758384736</v>
       </c>
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B37">
-        <v>1.1415525114155251E-4</v>
+        <v>3.4246575342465752E-3</v>
       </c>
       <c r="C37">
-        <v>1.4916838624667481E-5</v>
+        <v>5.7181214727892006E-3</v>
       </c>
       <c r="D37" t="s">
         <v>202</v>
@@ -6976,7 +6976,7 @@
         <v>202</v>
       </c>
       <c r="J37">
-        <v>9.1596012891724074E-5</v>
+        <v>3.7865115016458102E-3</v>
       </c>
       <c r="M37" t="s">
         <v>13</v>
@@ -6985,15 +6985,15 @@
         <v>202</v>
       </c>
       <c r="O37">
-        <v>0</v>
+        <v>9.9317769141489043E-2</v>
       </c>
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B38">
-        <v>1.1415525114155251E-4</v>
+        <v>3.4246575342465752E-3</v>
       </c>
       <c r="C38">
-        <v>1.6574265138519424E-5</v>
+        <v>4.3756059965691279E-3</v>
       </c>
       <c r="D38" t="s">
         <v>203</v>
@@ -7008,7 +7008,7 @@
         <v>203</v>
       </c>
       <c r="J38">
-        <v>9.0691141319416879E-5</v>
+        <v>3.9503533306946429E-3</v>
       </c>
       <c r="M38" t="s">
         <v>13</v>
@@ -7017,15 +7017,15 @@
         <v>203</v>
       </c>
       <c r="O38">
-        <v>0</v>
+        <v>9.8145188129578953E-2</v>
       </c>
     </row>
     <row r="39" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B39">
-        <v>1.1415525114155251E-4</v>
+        <v>3.4246575342465752E-3</v>
       </c>
       <c r="C39">
-        <v>1.4585353321897093E-5</v>
+        <v>4.3358277602366805E-3</v>
       </c>
       <c r="D39" t="s">
         <v>204</v>
@@ -7040,7 +7040,7 @@
         <v>204</v>
       </c>
       <c r="J39">
-        <v>9.0691141319416879E-5</v>
+        <v>4.028258642951082E-3</v>
       </c>
       <c r="M39" t="s">
         <v>13</v>
@@ -7049,15 +7049,15 @@
         <v>204</v>
       </c>
       <c r="O39">
-        <v>0</v>
+        <v>8.3718809844315345E-2</v>
       </c>
     </row>
     <row r="40" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B40">
-        <v>1.1415525114155251E-4</v>
+        <v>2.7397260273972601E-2</v>
       </c>
       <c r="C40">
-        <v>2.1215059377304864E-5</v>
+        <v>4.0195907813937302E-2</v>
       </c>
       <c r="D40" t="s">
         <v>205</v>
@@ -7072,7 +7072,7 @@
         <v>205</v>
       </c>
       <c r="J40">
-        <v>9.4727394183442712E-5</v>
+        <v>3.1672122536588271E-2</v>
       </c>
       <c r="M40" t="s">
         <v>13</v>
@@ -7081,15 +7081,15 @@
         <v>205</v>
       </c>
       <c r="O40">
-        <v>0</v>
+        <v>0.11451117458936033</v>
       </c>
     </row>
     <row r="41" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B41">
-        <v>1.1415525114155251E-4</v>
+        <v>3.4246575342465752E-3</v>
       </c>
       <c r="C41">
-        <v>5.7678442682047593E-5</v>
+        <v>5.1711707232180593E-3</v>
       </c>
       <c r="D41" t="s">
         <v>206</v>
@@ -7104,7 +7104,7 @@
         <v>206</v>
       </c>
       <c r="J41">
-        <v>1.1300880366710948E-4</v>
+        <v>4.1040275571799581E-3</v>
       </c>
       <c r="M41" t="s">
         <v>13</v>
@@ -7113,15 +7113,15 @@
         <v>206</v>
       </c>
       <c r="O41">
-        <v>0</v>
+        <v>8.4468689603172331E-2</v>
       </c>
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B42">
-        <v>1.1415525114155251E-4</v>
+        <v>3.4246575342465752E-3</v>
       </c>
       <c r="C42">
-        <v>1.6905750441289813E-4</v>
+        <v>4.6739427690624773E-3</v>
       </c>
       <c r="D42" t="s">
         <v>207</v>
@@ -7136,7 +7136,7 @@
         <v>207</v>
       </c>
       <c r="J42">
-        <v>1.3040411484760404E-4</v>
+        <v>4.0533322212077932E-3</v>
       </c>
       <c r="M42" t="s">
         <v>13</v>
@@ -7145,15 +7145,15 @@
         <v>207</v>
       </c>
       <c r="O42">
-        <v>0</v>
+        <v>6.8248168762223171E-2</v>
       </c>
     </row>
     <row r="43" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B43">
-        <v>1.1415525114155251E-4</v>
+        <v>1.3698630136986301E-2</v>
       </c>
       <c r="C43">
-        <v>1.9060404909297337E-4</v>
+        <v>8.2539840389826719E-3</v>
       </c>
       <c r="D43" t="s">
         <v>208</v>
@@ -7168,7 +7168,7 @@
         <v>208</v>
       </c>
       <c r="J43">
-        <v>1.4105982240863224E-4</v>
+        <v>1.3846796860249375E-2</v>
       </c>
       <c r="M43" t="s">
         <v>13</v>
@@ -7177,7 +7177,7 @@
         <v>208</v>
       </c>
       <c r="O43">
-        <v>0</v>
+        <v>0.12658258946673162</v>
       </c>
     </row>
     <row r="44" spans="2:15" x14ac:dyDescent="0.45">
@@ -7185,7 +7185,7 @@
         <v>1.1415525114155251E-4</v>
       </c>
       <c r="C44">
-        <v>1.4585353321897094E-4</v>
+        <v>2.1546544680075254E-5</v>
       </c>
       <c r="D44" t="s">
         <v>209</v>
@@ -7200,7 +7200,7 @@
         <v>209</v>
       </c>
       <c r="J44">
-        <v>1.4477317504353599E-4</v>
+        <v>9.7201711055436217E-5</v>
       </c>
       <c r="M44" t="s">
         <v>13</v>
@@ -7217,7 +7217,7 @@
         <v>1.1415525114155251E-4</v>
       </c>
       <c r="C45">
-        <v>1.4452759200788939E-4</v>
+        <v>1.4916838624667481E-5</v>
       </c>
       <c r="D45" t="s">
         <v>210</v>
@@ -7232,7 +7232,7 @@
         <v>210</v>
       </c>
       <c r="J45">
-        <v>1.4443901085293292E-4</v>
+        <v>9.1276867316429002E-5</v>
       </c>
       <c r="M45" t="s">
         <v>13</v>
@@ -7249,7 +7249,7 @@
         <v>1.1415525114155251E-4</v>
       </c>
       <c r="C46">
-        <v>1.408812536774151E-4</v>
+        <v>1.6574265138519424E-5</v>
       </c>
       <c r="D46" t="s">
         <v>211</v>
@@ -7264,7 +7264,7 @@
         <v>211</v>
       </c>
       <c r="J46">
-        <v>1.3930264441759584E-4</v>
+        <v>9.0079132745615745E-5</v>
       </c>
       <c r="M46" t="s">
         <v>13</v>
@@ -7281,7 +7281,7 @@
         <v>1.1415525114155251E-4</v>
       </c>
       <c r="C47">
-        <v>1.4054976837464471E-4</v>
+        <v>1.4585353321897093E-5</v>
       </c>
       <c r="D47" t="s">
         <v>212</v>
@@ -7296,7 +7296,7 @@
         <v>212</v>
       </c>
       <c r="J47">
-        <v>1.3768814327198552E-4</v>
+        <v>8.9970247784632731E-5</v>
       </c>
       <c r="M47" t="s">
         <v>13</v>
@@ -7313,7 +7313,7 @@
         <v>1.1415525114155251E-4</v>
       </c>
       <c r="C48">
-        <v>1.4253868019126702E-4</v>
+        <v>2.1215059377304864E-5</v>
       </c>
       <c r="D48" t="s">
         <v>213</v>
@@ -7328,7 +7328,7 @@
         <v>213</v>
       </c>
       <c r="J48">
-        <v>1.3649416335499931E-4</v>
+        <v>9.4366947416050638E-5</v>
       </c>
       <c r="M48" t="s">
         <v>13</v>
@@ -7345,7 +7345,7 @@
         <v>1.1415525114155251E-4</v>
       </c>
       <c r="C49">
-        <v>1.4883690094390442E-4</v>
+        <v>5.7678442682047593E-5</v>
       </c>
       <c r="D49" t="s">
         <v>214</v>
@@ -7360,7 +7360,7 @@
         <v>214</v>
       </c>
       <c r="J49">
-        <v>1.3495475528592897E-4</v>
+        <v>1.0787619188559941E-4</v>
       </c>
       <c r="M49" t="s">
         <v>13</v>
@@ -7377,7 +7377,7 @@
         <v>1.1415525114155251E-4</v>
       </c>
       <c r="C50">
-        <v>1.5049432745775637E-4</v>
+        <v>1.6905750441289813E-4</v>
       </c>
       <c r="D50" t="s">
         <v>215</v>
@@ -7392,7 +7392,7 @@
         <v>215</v>
       </c>
       <c r="J50">
-        <v>1.3467691090273093E-4</v>
+        <v>1.2476462479944889E-4</v>
       </c>
       <c r="M50" t="s">
         <v>13</v>
@@ -7409,7 +7409,7 @@
         <v>1.1415525114155251E-4</v>
       </c>
       <c r="C51">
-        <v>1.7237235744060203E-4</v>
+        <v>1.9060404909297337E-4</v>
       </c>
       <c r="D51" t="s">
         <v>216</v>
@@ -7424,7 +7424,7 @@
         <v>216</v>
       </c>
       <c r="J51">
-        <v>1.3467691090273093E-4</v>
+        <v>1.3805609934703161E-4</v>
       </c>
       <c r="M51" t="s">
         <v>13</v>
@@ -7441,7 +7441,7 @@
         <v>1.1415525114155251E-4</v>
       </c>
       <c r="C52">
-        <v>2.2209515285616027E-4</v>
+        <v>1.4585353321897094E-4</v>
       </c>
       <c r="D52" t="s">
         <v>217</v>
@@ -7456,7 +7456,7 @@
         <v>217</v>
       </c>
       <c r="J52">
-        <v>1.3545787889874709E-4</v>
+        <v>1.4103353983184322E-4</v>
       </c>
       <c r="M52" t="s">
         <v>13</v>
@@ -7473,7 +7473,7 @@
         <v>1.1415525114155251E-4</v>
       </c>
       <c r="C53">
-        <v>2.2209515285616027E-4</v>
+        <v>1.4452759200788939E-4</v>
       </c>
       <c r="D53" t="s">
         <v>218</v>
@@ -7488,7 +7488,7 @@
         <v>218</v>
       </c>
       <c r="J53">
-        <v>1.3967810980029596E-4</v>
+        <v>1.4061301860321916E-4</v>
       </c>
       <c r="M53" t="s">
         <v>13</v>
@@ -7505,7 +7505,7 @@
         <v>1.1415525114155251E-4</v>
       </c>
       <c r="C54">
-        <v>1.7237235744060203E-4</v>
+        <v>1.408812536774151E-4</v>
       </c>
       <c r="D54" t="s">
         <v>219</v>
@@ -7520,7 +7520,7 @@
         <v>219</v>
       </c>
       <c r="J54">
-        <v>1.4106357706245923E-4</v>
+        <v>1.3764308742606152E-4</v>
       </c>
       <c r="M54" t="s">
         <v>13</v>
@@ -7537,7 +7537,7 @@
         <v>1.1415525114155251E-4</v>
       </c>
       <c r="C55">
-        <v>1.5579809230208258E-4</v>
+        <v>1.4054976837464471E-4</v>
       </c>
       <c r="D55" t="s">
         <v>220</v>
@@ -7552,7 +7552,7 @@
         <v>220</v>
       </c>
       <c r="J55">
-        <v>1.4347406481939371E-4</v>
+        <v>1.3494724597827497E-4</v>
       </c>
       <c r="M55" t="s">
         <v>13</v>
@@ -7569,7 +7569,7 @@
         <v>1.1415525114155251E-4</v>
       </c>
       <c r="C56">
-        <v>1.093901499142282E-4</v>
+        <v>1.4253868019126702E-4</v>
       </c>
       <c r="D56" t="s">
         <v>221</v>
@@ -7584,7 +7584,7 @@
         <v>221</v>
       </c>
       <c r="J56">
-        <v>1.3339281929389667E-4</v>
+        <v>1.3338155533241565E-4</v>
       </c>
       <c r="M56" t="s">
         <v>13</v>
@@ -7601,7 +7601,7 @@
         <v>1.1415525114155251E-4</v>
       </c>
       <c r="C57">
-        <v>7.9556472664893237E-5</v>
+        <v>1.4883690094390442E-4</v>
       </c>
       <c r="D57" t="s">
         <v>222</v>
@@ -7616,7 +7616,7 @@
         <v>222</v>
       </c>
       <c r="J57">
-        <v>1.2570704291002606E-4</v>
+        <v>1.3290471429638657E-4</v>
       </c>
       <c r="M57" t="s">
         <v>13</v>
@@ -7633,7 +7633,7 @@
         <v>1.1415525114155251E-4</v>
       </c>
       <c r="C58">
-        <v>5.6352501470966035E-5</v>
+        <v>1.5049432745775637E-4</v>
       </c>
       <c r="D58" t="s">
         <v>223</v>
@@ -7648,7 +7648,7 @@
         <v>223</v>
       </c>
       <c r="J58">
-        <v>1.1533668903984995E-4</v>
+        <v>1.3239032672208743E-4</v>
       </c>
       <c r="M58" t="s">
         <v>13</v>
@@ -7665,7 +7665,7 @@
         <v>1.1415525114155251E-4</v>
       </c>
       <c r="C59">
-        <v>2.9833677249334962E-5</v>
+        <v>1.7237235744060203E-4</v>
       </c>
       <c r="D59" t="s">
         <v>224</v>
@@ -7680,7 +7680,7 @@
         <v>224</v>
       </c>
       <c r="J59">
-        <v>1.0387373090601659E-4</v>
+        <v>1.3239032672208745E-4</v>
       </c>
       <c r="M59" t="s">
         <v>13</v>
@@ -7694,10 +7694,10 @@
     </row>
     <row r="60" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B60">
-        <v>0.12226027397260274</v>
+        <v>1.1415525114155251E-4</v>
       </c>
       <c r="C60">
-        <v>4.8282823260323703E-2</v>
+        <v>2.2209515285616027E-4</v>
       </c>
       <c r="D60" t="s">
         <v>225</v>
@@ -7712,7 +7712,7 @@
         <v>225</v>
       </c>
       <c r="J60">
-        <v>9.5989883126765013E-2</v>
+        <v>1.3292348756552155E-4</v>
       </c>
       <c r="M60" t="s">
         <v>13</v>
@@ -7721,15 +7721,15 @@
         <v>225</v>
       </c>
       <c r="O60">
-        <v>0.25253238420196467</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B61">
-        <v>1.7465753424657535E-2</v>
+        <v>1.1415525114155251E-4</v>
       </c>
       <c r="C61">
-        <v>2.9162419511224922E-2</v>
+        <v>2.2209515285616027E-4</v>
       </c>
       <c r="D61" t="s">
         <v>226</v>
@@ -7744,7 +7744,7 @@
         <v>226</v>
       </c>
       <c r="J61">
-        <v>1.7287412494072642E-2</v>
+        <v>1.3587089081971716E-4</v>
       </c>
       <c r="M61" t="s">
         <v>13</v>
@@ -7753,15 +7753,15 @@
         <v>226</v>
       </c>
       <c r="O61">
-        <v>0.13629202385605721</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B62">
-        <v>1.7465753424657535E-2</v>
+        <v>1.1415525114155251E-4</v>
       </c>
       <c r="C62">
-        <v>2.231559058250256E-2</v>
+        <v>1.7237235744060203E-4</v>
       </c>
       <c r="D62" t="s">
         <v>227</v>
@@ -7776,7 +7776,7 @@
         <v>227</v>
       </c>
       <c r="J62">
-        <v>1.8394168048003832E-2</v>
+        <v>1.3920126876426685E-4</v>
       </c>
       <c r="M62" t="s">
         <v>13</v>
@@ -7785,15 +7785,15 @@
         <v>227</v>
       </c>
       <c r="O62">
-        <v>0.11899322776779986</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B63">
-        <v>1.7465753424657535E-2</v>
+        <v>1.1415525114155251E-4</v>
       </c>
       <c r="C63">
-        <v>2.2112721577207076E-2</v>
+        <v>1.5579809230208258E-4</v>
       </c>
       <c r="D63" t="s">
         <v>228</v>
@@ -7808,7 +7808,7 @@
         <v>228</v>
       </c>
       <c r="J63">
-        <v>1.8615088124530728E-2</v>
+        <v>1.3961052603140997E-4</v>
       </c>
       <c r="M63" t="s">
         <v>13</v>
@@ -7817,15 +7817,15 @@
         <v>228</v>
       </c>
       <c r="O63">
-        <v>0.1189849959340632</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B64">
-        <v>0.13972602739726028</v>
+        <v>1.1415525114155251E-4</v>
       </c>
       <c r="C64">
-        <v>0.20499912985108024</v>
+        <v>1.093901499142282E-4</v>
       </c>
       <c r="D64" t="s">
         <v>229</v>
@@ -7840,7 +7840,7 @@
         <v>229</v>
       </c>
       <c r="J64">
-        <v>0.14928254098555391</v>
+        <v>1.3294977014231054E-4</v>
       </c>
       <c r="M64" t="s">
         <v>13</v>
@@ -7849,15 +7849,15 @@
         <v>229</v>
       </c>
       <c r="O64">
-        <v>0.14153455122880731</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B65">
-        <v>1.7465753424657535E-2</v>
+        <v>1.1415525114155251E-4</v>
       </c>
       <c r="C65">
-        <v>2.6372970688412108E-2</v>
+        <v>7.9556472664893237E-5</v>
       </c>
       <c r="D65" t="s">
         <v>230</v>
@@ -7872,7 +7872,7 @@
         <v>230</v>
       </c>
       <c r="J65">
-        <v>1.8568766960267023E-2</v>
+        <v>1.2510629829770594E-4</v>
       </c>
       <c r="M65" t="s">
         <v>13</v>
@@ -7881,15 +7881,15 @@
         <v>230</v>
       </c>
       <c r="O65">
-        <v>0.10810752915343902</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B66">
-        <v>1.7465753424657535E-2</v>
+        <v>1.1415525114155251E-4</v>
       </c>
       <c r="C66">
-        <v>2.3837108122218637E-2</v>
+        <v>5.6352501470966035E-5</v>
       </c>
       <c r="D66" t="s">
         <v>231</v>
@@ -7904,7 +7904,7 @@
         <v>231</v>
       </c>
       <c r="J66">
-        <v>1.8425380485267689E-2</v>
+        <v>1.1463456877420081E-4</v>
       </c>
       <c r="M66" t="s">
         <v>13</v>
@@ -7913,15 +7913,15 @@
         <v>231</v>
       </c>
       <c r="O66">
-        <v>0.10965799619002992</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B67">
-        <v>6.9863013698630141E-2</v>
+        <v>1.1415525114155251E-4</v>
       </c>
       <c r="C67">
-        <v>4.2095318598811632E-2</v>
+        <v>2.9833677249334962E-5</v>
       </c>
       <c r="D67" t="s">
         <v>232</v>
@@ -7936,7 +7936,7 @@
         <v>232</v>
       </c>
       <c r="J67">
-        <v>6.5542910736804488E-2</v>
+        <v>1.0352079344627853E-4</v>
       </c>
       <c r="M67" t="s">
         <v>13</v>
@@ -7945,15 +7945,15 @@
         <v>232</v>
       </c>
       <c r="O67">
-        <v>0.23835346524352574</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B68">
-        <v>2.3972602739726026E-2</v>
+        <v>0.12226027397260274</v>
       </c>
       <c r="C68">
-        <v>9.4672202471222967E-3</v>
+        <v>4.8282823260323703E-2</v>
       </c>
       <c r="D68" t="s">
         <v>233</v>
@@ -7968,7 +7968,7 @@
         <v>233</v>
       </c>
       <c r="J68">
-        <v>1.8399645640503087E-2</v>
+        <v>9.5989883126765013E-2</v>
       </c>
       <c r="M68" t="s">
         <v>13</v>
@@ -7977,15 +7977,15 @@
         <v>233</v>
       </c>
       <c r="O68">
-        <v>0.19659728118625064</v>
+        <v>0.25253238420196467</v>
       </c>
     </row>
     <row r="69" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B69">
-        <v>3.4246575342465752E-3</v>
+        <v>1.7465753424657535E-2</v>
       </c>
       <c r="C69">
-        <v>5.7181214727892006E-3</v>
+        <v>2.9162419511224922E-2</v>
       </c>
       <c r="D69" t="s">
         <v>234</v>
@@ -8000,7 +8000,7 @@
         <v>234</v>
       </c>
       <c r="J69">
-        <v>3.293789680502405E-3</v>
+        <v>1.7287412494072642E-2</v>
       </c>
       <c r="M69" t="s">
         <v>13</v>
@@ -8009,15 +8009,15 @@
         <v>234</v>
       </c>
       <c r="O69">
-        <v>8.0067961524600051E-2</v>
+        <v>0.13629202385605721</v>
       </c>
     </row>
     <row r="70" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B70">
-        <v>3.4246575342465752E-3</v>
+        <v>1.7465753424657535E-2</v>
       </c>
       <c r="C70">
-        <v>4.3756059965691279E-3</v>
+        <v>2.231559058250256E-2</v>
       </c>
       <c r="D70" t="s">
         <v>235</v>
@@ -8032,7 +8032,7 @@
         <v>235</v>
       </c>
       <c r="J70">
-        <v>3.5037198852776721E-3</v>
+        <v>1.8394168048003832E-2</v>
       </c>
       <c r="M70" t="s">
         <v>13</v>
@@ -8041,15 +8041,15 @@
         <v>235</v>
       </c>
       <c r="O70">
-        <v>6.7764737848116319E-2</v>
+        <v>0.11899322776779986</v>
       </c>
     </row>
     <row r="71" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B71">
-        <v>3.4246575342465752E-3</v>
+        <v>1.7465753424657535E-2</v>
       </c>
       <c r="C71">
-        <v>4.3358277602366805E-3</v>
+        <v>2.2112721577207076E-2</v>
       </c>
       <c r="D71" t="s">
         <v>236</v>
@@ -8064,7 +8064,7 @@
         <v>236</v>
       </c>
       <c r="J71">
-        <v>3.5387808427142053E-3</v>
+        <v>1.8615088124530728E-2</v>
       </c>
       <c r="M71" t="s">
         <v>13</v>
@@ -8073,15 +8073,15 @@
         <v>236</v>
       </c>
       <c r="O71">
-        <v>6.6501641578815995E-2</v>
+        <v>0.1189849959340632</v>
       </c>
     </row>
     <row r="72" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B72">
-        <v>2.7397260273972601E-2</v>
+        <v>0.13972602739726028</v>
       </c>
       <c r="C72">
-        <v>4.0195907813937302E-2</v>
+        <v>0.20499912985108024</v>
       </c>
       <c r="D72" t="s">
         <v>237</v>
@@ -8096,7 +8096,7 @@
         <v>237</v>
       </c>
       <c r="J72">
-        <v>2.8449998711808439E-2</v>
+        <v>0.14928254098555391</v>
       </c>
       <c r="M72" t="s">
         <v>13</v>
@@ -8105,15 +8105,15 @@
         <v>237</v>
       </c>
       <c r="O72">
-        <v>8.616857035957004E-2</v>
+        <v>0.14153455122880731</v>
       </c>
     </row>
     <row r="73" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B73">
-        <v>3.4246575342465752E-3</v>
+        <v>1.7465753424657535E-2</v>
       </c>
       <c r="C73">
-        <v>5.1711707232180593E-3</v>
+        <v>2.6372970688412108E-2</v>
       </c>
       <c r="D73" t="s">
         <v>238</v>
@@ -8128,7 +8128,7 @@
         <v>238</v>
       </c>
       <c r="J73">
-        <v>3.54119133047114E-3</v>
+        <v>1.8568766960267023E-2</v>
       </c>
       <c r="M73" t="s">
         <v>13</v>
@@ -8137,15 +8137,15 @@
         <v>238</v>
       </c>
       <c r="O73">
-        <v>6.1646784411448108E-2</v>
+        <v>0.10810752915343902</v>
       </c>
     </row>
     <row r="74" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B74">
-        <v>3.4246575342465752E-3</v>
+        <v>1.7465753424657535E-2</v>
       </c>
       <c r="C74">
-        <v>4.6739427690624773E-3</v>
+        <v>2.3837108122218637E-2</v>
       </c>
       <c r="D74" t="s">
         <v>239</v>
@@ -8160,7 +8160,7 @@
         <v>239</v>
       </c>
       <c r="J74">
-        <v>3.5165007269047826E-3</v>
+        <v>1.8425380485267689E-2</v>
       </c>
       <c r="M74" t="s">
         <v>13</v>
@@ -8169,15 +8169,15 @@
         <v>239</v>
       </c>
       <c r="O74">
-        <v>5.7035544013998463E-2</v>
+        <v>0.10965799619002992</v>
       </c>
     </row>
     <row r="75" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B75">
-        <v>1.3698630136986301E-2</v>
+        <v>6.9863013698630141E-2</v>
       </c>
       <c r="C75">
-        <v>8.2539840389826719E-3</v>
+        <v>4.2095318598811632E-2</v>
       </c>
       <c r="D75" t="s">
         <v>240</v>
@@ -8192,7 +8192,7 @@
         <v>240</v>
       </c>
       <c r="J75">
-        <v>1.2510367224708519E-2</v>
+        <v>6.5542910736804488E-2</v>
       </c>
       <c r="M75" t="s">
         <v>13</v>
@@ -8201,15 +8201,15 @@
         <v>240</v>
       </c>
       <c r="O75">
-        <v>0.1513291134774295</v>
+        <v>0.23835346524352574</v>
       </c>
     </row>
     <row r="76" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B76">
-        <v>2.3972602739726026E-2</v>
+        <v>4.7945205479452052E-2</v>
       </c>
       <c r="C76">
-        <v>9.4672202471222967E-3</v>
+        <v>1.8934440494244593E-2</v>
       </c>
       <c r="D76" t="s">
         <v>241</v>
@@ -8224,7 +8224,7 @@
         <v>241</v>
       </c>
       <c r="J76">
-        <v>1.8180656245590062E-2</v>
+        <v>3.6580301886093146E-2</v>
       </c>
       <c r="M76" t="s">
         <v>13</v>
@@ -8233,15 +8233,15 @@
         <v>241</v>
       </c>
       <c r="O76">
-        <v>0.20688083888354702</v>
+        <v>0.2018945194677082</v>
       </c>
     </row>
     <row r="77" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B77">
-        <v>3.4246575342465752E-3</v>
+        <v>6.8493150684931503E-3</v>
       </c>
       <c r="C77">
-        <v>5.7181214727892006E-3</v>
+        <v>1.1436242945578403E-2</v>
       </c>
       <c r="D77" t="s">
         <v>242</v>
@@ -8256,7 +8256,7 @@
         <v>242</v>
       </c>
       <c r="J77">
-        <v>3.2773776650378656E-3</v>
+        <v>6.571167345540271E-3</v>
       </c>
       <c r="M77" t="s">
         <v>13</v>
@@ -8265,15 +8265,15 @@
         <v>242</v>
       </c>
       <c r="O77">
-        <v>8.9031165305510029E-2</v>
+        <v>8.6943733772316012E-2</v>
       </c>
     </row>
     <row r="78" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B78">
-        <v>3.4246575342465752E-3</v>
+        <v>6.8493150684931503E-3</v>
       </c>
       <c r="C78">
-        <v>4.3756059965691279E-3</v>
+        <v>8.7512119931382575E-3</v>
       </c>
       <c r="D78" t="s">
         <v>243</v>
@@ -8288,7 +8288,7 @@
         <v>243</v>
       </c>
       <c r="J78">
-        <v>3.4858848560126998E-3</v>
+        <v>6.9896047412903719E-3</v>
       </c>
       <c r="M78" t="s">
         <v>13</v>
@@ -8297,15 +8297,15 @@
         <v>243</v>
       </c>
       <c r="O78">
-        <v>6.7719618713494745E-2</v>
+        <v>6.988747752975244E-2</v>
       </c>
     </row>
     <row r="79" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B79">
-        <v>3.4246575342465752E-3</v>
+        <v>6.8493150684931503E-3</v>
       </c>
       <c r="C79">
-        <v>4.3358277602366805E-3</v>
+        <v>8.6716555204733627E-3</v>
       </c>
       <c r="D79" t="s">
         <v>244</v>
@@ -8320,7 +8320,7 @@
         <v>244</v>
       </c>
       <c r="J79">
-        <v>3.5282035592968252E-3</v>
+        <v>7.0669844020110313E-3</v>
       </c>
       <c r="M79" t="s">
         <v>13</v>
@@ -8329,15 +8329,15 @@
         <v>244</v>
       </c>
       <c r="O79">
-        <v>4.6992087478038513E-2</v>
+        <v>6.772296640666231E-2</v>
       </c>
     </row>
     <row r="80" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B80">
-        <v>2.7397260273972601E-2</v>
+        <v>5.4794520547945202E-2</v>
       </c>
       <c r="C80">
-        <v>4.0195907813937302E-2</v>
+        <v>8.0391815627874605E-2</v>
       </c>
       <c r="D80" t="s">
         <v>245</v>
@@ -8352,7 +8352,7 @@
         <v>245</v>
       </c>
       <c r="J80">
-        <v>2.8045209848679559E-2</v>
+        <v>5.6495208560487994E-2</v>
       </c>
       <c r="M80" t="s">
         <v>13</v>
@@ -8361,15 +8361,15 @@
         <v>245</v>
       </c>
       <c r="O80">
-        <v>4.9818310096991558E-2</v>
+        <v>9.2359440574005136E-2</v>
       </c>
     </row>
     <row r="81" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B81">
-        <v>3.4246575342465752E-3</v>
+        <v>6.8493150684931503E-3</v>
       </c>
       <c r="C81">
-        <v>5.1711707232180593E-3</v>
+        <v>1.0342341446436122E-2</v>
       </c>
       <c r="D81" t="s">
         <v>246</v>
@@ -8384,7 +8384,7 @@
         <v>246</v>
       </c>
       <c r="J81">
-        <v>3.5360545404490838E-3</v>
+        <v>7.0772458709202242E-3</v>
       </c>
       <c r="M81" t="s">
         <v>13</v>
@@ -8393,15 +8393,15 @@
         <v>246</v>
       </c>
       <c r="O81">
-        <v>5.0295454002369011E-2</v>
+        <v>6.2205058545812042E-2</v>
       </c>
     </row>
     <row r="82" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B82">
-        <v>3.4246575342465752E-3</v>
+        <v>6.8493150684931503E-3</v>
       </c>
       <c r="C82">
-        <v>4.6739427690624773E-3</v>
+        <v>9.347885538124958E-3</v>
       </c>
       <c r="D82" t="s">
         <v>247</v>
@@ -8416,7 +8416,7 @@
         <v>247</v>
       </c>
       <c r="J82">
-        <v>3.527114709686995E-3</v>
+        <v>7.043615436591778E-3</v>
       </c>
       <c r="M82" t="s">
         <v>13</v>
@@ -8425,15 +8425,15 @@
         <v>247</v>
       </c>
       <c r="O82">
-        <v>5.2536611437733916E-2</v>
+        <v>5.5695123016300974E-2</v>
       </c>
     </row>
     <row r="83" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B83">
-        <v>1.3698630136986301E-2</v>
+        <v>2.7397260273972601E-2</v>
       </c>
       <c r="C83">
-        <v>8.2539840389826719E-3</v>
+        <v>1.6507968077965344E-2</v>
       </c>
       <c r="D83" t="s">
         <v>248</v>
@@ -8448,7 +8448,7 @@
         <v>248</v>
       </c>
       <c r="J83">
-        <v>1.2439447628877252E-2</v>
+        <v>2.4949814853585769E-2</v>
       </c>
       <c r="M83" t="s">
         <v>13</v>
@@ -8457,7 +8457,7 @@
         <v>248</v>
       </c>
       <c r="O83">
-        <v>0.1583890505558494</v>
+        <v>0.15588394203324896</v>
       </c>
     </row>
     <row r="84" spans="2:15" x14ac:dyDescent="0.45">
@@ -9492,7 +9492,7 @@
         <v>167</v>
       </c>
       <c r="J116">
-        <v>6.9107718159712866E-2</v>
+        <v>4.5510713497281384E-2</v>
       </c>
     </row>
     <row r="117" spans="2:15" x14ac:dyDescent="0.45">
@@ -9503,7 +9503,7 @@
         <v>170</v>
       </c>
       <c r="J117">
-        <v>1.0117783287303304E-2</v>
+        <v>6.6724833190460959E-3</v>
       </c>
     </row>
     <row r="118" spans="2:15" x14ac:dyDescent="0.45">
@@ -9514,7 +9514,7 @@
         <v>171</v>
       </c>
       <c r="J118">
-        <v>1.0155143126065341E-2</v>
+        <v>6.6967472354772092E-3</v>
       </c>
     </row>
     <row r="119" spans="2:15" x14ac:dyDescent="0.45">
@@ -9525,7 +9525,7 @@
         <v>172</v>
       </c>
       <c r="J119">
-        <v>1.0171524511890052E-2</v>
+        <v>6.7070446297846382E-3</v>
       </c>
     </row>
     <row r="120" spans="2:15" x14ac:dyDescent="0.45">
@@ -9536,7 +9536,7 @@
         <v>173</v>
       </c>
       <c r="J120">
-        <v>8.1287385265377765E-2</v>
+        <v>5.3616845016785999E-2</v>
       </c>
     </row>
     <row r="121" spans="2:15" x14ac:dyDescent="0.45">
@@ -9547,7 +9547,7 @@
         <v>174</v>
       </c>
       <c r="J121">
-        <v>1.0202682377852546E-2</v>
+        <v>6.7321740424924875E-3</v>
       </c>
     </row>
     <row r="122" spans="2:15" x14ac:dyDescent="0.45">
@@ -9558,7 +9558,7 @@
         <v>175</v>
       </c>
       <c r="J122">
-        <v>1.0174326342188622E-2</v>
+        <v>6.7083553327829835E-3</v>
       </c>
     </row>
     <row r="123" spans="2:15" x14ac:dyDescent="0.45">
@@ -9569,7 +9569,7 @@
         <v>176</v>
       </c>
       <c r="J123">
-        <v>4.0065110323035301E-2</v>
+        <v>2.6393984884907799E-2</v>
       </c>
     </row>
     <row r="124" spans="2:15" x14ac:dyDescent="0.45">
@@ -9580,7 +9580,7 @@
         <v>177</v>
       </c>
       <c r="J124">
-        <v>1.116364783766897E-4</v>
+        <v>1.1166697807584939E-4</v>
       </c>
     </row>
     <row r="125" spans="2:15" x14ac:dyDescent="0.45">
@@ -9591,7 +9591,7 @@
         <v>178</v>
       </c>
       <c r="J125">
-        <v>1.1113963608116495E-4</v>
+        <v>1.1126800320530412E-4</v>
       </c>
     </row>
     <row r="126" spans="2:15" x14ac:dyDescent="0.45">
@@ -9602,7 +9602,7 @@
         <v>179</v>
       </c>
       <c r="J126">
-        <v>1.1089646855284164E-4</v>
+        <v>1.1122927652486746E-4</v>
       </c>
     </row>
     <row r="127" spans="2:15" x14ac:dyDescent="0.45">
@@ -9613,7 +9613,7 @@
         <v>180</v>
       </c>
       <c r="J127">
-        <v>1.1090667558489471E-4</v>
+        <v>1.1122927652486746E-4</v>
       </c>
     </row>
     <row r="128" spans="2:15" x14ac:dyDescent="0.45">
@@ -9624,7 +9624,7 @@
         <v>181</v>
       </c>
       <c r="J128">
-        <v>1.1094990536770774E-4</v>
+        <v>1.1165076690729451E-4</v>
       </c>
     </row>
     <row r="129" spans="8:10" x14ac:dyDescent="0.45">
@@ -9635,7 +9635,7 @@
         <v>182</v>
       </c>
       <c r="J129">
-        <v>1.1185863142725666E-4</v>
+        <v>1.133811590471161E-4</v>
       </c>
     </row>
     <row r="130" spans="8:10" x14ac:dyDescent="0.45">
@@ -9646,7 +9646,7 @@
         <v>183</v>
       </c>
       <c r="J130">
-        <v>1.1232905552217346E-4</v>
+        <v>1.149722552200957E-4</v>
       </c>
     </row>
     <row r="131" spans="8:10" x14ac:dyDescent="0.45">
@@ -9657,7 +9657,7 @@
         <v>184</v>
       </c>
       <c r="J131">
-        <v>1.1327710867580924E-4</v>
+        <v>1.1564261706052277E-4</v>
       </c>
     </row>
     <row r="132" spans="8:10" x14ac:dyDescent="0.45">
@@ -9668,7 +9668,7 @@
         <v>185</v>
       </c>
       <c r="J132">
-        <v>1.1368388892380685E-4</v>
+        <v>1.1610403495068685E-4</v>
       </c>
     </row>
     <row r="133" spans="8:10" x14ac:dyDescent="0.45">
@@ -9679,7 +9679,7 @@
         <v>186</v>
       </c>
       <c r="J133">
-        <v>1.1384359895475499E-4</v>
+        <v>1.1612564984209336E-4</v>
       </c>
     </row>
     <row r="134" spans="8:10" x14ac:dyDescent="0.45">
@@ -9690,7 +9690,7 @@
         <v>187</v>
       </c>
       <c r="J134">
-        <v>1.1392975831355598E-4</v>
+        <v>1.1603018407171459E-4</v>
       </c>
     </row>
     <row r="135" spans="8:10" x14ac:dyDescent="0.45">
@@ -9701,7 +9701,7 @@
         <v>188</v>
       </c>
       <c r="J135">
-        <v>1.1384089709332918E-4</v>
+        <v>1.1589268934582313E-4</v>
       </c>
     </row>
     <row r="136" spans="8:10" x14ac:dyDescent="0.45">
@@ -9712,7 +9712,7 @@
         <v>189</v>
       </c>
       <c r="J136">
-        <v>1.1374933401167658E-4</v>
+        <v>1.1582454239652762E-4</v>
       </c>
     </row>
     <row r="137" spans="8:10" x14ac:dyDescent="0.45">
@@ -9723,7 +9723,7 @@
         <v>190</v>
       </c>
       <c r="J137">
-        <v>1.1368418913063195E-4</v>
+        <v>1.1574618841517899E-4</v>
       </c>
     </row>
     <row r="138" spans="8:10" x14ac:dyDescent="0.45">
@@ -9734,7 +9734,7 @@
         <v>191</v>
       </c>
       <c r="J138">
-        <v>1.1368418913063195E-4</v>
+        <v>1.156861470501609E-4</v>
       </c>
     </row>
     <row r="139" spans="8:10" x14ac:dyDescent="0.45">
@@ -9745,7 +9745,7 @@
         <v>192</v>
       </c>
       <c r="J139">
-        <v>1.1374182884104931E-4</v>
+        <v>1.1581013246892326E-4</v>
       </c>
     </row>
     <row r="140" spans="8:10" x14ac:dyDescent="0.45">
@@ -9756,7 +9756,7 @@
         <v>193</v>
       </c>
       <c r="J140">
-        <v>1.1410297765163318E-4</v>
+        <v>1.1607161261357708E-4</v>
       </c>
     </row>
     <row r="141" spans="8:10" x14ac:dyDescent="0.45">
@@ -9767,7 +9767,7 @@
         <v>194</v>
       </c>
       <c r="J141">
-        <v>1.1430411622444381E-4</v>
+        <v>1.1641474901465552E-4</v>
       </c>
     </row>
     <row r="142" spans="8:10" x14ac:dyDescent="0.45">
@@ -9778,7 +9778,7 @@
         <v>195</v>
       </c>
       <c r="J142">
-        <v>1.1431942677252342E-4</v>
+        <v>1.1641474901465552E-4</v>
       </c>
     </row>
     <row r="143" spans="8:10" x14ac:dyDescent="0.45">
@@ -9789,7 +9789,7 @@
         <v>196</v>
       </c>
       <c r="J143">
-        <v>1.1424947858227733E-4</v>
+        <v>1.1602087766013679E-4</v>
       </c>
     </row>
     <row r="144" spans="8:10" x14ac:dyDescent="0.45">
@@ -9800,7 +9800,7 @@
         <v>197</v>
       </c>
       <c r="J144">
-        <v>1.1401861953378276E-4</v>
+        <v>1.1511245180741295E-4</v>
       </c>
     </row>
     <row r="145" spans="8:10" x14ac:dyDescent="0.45">
@@ -9811,7 +9811,7 @@
         <v>198</v>
       </c>
       <c r="J145">
-        <v>1.137994685514667E-4</v>
+        <v>1.1453815615101484E-4</v>
       </c>
     </row>
     <row r="146" spans="8:10" x14ac:dyDescent="0.45">
@@ -9822,7 +9822,7 @@
         <v>199</v>
       </c>
       <c r="J146">
-        <v>1.1336446886191057E-4</v>
+        <v>1.1381735956397259E-4</v>
       </c>
     </row>
     <row r="147" spans="8:10" x14ac:dyDescent="0.45">
@@ -9833,7 +9833,7 @@
         <v>200</v>
       </c>
       <c r="J147">
-        <v>1.1204806193388877E-4</v>
+        <v>1.1224007290494713E-4</v>
       </c>
     </row>
     <row r="148" spans="8:10" x14ac:dyDescent="0.45">
@@ -9844,7 +9844,7 @@
         <v>201</v>
       </c>
       <c r="J148">
-        <v>1.1248616236566722E-4</v>
+        <v>2.3592379625242663E-2</v>
       </c>
     </row>
     <row r="149" spans="8:10" x14ac:dyDescent="0.45">
@@ -9855,7 +9855,7 @@
         <v>202</v>
       </c>
       <c r="J149">
-        <v>1.1200433041139698E-4</v>
+        <v>3.4431746253325668E-3</v>
       </c>
     </row>
     <row r="150" spans="8:10" x14ac:dyDescent="0.45">
@@ -9866,7 +9866,7 @@
         <v>203</v>
       </c>
       <c r="J150">
-        <v>1.1193198056655018E-4</v>
+        <v>3.4562747505590408E-3</v>
       </c>
     </row>
     <row r="151" spans="8:10" x14ac:dyDescent="0.45">
@@ -9877,7 +9877,7 @@
         <v>204</v>
       </c>
       <c r="J151">
-        <v>1.1193198056655018E-4</v>
+        <v>3.4625037419728434E-3</v>
       </c>
     </row>
     <row r="152" spans="8:10" x14ac:dyDescent="0.45">
@@ -9888,7 +9888,7 @@
         <v>205</v>
       </c>
       <c r="J152">
-        <v>1.1225470290352244E-4</v>
+        <v>2.7655738621636197E-2</v>
       </c>
     </row>
     <row r="153" spans="8:10" x14ac:dyDescent="0.45">
@@ -9899,7 +9899,7 @@
         <v>206</v>
       </c>
       <c r="J153">
-        <v>1.1371640993488806E-4</v>
+        <v>3.4685619157031698E-3</v>
       </c>
     </row>
     <row r="154" spans="8:10" x14ac:dyDescent="0.45">
@@ -9910,7 +9910,7 @@
         <v>207</v>
       </c>
       <c r="J154">
-        <v>1.1510726815553229E-4</v>
+        <v>3.4645085231507977E-3</v>
       </c>
     </row>
     <row r="155" spans="8:10" x14ac:dyDescent="0.45">
@@ -9921,7 +9921,7 @@
         <v>208</v>
       </c>
       <c r="J155">
-        <v>1.1595925512513912E-4</v>
+        <v>1.3668815832196429E-2</v>
       </c>
     </row>
     <row r="156" spans="8:10" x14ac:dyDescent="0.45">
@@ -9932,7 +9932,7 @@
         <v>209</v>
       </c>
       <c r="J156">
-        <v>1.1625615967515361E-4</v>
+        <v>1.1245253920125709E-4</v>
       </c>
     </row>
     <row r="157" spans="8:10" x14ac:dyDescent="0.45">
@@ -9943,7 +9943,7 @@
         <v>210</v>
       </c>
       <c r="J157">
-        <v>1.1622944126772055E-4</v>
+        <v>1.119788128312643E-4</v>
       </c>
     </row>
     <row r="158" spans="8:10" x14ac:dyDescent="0.45">
@@ -9954,7 +9954,7 @@
         <v>211</v>
       </c>
       <c r="J158">
-        <v>1.1581875833099677E-4</v>
+        <v>1.1188304685406043E-4</v>
       </c>
     </row>
     <row r="159" spans="8:10" x14ac:dyDescent="0.45">
@@ -9965,7 +9965,7 @@
         <v>212</v>
       </c>
       <c r="J159">
-        <v>1.1568966939620785E-4</v>
+        <v>1.1187434085613279E-4</v>
       </c>
     </row>
     <row r="160" spans="8:10" x14ac:dyDescent="0.45">
@@ -9976,7 +9976,7 @@
         <v>213</v>
       </c>
       <c r="J160">
-        <v>1.1559420362582908E-4</v>
+        <v>1.1222588304831377E-4</v>
       </c>
     </row>
     <row r="161" spans="8:10" x14ac:dyDescent="0.45">
@@ -9987,7 +9987,7 @@
         <v>214</v>
       </c>
       <c r="J161">
-        <v>1.1547111882754197E-4</v>
+        <v>1.1330602720498936E-4</v>
       </c>
     </row>
     <row r="162" spans="8:10" x14ac:dyDescent="0.45">
@@ -9998,7 +9998,7 @@
         <v>215</v>
       </c>
       <c r="J162">
-        <v>1.1544890352248527E-4</v>
+        <v>1.1465635750424639E-4</v>
       </c>
     </row>
     <row r="163" spans="8:10" x14ac:dyDescent="0.45">
@@ -10009,7 +10009,7 @@
         <v>216</v>
       </c>
       <c r="J163">
-        <v>1.1544890352248527E-4</v>
+        <v>1.1571908966506672E-4</v>
       </c>
     </row>
     <row r="164" spans="8:10" x14ac:dyDescent="0.45">
@@ -10020,7 +10020,7 @@
         <v>217</v>
       </c>
       <c r="J164">
-        <v>1.1551134654210409E-4</v>
+        <v>1.1595715367736348E-4</v>
       </c>
     </row>
     <row r="165" spans="8:10" x14ac:dyDescent="0.45">
@@ -10031,7 +10031,7 @@
         <v>218</v>
       </c>
       <c r="J165">
-        <v>1.1584877901350581E-4</v>
+        <v>1.1592353051295336E-4</v>
       </c>
     </row>
     <row r="166" spans="8:10" x14ac:dyDescent="0.45">
@@ -10042,7 +10042,7 @@
         <v>219</v>
       </c>
       <c r="J166">
-        <v>1.1595955533196422E-4</v>
+        <v>1.1568606691430677E-4</v>
       </c>
     </row>
     <row r="167" spans="8:10" x14ac:dyDescent="0.45">
@@ -10053,7 +10053,7 @@
         <v>220</v>
       </c>
       <c r="J167">
-        <v>1.1615228811367229E-4</v>
+        <v>1.1547051841389179E-4</v>
       </c>
     </row>
     <row r="168" spans="8:10" x14ac:dyDescent="0.45">
@@ -10064,7 +10064,7 @@
         <v>221</v>
       </c>
       <c r="J168">
-        <v>1.1534623278830432E-4</v>
+        <v>1.1534533216782908E-4</v>
       </c>
     </row>
     <row r="169" spans="8:10" x14ac:dyDescent="0.45">
@@ -10075,7 +10075,7 @@
         <v>222</v>
       </c>
       <c r="J169">
-        <v>1.1473170941734411E-4</v>
+        <v>1.1530720590104258E-4</v>
       </c>
     </row>
     <row r="170" spans="8:10" x14ac:dyDescent="0.45">
@@ -10086,7 +10086,7 @@
         <v>223</v>
       </c>
       <c r="J170">
-        <v>1.1390253816644417E-4</v>
+        <v>1.1526607756600519E-4</v>
       </c>
     </row>
     <row r="171" spans="8:10" x14ac:dyDescent="0.45">
@@ -10097,7 +10097,7 @@
         <v>224</v>
       </c>
       <c r="J171">
-        <v>1.1298600672944288E-4</v>
+        <v>1.1526607756600519E-4</v>
       </c>
     </row>
     <row r="172" spans="8:10" x14ac:dyDescent="0.45">
@@ -10108,7 +10108,7 @@
         <v>225</v>
       </c>
       <c r="J172">
-        <v>0.12051889590551515</v>
+        <v>1.1530870693516803E-4</v>
       </c>
     </row>
     <row r="173" spans="8:10" x14ac:dyDescent="0.45">
@@ -10119,7 +10119,7 @@
         <v>226</v>
       </c>
       <c r="J173">
-        <v>1.7502793348931428E-2</v>
+        <v>1.1554436929286405E-4</v>
       </c>
     </row>
     <row r="174" spans="8:10" x14ac:dyDescent="0.45">
@@ -10130,7 +10130,7 @@
         <v>227</v>
       </c>
       <c r="J174">
-        <v>1.7591285014556528E-2</v>
+        <v>1.1581065274671934E-4</v>
       </c>
     </row>
     <row r="175" spans="8:10" x14ac:dyDescent="0.45">
@@ -10141,7 +10141,7 @@
         <v>228</v>
       </c>
       <c r="J175">
-        <v>1.7608948883938026E-2</v>
+        <v>1.1584337529065419E-4</v>
       </c>
     </row>
     <row r="176" spans="8:10" x14ac:dyDescent="0.45">
@@ -10152,7 +10152,7 @@
         <v>229</v>
       </c>
       <c r="J176">
-        <v>0.14090052200323819</v>
+        <v>1.1531080838294365E-4</v>
       </c>
     </row>
     <row r="177" spans="8:10" x14ac:dyDescent="0.45">
@@ -10163,7 +10163,7 @@
         <v>230</v>
       </c>
       <c r="J177">
-        <v>1.7605245232336884E-2</v>
+        <v>1.1468367632532962E-4</v>
       </c>
     </row>
     <row r="178" spans="8:10" x14ac:dyDescent="0.45">
@@ -10174,7 +10174,7 @@
         <v>231</v>
       </c>
       <c r="J178">
-        <v>1.7593780633893507E-2</v>
+        <v>1.1384639949015224E-4</v>
       </c>
     </row>
     <row r="179" spans="8:10" x14ac:dyDescent="0.45">
@@ -10185,7 +10185,7 @@
         <v>232</v>
       </c>
       <c r="J179">
-        <v>6.972279321850966E-2</v>
+        <v>1.1295778728788438E-4</v>
       </c>
     </row>
     <row r="180" spans="8:10" x14ac:dyDescent="0.45">
@@ -10196,7 +10196,7 @@
         <v>233</v>
       </c>
       <c r="J180">
-        <v>2.3641391590636062E-2</v>
+        <v>0.12051889590551515</v>
       </c>
     </row>
     <row r="181" spans="8:10" x14ac:dyDescent="0.45">
@@ -10207,7 +10207,7 @@
         <v>234</v>
       </c>
       <c r="J181">
-        <v>3.4305338449954997E-3</v>
+        <v>1.7502793348931428E-2</v>
       </c>
     </row>
     <row r="182" spans="8:10" x14ac:dyDescent="0.45">
@@ -10218,7 +10218,7 @@
         <v>235</v>
       </c>
       <c r="J182">
-        <v>3.4473190089999591E-3</v>
+        <v>1.7591285014556528E-2</v>
       </c>
     </row>
     <row r="183" spans="8:10" x14ac:dyDescent="0.45">
@@ -10229,7 +10229,7 @@
         <v>236</v>
       </c>
       <c r="J183">
-        <v>3.4501223403326539E-3</v>
+        <v>1.7608948883938026E-2</v>
       </c>
     </row>
     <row r="184" spans="8:10" x14ac:dyDescent="0.45">
@@ -10240,7 +10240,7 @@
         <v>237</v>
       </c>
       <c r="J184">
-        <v>2.7612152720897926E-2</v>
+        <v>0.14090052200323819</v>
       </c>
     </row>
     <row r="185" spans="8:10" x14ac:dyDescent="0.45">
@@ -10251,7 +10251,7 @@
         <v>238</v>
       </c>
       <c r="J185">
-        <v>3.450315073114362E-3</v>
+        <v>1.7605245232336884E-2</v>
       </c>
     </row>
     <row r="186" spans="8:10" x14ac:dyDescent="0.45">
@@ -10262,7 +10262,7 @@
         <v>239</v>
       </c>
       <c r="J186">
-        <v>3.4483409130325669E-3</v>
+        <v>1.7593780633893507E-2</v>
       </c>
     </row>
     <row r="187" spans="8:10" x14ac:dyDescent="0.45">
@@ -10273,7 +10273,7 @@
         <v>240</v>
       </c>
       <c r="J187">
-        <v>1.3668981359945126E-2</v>
+        <v>6.972279321850966E-2</v>
       </c>
     </row>
     <row r="188" spans="8:10" x14ac:dyDescent="0.45">
@@ -10284,7 +10284,7 @@
         <v>241</v>
       </c>
       <c r="J188">
-        <v>2.3636914892539426E-2</v>
+        <v>4.7278306483175485E-2</v>
       </c>
     </row>
     <row r="189" spans="8:10" x14ac:dyDescent="0.45">
@@ -10295,7 +10295,7 @@
         <v>242</v>
       </c>
       <c r="J189">
-        <v>3.4310834359301641E-3</v>
+        <v>6.8616172809256642E-3</v>
       </c>
     </row>
     <row r="190" spans="8:10" x14ac:dyDescent="0.45">
@@ -10306,7 +10306,7 @@
         <v>243</v>
       </c>
       <c r="J190">
-        <v>3.4477548215479147E-3</v>
+        <v>6.8950738305478734E-3</v>
       </c>
     </row>
     <row r="191" spans="8:10" x14ac:dyDescent="0.45">
@@ -10317,7 +10317,7 @@
         <v>244</v>
       </c>
       <c r="J191">
-        <v>3.4511384526735096E-3</v>
+        <v>6.9012607930061635E-3</v>
       </c>
     </row>
     <row r="192" spans="8:10" x14ac:dyDescent="0.45">
@@ -10328,7 +10328,7 @@
         <v>245</v>
       </c>
       <c r="J192">
-        <v>2.7594682083028826E-2</v>
+        <v>5.5206834803926755E-2</v>
       </c>
     </row>
     <row r="193" spans="8:10" x14ac:dyDescent="0.45">
@@ -10339,7 +10339,7 @@
         <v>246</v>
       </c>
       <c r="J193">
-        <v>3.4517661851447739E-3</v>
+        <v>6.9020812582591363E-3</v>
       </c>
     </row>
     <row r="194" spans="8:10" x14ac:dyDescent="0.45">
@@ -10350,7 +10350,7 @@
         <v>247</v>
       </c>
       <c r="J194">
-        <v>3.4510513926942332E-3</v>
+        <v>6.8993923057268005E-3</v>
       </c>
     </row>
     <row r="195" spans="8:10" x14ac:dyDescent="0.45">
@@ -10361,7 +10361,7 @@
         <v>248</v>
       </c>
       <c r="J195">
-        <v>1.3670758233301357E-2</v>
+        <v>2.7339739593246485E-2</v>
       </c>
     </row>
     <row r="196" spans="8:10" x14ac:dyDescent="0.45">

--- a/VerveStacks_ITA/SuppXLS/scen_tsparameters_s1p1v1_d.xlsx
+++ b/VerveStacks_ITA/SuppXLS/scen_tsparameters_s1p1v1_d.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4ED3AB8-7811-4123-A1E5-21D326D31F9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EBD25AE-6554-43DC-A923-3F457DC3CF2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -900,10 +900,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S1aH3,S1b0103h10,S1b0103h16,S2c0321h13,S4d1024h12,S4d1024h14,S1b0103h13,S4aH5,S4aH2,S1b0103h18,S2c0321h07,S2c0321h08,S2c0321h18,S4d1024h08,S4d1024h10,S1b0103h11,S3aH2,S4d1024h09,S2c0321h16,S2c0321h17,S3aH4,S4aH3,S4aH4,S4d1024h11,S2c0321h10,S2c0321h11,S2c0321h15,S5aH4,S1aH5,S2aH4,S2aH5,S4d1024h16,S5aH2,S5aH5,S2c0321h14,S4d1024h15,S1aH4,S1b0103h15,S1b0103h17,S2aH2,S4d1024h17,S3aH5,S4d1024h13,S4d1024h18,S5aH3,S1aH2,S2aH3,S1b0103h08,S4d1024h07,S2c0321h12,S1b0103h09,S1b0103h14,S3aH3,S1b0103h07,S1b0103h12,S2c0321h09</t>
-  </si>
-  <si>
-    <t>S1aH7,S3aH6,S4aH7,S5aH6,S5aH7,S4d1024h23,S2aH1,S3aH7,S4d1024h02,S4d1024h06,S5aH8,S2c0321h24,S2c0321h02,S3aH8,S1b0103h22,S1b0103h24,S2c0321h01,S2c0321h22,S4d1024h19,S1b0103h04,S1b0103h20,S4d1024h03,S1aH6,S2c0321h05,S2c0321h20,S4d1024h01,S2c0321h03,S2c0321h19,S2c0321h23,S4aH8,S1b0103h03,S1b0103h05,S1b0103h19,S2c0321h04,S4aH1,S4d1024h24,S1aH8,S1b0103h21,S5aH1,S4d1024h05,S1b0103h01,S1b0103h02,S2aH8,S2c0321h21,S4d1024h04,S1aH1,S1b0103h23,S2aH7,S4d1024h20,S4d1024h22,S1b0103h06,S2c0321h06,S4aH6,S4d1024h21,S2aH6,S3aH1</t>
+    <t>S1aH2,S2aH3,S1b0103h08,S4d1024h07,S3aH5,S4d1024h13,S4d1024h18,S5aH3,S1aH4,S1b0103h15,S1b0103h17,S2aH2,S4d1024h17,S4aH2,S2c0321h12,S1aH5,S2aH4,S2aH5,S4d1024h16,S5aH2,S5aH5,S1b0103h11,S3aH2,S4d1024h09,S1b0103h07,S1b0103h12,S2c0321h09,S2c0321h14,S4d1024h15,S1b0103h13,S4aH5,S2c0321h10,S2c0321h11,S2c0321h15,S5aH4,S2c0321h16,S2c0321h17,S3aH4,S4aH3,S4aH4,S4d1024h11,S1aH3,S1b0103h10,S1b0103h16,S2c0321h13,S4d1024h12,S4d1024h14,S1b0103h18,S2c0321h07,S2c0321h08,S2c0321h18,S4d1024h08,S4d1024h10,S1b0103h09,S1b0103h14,S3aH3</t>
+  </si>
+  <si>
+    <t>S4d1024h05,S1b0103h01,S1b0103h02,S2aH8,S2c0321h21,S4d1024h04,S1aH8,S1b0103h21,S5aH1,S1b0103h03,S1b0103h05,S1b0103h19,S2c0321h04,S4aH1,S4d1024h24,S2aH1,S3aH7,S4d1024h02,S4d1024h06,S5aH8,S1aH1,S1b0103h23,S2aH7,S4d1024h20,S4d1024h22,S1aH6,S2c0321h05,S2c0321h20,S4d1024h01,S2c0321h02,S3aH8,S2aH6,S3aH1,S2c0321h03,S2c0321h19,S2c0321h23,S4aH8,S4d1024h23,S1b0103h04,S1b0103h20,S4d1024h03,S1b0103h22,S1b0103h24,S2c0321h01,S2c0321h22,S4d1024h19,S1aH7,S3aH6,S4aH7,S5aH6,S5aH7,S2c0321h24,S1b0103h06,S2c0321h06,S4aH6,S4d1024h21</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -1475,7 +1475,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S1aH7,S3aH6,S4aH7,S5aH6,S5aH7,S4d1024h23,S2aH1,S3aH7,S4d1024h02,S4d1024h06,S5aH8,S2c0321h24,S2c0321h02,S3aH8,S1b0103h22,S1b0103h24,S2c0321h01,S2c0321h22,S4d1024h19,S1b0103h04,S1b0103h20,S4d1024h03,S1aH6,S2c0321h05,S2c0321h20,S4d1024h01,S2c0321h03,S2c0321h19,S2c0321h23,S4aH8,S1b0103h03,S1b0103h05,S1b0103h19,S2c0321h04,S4aH1,S4d1024h24,S1aH8,S1b0103h21,S5aH1,S4d1024h05,S1b0103h01,S1b0103h02,S2aH8,S2c0321h21,S4d1024h04,S1aH1,S1b0103h23,S2aH7,S4d1024h20,S4d1024h22,S1b0103h06,S2c0321h06,S4aH6,S4d1024h21,S2aH6,S3aH1</v>
+        <v>S4d1024h05,S1b0103h01,S1b0103h02,S2aH8,S2c0321h21,S4d1024h04,S1aH8,S1b0103h21,S5aH1,S1b0103h03,S1b0103h05,S1b0103h19,S2c0321h04,S4aH1,S4d1024h24,S2aH1,S3aH7,S4d1024h02,S4d1024h06,S5aH8,S1aH1,S1b0103h23,S2aH7,S4d1024h20,S4d1024h22,S1aH6,S2c0321h05,S2c0321h20,S4d1024h01,S2c0321h02,S3aH8,S2aH6,S3aH1,S2c0321h03,S2c0321h19,S2c0321h23,S4aH8,S4d1024h23,S1b0103h04,S1b0103h20,S4d1024h03,S1b0103h22,S1b0103h24,S2c0321h01,S2c0321h22,S4d1024h19,S1aH7,S3aH6,S4aH7,S5aH6,S5aH7,S2c0321h24,S1b0103h06,S2c0321h06,S4aH6,S4d1024h21</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -1507,7 +1507,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S1aH3,S1b0103h10,S1b0103h16,S2c0321h13,S4d1024h12,S4d1024h14,S1b0103h13,S4aH5,S4aH2,S1b0103h18,S2c0321h07,S2c0321h08,S2c0321h18,S4d1024h08,S4d1024h10,S1b0103h11,S3aH2,S4d1024h09,S2c0321h16,S2c0321h17,S3aH4,S4aH3,S4aH4,S4d1024h11,S2c0321h10,S2c0321h11,S2c0321h15,S5aH4,S1aH5,S2aH4,S2aH5,S4d1024h16,S5aH2,S5aH5,S2c0321h14,S4d1024h15,S1aH4,S1b0103h15,S1b0103h17,S2aH2,S4d1024h17,S3aH5,S4d1024h13,S4d1024h18,S5aH3,S1aH2,S2aH3,S1b0103h08,S4d1024h07,S2c0321h12,S1b0103h09,S1b0103h14,S3aH3,S1b0103h07,S1b0103h12,S2c0321h09</v>
+        <v>S1aH2,S2aH3,S1b0103h08,S4d1024h07,S3aH5,S4d1024h13,S4d1024h18,S5aH3,S1aH4,S1b0103h15,S1b0103h17,S2aH2,S4d1024h17,S4aH2,S2c0321h12,S1aH5,S2aH4,S2aH5,S4d1024h16,S5aH2,S5aH5,S1b0103h11,S3aH2,S4d1024h09,S1b0103h07,S1b0103h12,S2c0321h09,S2c0321h14,S4d1024h15,S1b0103h13,S4aH5,S2c0321h10,S2c0321h11,S2c0321h15,S5aH4,S2c0321h16,S2c0321h17,S3aH4,S4aH3,S4aH4,S4d1024h11,S1aH3,S1b0103h10,S1b0103h16,S2c0321h13,S4d1024h12,S4d1024h14,S1b0103h18,S2c0321h07,S2c0321h08,S2c0321h18,S4d1024h08,S4d1024h10,S1b0103h09,S1b0103h14,S3aH3</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -2120,7 +2120,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D3BF5C9-CA45-46E8-8AFB-739A63C92F23}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6902F281-80EC-490D-8341-E1422BD1DBE1}">
   <dimension ref="B2:F83"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2834,7 +2834,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6980033E-D503-4A30-B439-3137ADF6E4AA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB9D2597-C4A9-4CBA-AD81-D20B0C337A7E}">
   <dimension ref="B2:O115"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2913,10 +2913,10 @@
         <v>282</v>
       </c>
       <c r="M4" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="N4">
-        <v>0.18220731142989358</v>
+        <v>7.5520592318371119E-2</v>
       </c>
       <c r="O4" t="s">
         <v>293</v>
@@ -2948,10 +2948,10 @@
         <v>282</v>
       </c>
       <c r="M5" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="N5">
-        <v>0.16266774641369736</v>
+        <v>0.18220731142989358</v>
       </c>
       <c r="O5" t="s">
         <v>293</v>
@@ -2983,10 +2983,10 @@
         <v>282</v>
       </c>
       <c r="M6" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="N6">
-        <v>7.5520592318371119E-2</v>
+        <v>0.16266774641369736</v>
       </c>
       <c r="O6" t="s">
         <v>293</v>
@@ -3018,10 +3018,10 @@
         <v>282</v>
       </c>
       <c r="M7" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="N7">
-        <v>0.63189495603887091</v>
+        <v>0.14770939379916706</v>
       </c>
       <c r="O7" t="s">
         <v>293</v>
@@ -3053,10 +3053,10 @@
         <v>282</v>
       </c>
       <c r="M8" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="N8">
-        <v>0.14770939379916706</v>
+        <v>0.63189495603887091</v>
       </c>
       <c r="O8" t="s">
         <v>293</v>
@@ -5850,7 +5850,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{687B8A1C-1FEF-4AA6-97D1-9C4F3936895C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9983DD7-1666-431F-B993-909D69A13EC9}">
   <dimension ref="B2:O227"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA/SuppXLS/scen_tsparameters_s1p1v1_d.xlsx
+++ b/VerveStacks_ITA/SuppXLS/scen_tsparameters_s1p1v1_d.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EBD25AE-6554-43DC-A923-3F457DC3CF2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A49CF2E9-AB99-4FF4-890C-63B9DD6E407F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -900,10 +900,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S1aH2,S2aH3,S1b0103h08,S4d1024h07,S3aH5,S4d1024h13,S4d1024h18,S5aH3,S1aH4,S1b0103h15,S1b0103h17,S2aH2,S4d1024h17,S4aH2,S2c0321h12,S1aH5,S2aH4,S2aH5,S4d1024h16,S5aH2,S5aH5,S1b0103h11,S3aH2,S4d1024h09,S1b0103h07,S1b0103h12,S2c0321h09,S2c0321h14,S4d1024h15,S1b0103h13,S4aH5,S2c0321h10,S2c0321h11,S2c0321h15,S5aH4,S2c0321h16,S2c0321h17,S3aH4,S4aH3,S4aH4,S4d1024h11,S1aH3,S1b0103h10,S1b0103h16,S2c0321h13,S4d1024h12,S4d1024h14,S1b0103h18,S2c0321h07,S2c0321h08,S2c0321h18,S4d1024h08,S4d1024h10,S1b0103h09,S1b0103h14,S3aH3</t>
-  </si>
-  <si>
-    <t>S4d1024h05,S1b0103h01,S1b0103h02,S2aH8,S2c0321h21,S4d1024h04,S1aH8,S1b0103h21,S5aH1,S1b0103h03,S1b0103h05,S1b0103h19,S2c0321h04,S4aH1,S4d1024h24,S2aH1,S3aH7,S4d1024h02,S4d1024h06,S5aH8,S1aH1,S1b0103h23,S2aH7,S4d1024h20,S4d1024h22,S1aH6,S2c0321h05,S2c0321h20,S4d1024h01,S2c0321h02,S3aH8,S2aH6,S3aH1,S2c0321h03,S2c0321h19,S2c0321h23,S4aH8,S4d1024h23,S1b0103h04,S1b0103h20,S4d1024h03,S1b0103h22,S1b0103h24,S2c0321h01,S2c0321h22,S4d1024h19,S1aH7,S3aH6,S4aH7,S5aH6,S5aH7,S2c0321h24,S1b0103h06,S2c0321h06,S4aH6,S4d1024h21</t>
+    <t>S2c0321h16,S2c0321h17,S3aH4,S4aH3,S4aH4,S4d1024h11,S1b0103h08,S4d1024h07,S1b0103h07,S1b0103h12,S2c0321h09,S1b0103h18,S2c0321h07,S2c0321h08,S2c0321h18,S4d1024h08,S4d1024h10,S1b0103h11,S3aH2,S4d1024h09,S2c0321h14,S4d1024h15,S4aH2,S1b0103h09,S1b0103h14,S3aH3,S1aH4,S1b0103h15,S1b0103h17,S2aH2,S4d1024h17,S2c0321h12,S1aH3,S1b0103h10,S1b0103h16,S2c0321h13,S4d1024h12,S4d1024h14,S2c0321h10,S2c0321h11,S2c0321h15,S5aH4,S1b0103h13,S4aH5,S1aH2,S2aH3,S1aH5,S2aH4,S2aH5,S4d1024h16,S5aH2,S5aH5,S3aH5,S4d1024h13,S4d1024h18,S5aH3</t>
+  </si>
+  <si>
+    <t>S1b0103h22,S1b0103h24,S2c0321h01,S2c0321h22,S4d1024h19,S1b0103h01,S1b0103h02,S2aH8,S2c0321h21,S4d1024h04,S2aH6,S3aH1,S2c0321h24,S2c0321h02,S3aH8,S2c0321h03,S2c0321h19,S2c0321h23,S4aH8,S2aH1,S3aH7,S4d1024h02,S4d1024h06,S5aH8,S1b0103h06,S2c0321h06,S4aH6,S4d1024h21,S1b0103h03,S1b0103h05,S1b0103h19,S2c0321h04,S4aH1,S4d1024h24,S1aH1,S1b0103h23,S2aH7,S4d1024h20,S4d1024h22,S1aH7,S3aH6,S4aH7,S5aH6,S5aH7,S1b0103h04,S1b0103h20,S4d1024h03,S4d1024h23,S4d1024h05,S1aH6,S2c0321h05,S2c0321h20,S4d1024h01,S1aH8,S1b0103h21,S5aH1</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -1475,7 +1475,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S4d1024h05,S1b0103h01,S1b0103h02,S2aH8,S2c0321h21,S4d1024h04,S1aH8,S1b0103h21,S5aH1,S1b0103h03,S1b0103h05,S1b0103h19,S2c0321h04,S4aH1,S4d1024h24,S2aH1,S3aH7,S4d1024h02,S4d1024h06,S5aH8,S1aH1,S1b0103h23,S2aH7,S4d1024h20,S4d1024h22,S1aH6,S2c0321h05,S2c0321h20,S4d1024h01,S2c0321h02,S3aH8,S2aH6,S3aH1,S2c0321h03,S2c0321h19,S2c0321h23,S4aH8,S4d1024h23,S1b0103h04,S1b0103h20,S4d1024h03,S1b0103h22,S1b0103h24,S2c0321h01,S2c0321h22,S4d1024h19,S1aH7,S3aH6,S4aH7,S5aH6,S5aH7,S2c0321h24,S1b0103h06,S2c0321h06,S4aH6,S4d1024h21</v>
+        <v>S1b0103h22,S1b0103h24,S2c0321h01,S2c0321h22,S4d1024h19,S1b0103h01,S1b0103h02,S2aH8,S2c0321h21,S4d1024h04,S2aH6,S3aH1,S2c0321h24,S2c0321h02,S3aH8,S2c0321h03,S2c0321h19,S2c0321h23,S4aH8,S2aH1,S3aH7,S4d1024h02,S4d1024h06,S5aH8,S1b0103h06,S2c0321h06,S4aH6,S4d1024h21,S1b0103h03,S1b0103h05,S1b0103h19,S2c0321h04,S4aH1,S4d1024h24,S1aH1,S1b0103h23,S2aH7,S4d1024h20,S4d1024h22,S1aH7,S3aH6,S4aH7,S5aH6,S5aH7,S1b0103h04,S1b0103h20,S4d1024h03,S4d1024h23,S4d1024h05,S1aH6,S2c0321h05,S2c0321h20,S4d1024h01,S1aH8,S1b0103h21,S5aH1</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -1507,7 +1507,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S1aH2,S2aH3,S1b0103h08,S4d1024h07,S3aH5,S4d1024h13,S4d1024h18,S5aH3,S1aH4,S1b0103h15,S1b0103h17,S2aH2,S4d1024h17,S4aH2,S2c0321h12,S1aH5,S2aH4,S2aH5,S4d1024h16,S5aH2,S5aH5,S1b0103h11,S3aH2,S4d1024h09,S1b0103h07,S1b0103h12,S2c0321h09,S2c0321h14,S4d1024h15,S1b0103h13,S4aH5,S2c0321h10,S2c0321h11,S2c0321h15,S5aH4,S2c0321h16,S2c0321h17,S3aH4,S4aH3,S4aH4,S4d1024h11,S1aH3,S1b0103h10,S1b0103h16,S2c0321h13,S4d1024h12,S4d1024h14,S1b0103h18,S2c0321h07,S2c0321h08,S2c0321h18,S4d1024h08,S4d1024h10,S1b0103h09,S1b0103h14,S3aH3</v>
+        <v>S2c0321h16,S2c0321h17,S3aH4,S4aH3,S4aH4,S4d1024h11,S1b0103h08,S4d1024h07,S1b0103h07,S1b0103h12,S2c0321h09,S1b0103h18,S2c0321h07,S2c0321h08,S2c0321h18,S4d1024h08,S4d1024h10,S1b0103h11,S3aH2,S4d1024h09,S2c0321h14,S4d1024h15,S4aH2,S1b0103h09,S1b0103h14,S3aH3,S1aH4,S1b0103h15,S1b0103h17,S2aH2,S4d1024h17,S2c0321h12,S1aH3,S1b0103h10,S1b0103h16,S2c0321h13,S4d1024h12,S4d1024h14,S2c0321h10,S2c0321h11,S2c0321h15,S5aH4,S1b0103h13,S4aH5,S1aH2,S2aH3,S1aH5,S2aH4,S2aH5,S4d1024h16,S5aH2,S5aH5,S3aH5,S4d1024h13,S4d1024h18,S5aH3</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -2120,7 +2120,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6902F281-80EC-490D-8341-E1422BD1DBE1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D406AB39-128B-4D1F-BF69-E0273FB2F0DB}">
   <dimension ref="B2:F83"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2834,7 +2834,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB9D2597-C4A9-4CBA-AD81-D20B0C337A7E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDBEE23D-102C-44B5-B245-4C1FB5AE0C48}">
   <dimension ref="B2:O115"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2948,10 +2948,10 @@
         <v>282</v>
       </c>
       <c r="M5" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="N5">
-        <v>0.18220731142989358</v>
+        <v>0.16266774641369736</v>
       </c>
       <c r="O5" t="s">
         <v>293</v>
@@ -2983,10 +2983,10 @@
         <v>282</v>
       </c>
       <c r="M6" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="N6">
-        <v>0.16266774641369736</v>
+        <v>0.63189495603887091</v>
       </c>
       <c r="O6" t="s">
         <v>293</v>
@@ -3018,10 +3018,10 @@
         <v>282</v>
       </c>
       <c r="M7" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="N7">
-        <v>0.14770939379916706</v>
+        <v>0.18220731142989358</v>
       </c>
       <c r="O7" t="s">
         <v>293</v>
@@ -3053,10 +3053,10 @@
         <v>282</v>
       </c>
       <c r="M8" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="N8">
-        <v>0.63189495603887091</v>
+        <v>0.14770939379916706</v>
       </c>
       <c r="O8" t="s">
         <v>293</v>
@@ -5850,7 +5850,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9983DD7-1666-431F-B993-909D69A13EC9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F471CF9D-CE40-4B57-A8CD-E77F1E1EDE9D}">
   <dimension ref="B2:O227"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA/SuppXLS/scen_tsparameters_s1p1v1_d.xlsx
+++ b/VerveStacks_ITA/SuppXLS/scen_tsparameters_s1p1v1_d.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A49CF2E9-AB99-4FF4-890C-63B9DD6E407F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{310B99B6-7585-4785-8C72-2CFA6605335F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -900,10 +900,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S2c0321h16,S2c0321h17,S3aH4,S4aH3,S4aH4,S4d1024h11,S1b0103h08,S4d1024h07,S1b0103h07,S1b0103h12,S2c0321h09,S1b0103h18,S2c0321h07,S2c0321h08,S2c0321h18,S4d1024h08,S4d1024h10,S1b0103h11,S3aH2,S4d1024h09,S2c0321h14,S4d1024h15,S4aH2,S1b0103h09,S1b0103h14,S3aH3,S1aH4,S1b0103h15,S1b0103h17,S2aH2,S4d1024h17,S2c0321h12,S1aH3,S1b0103h10,S1b0103h16,S2c0321h13,S4d1024h12,S4d1024h14,S2c0321h10,S2c0321h11,S2c0321h15,S5aH4,S1b0103h13,S4aH5,S1aH2,S2aH3,S1aH5,S2aH4,S2aH5,S4d1024h16,S5aH2,S5aH5,S3aH5,S4d1024h13,S4d1024h18,S5aH3</t>
-  </si>
-  <si>
-    <t>S1b0103h22,S1b0103h24,S2c0321h01,S2c0321h22,S4d1024h19,S1b0103h01,S1b0103h02,S2aH8,S2c0321h21,S4d1024h04,S2aH6,S3aH1,S2c0321h24,S2c0321h02,S3aH8,S2c0321h03,S2c0321h19,S2c0321h23,S4aH8,S2aH1,S3aH7,S4d1024h02,S4d1024h06,S5aH8,S1b0103h06,S2c0321h06,S4aH6,S4d1024h21,S1b0103h03,S1b0103h05,S1b0103h19,S2c0321h04,S4aH1,S4d1024h24,S1aH1,S1b0103h23,S2aH7,S4d1024h20,S4d1024h22,S1aH7,S3aH6,S4aH7,S5aH6,S5aH7,S1b0103h04,S1b0103h20,S4d1024h03,S4d1024h23,S4d1024h05,S1aH6,S2c0321h05,S2c0321h20,S4d1024h01,S1aH8,S1b0103h21,S5aH1</t>
+    <t>S3aH5,S4d1024h13,S4d1024h18,S5aH3,S1aH2,S2aH3,S1b0103h08,S4d1024h07,S1b0103h09,S1b0103h14,S3aH3,S2c0321h12,S2c0321h16,S2c0321h17,S3aH4,S4aH3,S4aH4,S4d1024h11,S2c0321h10,S2c0321h11,S2c0321h15,S5aH4,S1aH3,S1b0103h10,S1b0103h16,S2c0321h13,S4d1024h12,S4d1024h14,S1aH4,S1b0103h15,S1b0103h17,S2aH2,S4d1024h17,S4aH2,S2c0321h14,S4d1024h15,S1aH5,S2aH4,S2aH5,S4d1024h16,S5aH2,S5aH5,S1b0103h11,S3aH2,S4d1024h09,S1b0103h07,S1b0103h12,S2c0321h09,S1b0103h13,S4aH5,S1b0103h18,S2c0321h07,S2c0321h08,S2c0321h18,S4d1024h08,S4d1024h10</t>
+  </si>
+  <si>
+    <t>S1aH8,S1b0103h21,S5aH1,S4d1024h05,S1b0103h01,S1b0103h02,S2aH8,S2c0321h21,S4d1024h04,S1b0103h06,S2c0321h06,S4aH6,S4d1024h21,S1aH1,S1b0103h23,S2aH7,S4d1024h20,S4d1024h22,S1b0103h22,S1b0103h24,S2c0321h01,S2c0321h22,S4d1024h19,S1b0103h04,S1b0103h20,S4d1024h03,S1aH7,S3aH6,S4aH7,S5aH6,S5aH7,S1b0103h03,S1b0103h05,S1b0103h19,S2c0321h04,S4aH1,S4d1024h24,S2aH1,S3aH7,S4d1024h02,S4d1024h06,S5aH8,S2c0321h03,S2c0321h19,S2c0321h23,S4aH8,S1aH6,S2c0321h05,S2c0321h20,S4d1024h01,S2c0321h02,S3aH8,S2aH6,S3aH1,S4d1024h23,S2c0321h24</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -1475,7 +1475,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S1b0103h22,S1b0103h24,S2c0321h01,S2c0321h22,S4d1024h19,S1b0103h01,S1b0103h02,S2aH8,S2c0321h21,S4d1024h04,S2aH6,S3aH1,S2c0321h24,S2c0321h02,S3aH8,S2c0321h03,S2c0321h19,S2c0321h23,S4aH8,S2aH1,S3aH7,S4d1024h02,S4d1024h06,S5aH8,S1b0103h06,S2c0321h06,S4aH6,S4d1024h21,S1b0103h03,S1b0103h05,S1b0103h19,S2c0321h04,S4aH1,S4d1024h24,S1aH1,S1b0103h23,S2aH7,S4d1024h20,S4d1024h22,S1aH7,S3aH6,S4aH7,S5aH6,S5aH7,S1b0103h04,S1b0103h20,S4d1024h03,S4d1024h23,S4d1024h05,S1aH6,S2c0321h05,S2c0321h20,S4d1024h01,S1aH8,S1b0103h21,S5aH1</v>
+        <v>S1aH8,S1b0103h21,S5aH1,S4d1024h05,S1b0103h01,S1b0103h02,S2aH8,S2c0321h21,S4d1024h04,S1b0103h06,S2c0321h06,S4aH6,S4d1024h21,S1aH1,S1b0103h23,S2aH7,S4d1024h20,S4d1024h22,S1b0103h22,S1b0103h24,S2c0321h01,S2c0321h22,S4d1024h19,S1b0103h04,S1b0103h20,S4d1024h03,S1aH7,S3aH6,S4aH7,S5aH6,S5aH7,S1b0103h03,S1b0103h05,S1b0103h19,S2c0321h04,S4aH1,S4d1024h24,S2aH1,S3aH7,S4d1024h02,S4d1024h06,S5aH8,S2c0321h03,S2c0321h19,S2c0321h23,S4aH8,S1aH6,S2c0321h05,S2c0321h20,S4d1024h01,S2c0321h02,S3aH8,S2aH6,S3aH1,S4d1024h23,S2c0321h24</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -1507,7 +1507,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S2c0321h16,S2c0321h17,S3aH4,S4aH3,S4aH4,S4d1024h11,S1b0103h08,S4d1024h07,S1b0103h07,S1b0103h12,S2c0321h09,S1b0103h18,S2c0321h07,S2c0321h08,S2c0321h18,S4d1024h08,S4d1024h10,S1b0103h11,S3aH2,S4d1024h09,S2c0321h14,S4d1024h15,S4aH2,S1b0103h09,S1b0103h14,S3aH3,S1aH4,S1b0103h15,S1b0103h17,S2aH2,S4d1024h17,S2c0321h12,S1aH3,S1b0103h10,S1b0103h16,S2c0321h13,S4d1024h12,S4d1024h14,S2c0321h10,S2c0321h11,S2c0321h15,S5aH4,S1b0103h13,S4aH5,S1aH2,S2aH3,S1aH5,S2aH4,S2aH5,S4d1024h16,S5aH2,S5aH5,S3aH5,S4d1024h13,S4d1024h18,S5aH3</v>
+        <v>S3aH5,S4d1024h13,S4d1024h18,S5aH3,S1aH2,S2aH3,S1b0103h08,S4d1024h07,S1b0103h09,S1b0103h14,S3aH3,S2c0321h12,S2c0321h16,S2c0321h17,S3aH4,S4aH3,S4aH4,S4d1024h11,S2c0321h10,S2c0321h11,S2c0321h15,S5aH4,S1aH3,S1b0103h10,S1b0103h16,S2c0321h13,S4d1024h12,S4d1024h14,S1aH4,S1b0103h15,S1b0103h17,S2aH2,S4d1024h17,S4aH2,S2c0321h14,S4d1024h15,S1aH5,S2aH4,S2aH5,S4d1024h16,S5aH2,S5aH5,S1b0103h11,S3aH2,S4d1024h09,S1b0103h07,S1b0103h12,S2c0321h09,S1b0103h13,S4aH5,S1b0103h18,S2c0321h07,S2c0321h08,S2c0321h18,S4d1024h08,S4d1024h10</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -2120,7 +2120,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D406AB39-128B-4D1F-BF69-E0273FB2F0DB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6D9A7F2-A736-4AD3-83E6-7B5EA25E40AA}">
   <dimension ref="B2:F83"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2834,7 +2834,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDBEE23D-102C-44B5-B245-4C1FB5AE0C48}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABC3896C-06CA-47D9-8CF9-5E7AD50C5DCD}">
   <dimension ref="B2:O115"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2913,10 +2913,10 @@
         <v>282</v>
       </c>
       <c r="M4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="N4">
-        <v>7.5520592318371119E-2</v>
+        <v>0.63189495603887091</v>
       </c>
       <c r="O4" t="s">
         <v>293</v>
@@ -2948,10 +2948,10 @@
         <v>282</v>
       </c>
       <c r="M5" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="N5">
-        <v>0.16266774641369736</v>
+        <v>0.18220731142989358</v>
       </c>
       <c r="O5" t="s">
         <v>293</v>
@@ -2983,10 +2983,10 @@
         <v>282</v>
       </c>
       <c r="M6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="N6">
-        <v>0.63189495603887091</v>
+        <v>7.5520592318371119E-2</v>
       </c>
       <c r="O6" t="s">
         <v>293</v>
@@ -3018,10 +3018,10 @@
         <v>282</v>
       </c>
       <c r="M7" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="N7">
-        <v>0.18220731142989358</v>
+        <v>0.14770939379916706</v>
       </c>
       <c r="O7" t="s">
         <v>293</v>
@@ -3053,10 +3053,10 @@
         <v>282</v>
       </c>
       <c r="M8" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="N8">
-        <v>0.14770939379916706</v>
+        <v>0.16266774641369736</v>
       </c>
       <c r="O8" t="s">
         <v>293</v>
@@ -5850,7 +5850,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F471CF9D-CE40-4B57-A8CD-E77F1E1EDE9D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FD65E2D-3146-44F7-A391-6F75BFD9D690}">
   <dimension ref="B2:O227"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA/SuppXLS/scen_tsparameters_s1p1v1_d.xlsx
+++ b/VerveStacks_ITA/SuppXLS/scen_tsparameters_s1p1v1_d.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{310B99B6-7585-4785-8C72-2CFA6605335F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ACA63A6-3EDA-4105-8908-0963C85F2CB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -900,10 +900,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S3aH5,S4d1024h13,S4d1024h18,S5aH3,S1aH2,S2aH3,S1b0103h08,S4d1024h07,S1b0103h09,S1b0103h14,S3aH3,S2c0321h12,S2c0321h16,S2c0321h17,S3aH4,S4aH3,S4aH4,S4d1024h11,S2c0321h10,S2c0321h11,S2c0321h15,S5aH4,S1aH3,S1b0103h10,S1b0103h16,S2c0321h13,S4d1024h12,S4d1024h14,S1aH4,S1b0103h15,S1b0103h17,S2aH2,S4d1024h17,S4aH2,S2c0321h14,S4d1024h15,S1aH5,S2aH4,S2aH5,S4d1024h16,S5aH2,S5aH5,S1b0103h11,S3aH2,S4d1024h09,S1b0103h07,S1b0103h12,S2c0321h09,S1b0103h13,S4aH5,S1b0103h18,S2c0321h07,S2c0321h08,S2c0321h18,S4d1024h08,S4d1024h10</t>
-  </si>
-  <si>
-    <t>S1aH8,S1b0103h21,S5aH1,S4d1024h05,S1b0103h01,S1b0103h02,S2aH8,S2c0321h21,S4d1024h04,S1b0103h06,S2c0321h06,S4aH6,S4d1024h21,S1aH1,S1b0103h23,S2aH7,S4d1024h20,S4d1024h22,S1b0103h22,S1b0103h24,S2c0321h01,S2c0321h22,S4d1024h19,S1b0103h04,S1b0103h20,S4d1024h03,S1aH7,S3aH6,S4aH7,S5aH6,S5aH7,S1b0103h03,S1b0103h05,S1b0103h19,S2c0321h04,S4aH1,S4d1024h24,S2aH1,S3aH7,S4d1024h02,S4d1024h06,S5aH8,S2c0321h03,S2c0321h19,S2c0321h23,S4aH8,S1aH6,S2c0321h05,S2c0321h20,S4d1024h01,S2c0321h02,S3aH8,S2aH6,S3aH1,S4d1024h23,S2c0321h24</t>
+    <t>S1aH5,S2aH4,S2aH5,S4d1024h16,S5aH2,S5aH5,S2c0321h14,S4d1024h15,S2c0321h16,S2c0321h17,S3aH4,S4aH3,S4aH4,S4d1024h11,S2c0321h10,S2c0321h11,S2c0321h15,S5aH4,S1aH2,S2aH3,S1aH3,S1b0103h10,S1b0103h16,S2c0321h13,S4d1024h12,S4d1024h14,S1b0103h08,S4d1024h07,S2c0321h12,S1b0103h09,S1b0103h14,S3aH3,S1b0103h18,S2c0321h07,S2c0321h08,S2c0321h18,S4d1024h08,S4d1024h10,S1b0103h13,S4aH5,S1b0103h07,S1b0103h12,S2c0321h09,S1b0103h11,S3aH2,S4d1024h09,S1aH4,S1b0103h15,S1b0103h17,S2aH2,S4d1024h17,S3aH5,S4d1024h13,S4d1024h18,S5aH3,S4aH2</t>
+  </si>
+  <si>
+    <t>S1aH6,S2c0321h05,S2c0321h20,S4d1024h01,S2c0321h03,S2c0321h19,S2c0321h23,S4aH8,S1b0103h22,S1b0103h24,S2c0321h01,S2c0321h22,S4d1024h19,S1b0103h04,S1b0103h20,S4d1024h03,S4d1024h05,S1aH7,S3aH6,S4aH7,S5aH6,S5aH7,S1b0103h01,S1b0103h02,S2aH8,S2c0321h21,S4d1024h04,S1aH1,S1b0103h23,S2aH7,S4d1024h20,S4d1024h22,S1b0103h06,S2c0321h06,S4aH6,S4d1024h21,S2c0321h24,S4d1024h23,S2aH6,S3aH1,S2c0321h02,S3aH8,S1b0103h03,S1b0103h05,S1b0103h19,S2c0321h04,S4aH1,S4d1024h24,S1aH8,S1b0103h21,S5aH1,S2aH1,S3aH7,S4d1024h02,S4d1024h06,S5aH8</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -1475,7 +1475,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S1aH8,S1b0103h21,S5aH1,S4d1024h05,S1b0103h01,S1b0103h02,S2aH8,S2c0321h21,S4d1024h04,S1b0103h06,S2c0321h06,S4aH6,S4d1024h21,S1aH1,S1b0103h23,S2aH7,S4d1024h20,S4d1024h22,S1b0103h22,S1b0103h24,S2c0321h01,S2c0321h22,S4d1024h19,S1b0103h04,S1b0103h20,S4d1024h03,S1aH7,S3aH6,S4aH7,S5aH6,S5aH7,S1b0103h03,S1b0103h05,S1b0103h19,S2c0321h04,S4aH1,S4d1024h24,S2aH1,S3aH7,S4d1024h02,S4d1024h06,S5aH8,S2c0321h03,S2c0321h19,S2c0321h23,S4aH8,S1aH6,S2c0321h05,S2c0321h20,S4d1024h01,S2c0321h02,S3aH8,S2aH6,S3aH1,S4d1024h23,S2c0321h24</v>
+        <v>S1aH6,S2c0321h05,S2c0321h20,S4d1024h01,S2c0321h03,S2c0321h19,S2c0321h23,S4aH8,S1b0103h22,S1b0103h24,S2c0321h01,S2c0321h22,S4d1024h19,S1b0103h04,S1b0103h20,S4d1024h03,S4d1024h05,S1aH7,S3aH6,S4aH7,S5aH6,S5aH7,S1b0103h01,S1b0103h02,S2aH8,S2c0321h21,S4d1024h04,S1aH1,S1b0103h23,S2aH7,S4d1024h20,S4d1024h22,S1b0103h06,S2c0321h06,S4aH6,S4d1024h21,S2c0321h24,S4d1024h23,S2aH6,S3aH1,S2c0321h02,S3aH8,S1b0103h03,S1b0103h05,S1b0103h19,S2c0321h04,S4aH1,S4d1024h24,S1aH8,S1b0103h21,S5aH1,S2aH1,S3aH7,S4d1024h02,S4d1024h06,S5aH8</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -1507,7 +1507,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S3aH5,S4d1024h13,S4d1024h18,S5aH3,S1aH2,S2aH3,S1b0103h08,S4d1024h07,S1b0103h09,S1b0103h14,S3aH3,S2c0321h12,S2c0321h16,S2c0321h17,S3aH4,S4aH3,S4aH4,S4d1024h11,S2c0321h10,S2c0321h11,S2c0321h15,S5aH4,S1aH3,S1b0103h10,S1b0103h16,S2c0321h13,S4d1024h12,S4d1024h14,S1aH4,S1b0103h15,S1b0103h17,S2aH2,S4d1024h17,S4aH2,S2c0321h14,S4d1024h15,S1aH5,S2aH4,S2aH5,S4d1024h16,S5aH2,S5aH5,S1b0103h11,S3aH2,S4d1024h09,S1b0103h07,S1b0103h12,S2c0321h09,S1b0103h13,S4aH5,S1b0103h18,S2c0321h07,S2c0321h08,S2c0321h18,S4d1024h08,S4d1024h10</v>
+        <v>S1aH5,S2aH4,S2aH5,S4d1024h16,S5aH2,S5aH5,S2c0321h14,S4d1024h15,S2c0321h16,S2c0321h17,S3aH4,S4aH3,S4aH4,S4d1024h11,S2c0321h10,S2c0321h11,S2c0321h15,S5aH4,S1aH2,S2aH3,S1aH3,S1b0103h10,S1b0103h16,S2c0321h13,S4d1024h12,S4d1024h14,S1b0103h08,S4d1024h07,S2c0321h12,S1b0103h09,S1b0103h14,S3aH3,S1b0103h18,S2c0321h07,S2c0321h08,S2c0321h18,S4d1024h08,S4d1024h10,S1b0103h13,S4aH5,S1b0103h07,S1b0103h12,S2c0321h09,S1b0103h11,S3aH2,S4d1024h09,S1aH4,S1b0103h15,S1b0103h17,S2aH2,S4d1024h17,S3aH5,S4d1024h13,S4d1024h18,S5aH3,S4aH2</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -2120,7 +2120,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6D9A7F2-A736-4AD3-83E6-7B5EA25E40AA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{430CC3E5-4E39-480A-8B58-57BE59B0E2A9}">
   <dimension ref="B2:F83"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2834,7 +2834,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABC3896C-06CA-47D9-8CF9-5E7AD50C5DCD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36DF52F1-762F-4803-A6E9-5DE3798D322A}">
   <dimension ref="B2:O115"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2913,10 +2913,10 @@
         <v>282</v>
       </c>
       <c r="M4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="N4">
-        <v>0.63189495603887091</v>
+        <v>0.18220731142989358</v>
       </c>
       <c r="O4" t="s">
         <v>293</v>
@@ -2948,10 +2948,10 @@
         <v>282</v>
       </c>
       <c r="M5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="N5">
-        <v>0.18220731142989358</v>
+        <v>7.5520592318371119E-2</v>
       </c>
       <c r="O5" t="s">
         <v>293</v>
@@ -2983,10 +2983,10 @@
         <v>282</v>
       </c>
       <c r="M6" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="N6">
-        <v>7.5520592318371119E-2</v>
+        <v>0.14770939379916706</v>
       </c>
       <c r="O6" t="s">
         <v>293</v>
@@ -3018,10 +3018,10 @@
         <v>282</v>
       </c>
       <c r="M7" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="N7">
-        <v>0.14770939379916706</v>
+        <v>0.63189495603887091</v>
       </c>
       <c r="O7" t="s">
         <v>293</v>
@@ -5850,7 +5850,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FD65E2D-3146-44F7-A391-6F75BFD9D690}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EACC1675-CDCA-48A9-ACD9-94AF4502A47E}">
   <dimension ref="B2:O227"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA/SuppXLS/scen_tsparameters_s1p1v1_d.xlsx
+++ b/VerveStacks_ITA/SuppXLS/scen_tsparameters_s1p1v1_d.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BC58E300-38DD-4D1A-92F8-6FFA98F93EA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3F8626AC-A7D9-40E7-B6C5-9FF605B0D88F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -906,10 +906,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S1aH4,S1b0202h12,S2aH2,S4aH6,S1b0202h09,S3c0418h09,S1aH2,S1aH7,S1b0202h17,S2aH3,S3aH6,S4aH7,S5aH6,S5aH7,S3c0418h10,S3c0418h13,S3c0418h18,S4aH5,S5d1209h09,S1aH6,S5d1209h08,S5d1209h15,S5d1209h11,S3c0418h14,S3c0418h17,S4aH2,S5d1209h14,S1b0202h08,S1b0202h11,S3aH2,S3c0418h15,S5d1209h10,S5d1209h12,S3aH7,S3c0418h07,S3c0418h11,S5d1209h07,S1aH5,S1b0202h07,S2aH4,S2aH5,S5aH2,S5aH5,S1b0202h15,S3aH3,S3c0418h16,S5d1209h18,S1b0202h13,S1b0202h16,S5aH4,S5d1209h16,S5d1209h17,S1aH3,S1b0202h10,S1b0202h18,S2aH7,S3aH4,S3c0418h12,S4aH3,S4aH4,S1b0202h14,S2aH6,S3aH5,S3c0418h08,S5aH3,S5d1209h13</t>
-  </si>
-  <si>
-    <t>S4aH1,S5d1209h21,S5d1209h24,S1b0202h04,S3c0418h20,S4aH8,S5d1209h01,S5d1209h19,S3c0418h21,S1aH1,S1b0202h20,S1b0202h23,S1b0202h03,S1b0202h22,S2aH1,S3c0418h03,S3c0418h19,S5aH8,S5d1209h05,S1b0202h24,S3aH8,S3c0418h22,S5d1209h04,S1b0202h02,S1b0202h21,S2aH8,S1b0202h05,S1b0202h06,S3c0418h02,S5d1209h20,S1b0202h01,S3c0418h04,S3c0418h05,S1b0202h19,S3aH1,S5d1209h02,S5d1209h06,S5d1209h22,S5d1209h23,S3c0418h06,S3c0418h24,S5d1209h03,S1aH8,S3c0418h01,S3c0418h23,S5aH1</t>
+    <t>S3c0418h14,S3c0418h17,S4aH2,S5d1209h14,S1b0202h15,S3aH3,S3c0418h16,S5d1209h11,S3aH7,S3c0418h07,S3c0418h11,S5d1209h07,S1b0202h08,S1b0202h11,S3aH2,S3c0418h15,S5d1209h10,S5d1209h12,S1aH4,S1b0202h12,S2aH2,S4aH6,S1b0202h09,S3c0418h09,S1aH5,S1b0202h07,S2aH4,S2aH5,S5aH2,S5aH5,S1b0202h14,S2aH6,S3aH5,S3c0418h08,S5aH3,S5d1209h13,S1b0202h10,S1b0202h18,S2aH7,S3aH4,S3c0418h12,S4aH3,S4aH4,S1aH3,S3c0418h10,S3c0418h13,S3c0418h18,S4aH5,S5d1209h09,S1b0202h13,S1b0202h16,S5aH4,S5d1209h16,S5d1209h17,S1aH2,S1aH7,S1b0202h17,S2aH3,S3aH6,S4aH7,S5aH6,S5aH7,S1aH6,S5d1209h08,S5d1209h15,S5d1209h18</t>
+  </si>
+  <si>
+    <t>S1b0202h03,S1b0202h22,S2aH1,S3c0418h03,S3c0418h19,S5aH8,S5d1209h05,S1b0202h01,S3c0418h04,S3c0418h05,S1aH1,S1b0202h20,S1b0202h23,S1b0202h02,S1b0202h21,S2aH8,S1b0202h24,S3aH8,S3c0418h22,S5d1209h04,S4aH1,S5d1209h21,S5d1209h24,S1b0202h04,S3c0418h20,S4aH8,S5d1209h01,S5d1209h19,S1b0202h05,S1b0202h06,S3c0418h02,S5d1209h20,S1aH8,S3c0418h01,S3c0418h23,S5aH1,S5d1209h03,S3c0418h06,S3c0418h24,S5d1209h06,S5d1209h22,S5d1209h23,S3c0418h21,S1b0202h19,S3aH1,S5d1209h02</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -1226,7 +1226,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{424F3290-FEBA-BCDD-41E4-C206B0C90D8C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35F8151E-ECA3-26EA-44FB-44500902A8F9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1281,7 +1281,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DF91B77-712E-2814-5CB3-B72AAEA9EF78}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F171BB1-B3D7-1D86-DD20-964809E71B68}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1336,7 +1336,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D169CBB-B78C-F323-D0B7-E31C44CF3B9B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9430D598-CA82-5B8A-DFCF-509A79522A42}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1744,7 +1744,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S4aH1,S5d1209h21,S5d1209h24,S1b0202h04,S3c0418h20,S4aH8,S5d1209h01,S5d1209h19,S3c0418h21,S1aH1,S1b0202h20,S1b0202h23,S1b0202h03,S1b0202h22,S2aH1,S3c0418h03,S3c0418h19,S5aH8,S5d1209h05,S1b0202h24,S3aH8,S3c0418h22,S5d1209h04,S1b0202h02,S1b0202h21,S2aH8,S1b0202h05,S1b0202h06,S3c0418h02,S5d1209h20,S1b0202h01,S3c0418h04,S3c0418h05,S1b0202h19,S3aH1,S5d1209h02,S5d1209h06,S5d1209h22,S5d1209h23,S3c0418h06,S3c0418h24,S5d1209h03,S1aH8,S3c0418h01,S3c0418h23,S5aH1</v>
+        <v>S1b0202h03,S1b0202h22,S2aH1,S3c0418h03,S3c0418h19,S5aH8,S5d1209h05,S1b0202h01,S3c0418h04,S3c0418h05,S1aH1,S1b0202h20,S1b0202h23,S1b0202h02,S1b0202h21,S2aH8,S1b0202h24,S3aH8,S3c0418h22,S5d1209h04,S4aH1,S5d1209h21,S5d1209h24,S1b0202h04,S3c0418h20,S4aH8,S5d1209h01,S5d1209h19,S1b0202h05,S1b0202h06,S3c0418h02,S5d1209h20,S1aH8,S3c0418h01,S3c0418h23,S5aH1,S5d1209h03,S3c0418h06,S3c0418h24,S5d1209h06,S5d1209h22,S5d1209h23,S3c0418h21,S1b0202h19,S3aH1,S5d1209h02</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -1776,7 +1776,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S1aH4,S1b0202h12,S2aH2,S4aH6,S1b0202h09,S3c0418h09,S1aH2,S1aH7,S1b0202h17,S2aH3,S3aH6,S4aH7,S5aH6,S5aH7,S3c0418h10,S3c0418h13,S3c0418h18,S4aH5,S5d1209h09,S1aH6,S5d1209h08,S5d1209h15,S5d1209h11,S3c0418h14,S3c0418h17,S4aH2,S5d1209h14,S1b0202h08,S1b0202h11,S3aH2,S3c0418h15,S5d1209h10,S5d1209h12,S3aH7,S3c0418h07,S3c0418h11,S5d1209h07,S1aH5,S1b0202h07,S2aH4,S2aH5,S5aH2,S5aH5,S1b0202h15,S3aH3,S3c0418h16,S5d1209h18,S1b0202h13,S1b0202h16,S5aH4,S5d1209h16,S5d1209h17,S1aH3,S1b0202h10,S1b0202h18,S2aH7,S3aH4,S3c0418h12,S4aH3,S4aH4,S1b0202h14,S2aH6,S3aH5,S3c0418h08,S5aH3,S5d1209h13</v>
+        <v>S3c0418h14,S3c0418h17,S4aH2,S5d1209h14,S1b0202h15,S3aH3,S3c0418h16,S5d1209h11,S3aH7,S3c0418h07,S3c0418h11,S5d1209h07,S1b0202h08,S1b0202h11,S3aH2,S3c0418h15,S5d1209h10,S5d1209h12,S1aH4,S1b0202h12,S2aH2,S4aH6,S1b0202h09,S3c0418h09,S1aH5,S1b0202h07,S2aH4,S2aH5,S5aH2,S5aH5,S1b0202h14,S2aH6,S3aH5,S3c0418h08,S5aH3,S5d1209h13,S1b0202h10,S1b0202h18,S2aH7,S3aH4,S3c0418h12,S4aH3,S4aH4,S1aH3,S3c0418h10,S3c0418h13,S3c0418h18,S4aH5,S5d1209h09,S1b0202h13,S1b0202h16,S5aH4,S5d1209h16,S5d1209h17,S1aH2,S1aH7,S1b0202h17,S2aH3,S3aH6,S4aH7,S5aH6,S5aH7,S1aH6,S5d1209h08,S5d1209h15,S5d1209h18</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -2389,7 +2389,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D76AFBDE-6677-48ED-8B00-4DB1FC717765}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B10A6F33-B299-4B54-8E76-FE0174FCCA15}">
   <dimension ref="A1:H90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3353,7 +3353,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C51E02F8-E3C3-43BD-98E9-D575EDD0A575}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{159E4D71-3457-46F1-B537-DAF879A3B01E}">
   <dimension ref="A1:S122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3482,10 +3482,10 @@
         <v>171</v>
       </c>
       <c r="Q11" s="23" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="R11" s="24">
-        <v>8.4821841739935219E-2</v>
+        <v>7.5520592318371119E-2</v>
       </c>
       <c r="S11" s="23" t="s">
         <v>296</v>
@@ -3529,10 +3529,10 @@
         <v>171</v>
       </c>
       <c r="Q12" s="25" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="R12" s="26">
-        <v>7.7845904673762151E-2</v>
+        <v>8.4821841739935219E-2</v>
       </c>
       <c r="S12" s="25" t="s">
         <v>296</v>
@@ -3576,10 +3576,10 @@
         <v>171</v>
       </c>
       <c r="Q13" s="23" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="R13" s="24">
-        <v>7.5520592318371119E-2</v>
+        <v>7.7845904673762151E-2</v>
       </c>
       <c r="S13" s="23" t="s">
         <v>296</v>
@@ -3623,10 +3623,10 @@
         <v>171</v>
       </c>
       <c r="Q14" s="25" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="R14" s="26">
-        <v>0.14770939379916706</v>
+        <v>0.81410226746876446</v>
       </c>
       <c r="S14" s="25" t="s">
         <v>296</v>
@@ -3670,10 +3670,10 @@
         <v>171</v>
       </c>
       <c r="Q15" s="23" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="R15" s="24">
-        <v>0.81410226746876446</v>
+        <v>0.14770939379916706</v>
       </c>
       <c r="S15" s="23" t="s">
         <v>296</v>
@@ -7755,7 +7755,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECA01B63-3113-45ED-8B70-9824E1DBAF16}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2603552-9DAF-416D-836A-3CD7271B580A}">
   <dimension ref="A1:M234"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/VerveStacks_ITA/SuppXLS/scen_tsparameters_s1p1v1_d.xlsx
+++ b/VerveStacks_ITA/SuppXLS/scen_tsparameters_s1p1v1_d.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E15BEA22-8893-40A6-926D-DFA74F41FE47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{978449AF-7C8A-4129-821A-AEAAEB8898F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -903,10 +903,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S1b0202h13,S1b0202h16,S5aH4,S5d1209h16,S5d1209h17,S1aH6,S5d1209h08,S5d1209h15,S1b0202h15,S3aH3,S3c0418h16,S1aH5,S1b0202h07,S2aH4,S2aH5,S5aH2,S5aH5,S3c0418h14,S3c0418h17,S4aH2,S5d1209h14,S1aH3,S5d1209h11,S1b0202h10,S1b0202h18,S2aH7,S3aH4,S3c0418h12,S4aH3,S4aH4,S1b0202h14,S2aH6,S3aH5,S3c0418h08,S5aH3,S5d1209h13,S1aH2,S1aH7,S1b0202h17,S2aH3,S3aH6,S4aH7,S5aH6,S5aH7,S1aH4,S1b0202h12,S2aH2,S4aH6,S3aH7,S3c0418h07,S3c0418h11,S5d1209h07,S1b0202h09,S3c0418h09,S1b0202h08,S1b0202h11,S3aH2,S3c0418h15,S5d1209h10,S5d1209h12,S3c0418h10,S3c0418h13,S3c0418h18,S4aH5,S5d1209h09,S5d1209h18</t>
-  </si>
-  <si>
-    <t>S5d1209h06,S5d1209h22,S5d1209h23,S1b0202h01,S3c0418h04,S3c0418h05,S1b0202h05,S1b0202h06,S3c0418h02,S5d1209h20,S1b0202h03,S1b0202h22,S2aH1,S3c0418h03,S3c0418h19,S5aH8,S5d1209h05,S3c0418h06,S3c0418h24,S1aH1,S1b0202h20,S1b0202h23,S5d1209h03,S1aH8,S3c0418h01,S3c0418h23,S5aH1,S3c0418h21,S4aH1,S5d1209h21,S5d1209h24,S1b0202h02,S1b0202h21,S2aH8,S1b0202h04,S3c0418h20,S4aH8,S5d1209h01,S5d1209h19,S1b0202h24,S3aH8,S3c0418h22,S5d1209h04,S1b0202h19,S3aH1,S5d1209h02</t>
+    <t>S1b0202h15,S3aH3,S3c0418h16,S1b0202h13,S1b0202h16,S5aH4,S5d1209h16,S5d1209h17,S1aH6,S5d1209h08,S5d1209h15,S1b0202h09,S3c0418h09,S1b0202h14,S2aH6,S3aH5,S3c0418h08,S5aH3,S5d1209h13,S3c0418h10,S3c0418h13,S3c0418h18,S4aH5,S5d1209h09,S3c0418h14,S3c0418h17,S4aH2,S5d1209h14,S1aH4,S1b0202h12,S2aH2,S4aH6,S1aH3,S5d1209h11,S3aH7,S3c0418h07,S3c0418h11,S5d1209h07,S1aH2,S1aH7,S1b0202h17,S2aH3,S3aH6,S4aH7,S5aH6,S5aH7,S5d1209h18,S1aH5,S1b0202h07,S2aH4,S2aH5,S5aH2,S5aH5,S1b0202h10,S1b0202h18,S2aH7,S3aH4,S3c0418h12,S4aH3,S4aH4,S1b0202h08,S1b0202h11,S3aH2,S3c0418h15,S5d1209h10,S5d1209h12</t>
+  </si>
+  <si>
+    <t>S1b0202h01,S3c0418h04,S3c0418h05,S5d1209h06,S5d1209h22,S5d1209h23,S1b0202h04,S3c0418h20,S4aH8,S5d1209h01,S5d1209h19,S1aH8,S3c0418h01,S3c0418h23,S5aH1,S1b0202h03,S1b0202h22,S2aH1,S3c0418h03,S3c0418h19,S5aH8,S5d1209h05,S4aH1,S5d1209h21,S5d1209h24,S3c0418h06,S3c0418h24,S1aH1,S1b0202h20,S1b0202h23,S1b0202h02,S1b0202h21,S2aH8,S3c0418h21,S1b0202h19,S3aH1,S5d1209h02,S1b0202h05,S1b0202h06,S3c0418h02,S5d1209h20,S5d1209h03,S1b0202h24,S3aH8,S3c0418h22,S5d1209h04</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -1478,7 +1478,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S5d1209h06,S5d1209h22,S5d1209h23,S1b0202h01,S3c0418h04,S3c0418h05,S1b0202h05,S1b0202h06,S3c0418h02,S5d1209h20,S1b0202h03,S1b0202h22,S2aH1,S3c0418h03,S3c0418h19,S5aH8,S5d1209h05,S3c0418h06,S3c0418h24,S1aH1,S1b0202h20,S1b0202h23,S5d1209h03,S1aH8,S3c0418h01,S3c0418h23,S5aH1,S3c0418h21,S4aH1,S5d1209h21,S5d1209h24,S1b0202h02,S1b0202h21,S2aH8,S1b0202h04,S3c0418h20,S4aH8,S5d1209h01,S5d1209h19,S1b0202h24,S3aH8,S3c0418h22,S5d1209h04,S1b0202h19,S3aH1,S5d1209h02</v>
+        <v>S1b0202h01,S3c0418h04,S3c0418h05,S5d1209h06,S5d1209h22,S5d1209h23,S1b0202h04,S3c0418h20,S4aH8,S5d1209h01,S5d1209h19,S1aH8,S3c0418h01,S3c0418h23,S5aH1,S1b0202h03,S1b0202h22,S2aH1,S3c0418h03,S3c0418h19,S5aH8,S5d1209h05,S4aH1,S5d1209h21,S5d1209h24,S3c0418h06,S3c0418h24,S1aH1,S1b0202h20,S1b0202h23,S1b0202h02,S1b0202h21,S2aH8,S3c0418h21,S1b0202h19,S3aH1,S5d1209h02,S1b0202h05,S1b0202h06,S3c0418h02,S5d1209h20,S5d1209h03,S1b0202h24,S3aH8,S3c0418h22,S5d1209h04</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -1510,7 +1510,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S1b0202h13,S1b0202h16,S5aH4,S5d1209h16,S5d1209h17,S1aH6,S5d1209h08,S5d1209h15,S1b0202h15,S3aH3,S3c0418h16,S1aH5,S1b0202h07,S2aH4,S2aH5,S5aH2,S5aH5,S3c0418h14,S3c0418h17,S4aH2,S5d1209h14,S1aH3,S5d1209h11,S1b0202h10,S1b0202h18,S2aH7,S3aH4,S3c0418h12,S4aH3,S4aH4,S1b0202h14,S2aH6,S3aH5,S3c0418h08,S5aH3,S5d1209h13,S1aH2,S1aH7,S1b0202h17,S2aH3,S3aH6,S4aH7,S5aH6,S5aH7,S1aH4,S1b0202h12,S2aH2,S4aH6,S3aH7,S3c0418h07,S3c0418h11,S5d1209h07,S1b0202h09,S3c0418h09,S1b0202h08,S1b0202h11,S3aH2,S3c0418h15,S5d1209h10,S5d1209h12,S3c0418h10,S3c0418h13,S3c0418h18,S4aH5,S5d1209h09,S5d1209h18</v>
+        <v>S1b0202h15,S3aH3,S3c0418h16,S1b0202h13,S1b0202h16,S5aH4,S5d1209h16,S5d1209h17,S1aH6,S5d1209h08,S5d1209h15,S1b0202h09,S3c0418h09,S1b0202h14,S2aH6,S3aH5,S3c0418h08,S5aH3,S5d1209h13,S3c0418h10,S3c0418h13,S3c0418h18,S4aH5,S5d1209h09,S3c0418h14,S3c0418h17,S4aH2,S5d1209h14,S1aH4,S1b0202h12,S2aH2,S4aH6,S1aH3,S5d1209h11,S3aH7,S3c0418h07,S3c0418h11,S5d1209h07,S1aH2,S1aH7,S1b0202h17,S2aH3,S3aH6,S4aH7,S5aH6,S5aH7,S5d1209h18,S1aH5,S1b0202h07,S2aH4,S2aH5,S5aH2,S5aH5,S1b0202h10,S1b0202h18,S2aH7,S3aH4,S3c0418h12,S4aH3,S4aH4,S1b0202h08,S1b0202h11,S3aH2,S3c0418h15,S5d1209h10,S5d1209h12</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -2123,7 +2123,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3808EE3C-6A46-4F5E-B3C3-05AE0B49E96C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00A96386-280D-4C17-B76A-501AF58F01A5}">
   <dimension ref="B9:F90"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2837,7 +2837,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A5D0238-673A-4BF4-9C83-B1CFF7DC8552}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{906EB0F6-B369-4BA2-AAA9-34523C7EFC7E}">
   <dimension ref="B9:S122"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2943,10 +2943,10 @@
         <v>170</v>
       </c>
       <c r="Q11" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="R11">
-        <v>7.5520592318371119E-2</v>
+        <v>8.4821841739935219E-2</v>
       </c>
       <c r="S11" t="s">
         <v>295</v>
@@ -3037,10 +3037,10 @@
         <v>170</v>
       </c>
       <c r="Q13" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="R13">
-        <v>8.4821841739935219E-2</v>
+        <v>7.5520592318371119E-2</v>
       </c>
       <c r="S13" t="s">
         <v>295</v>
@@ -7212,7 +7212,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCF21D7D-9322-4196-808C-EFD3D735BF6E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32C16A81-6011-49FA-A1D3-5B452EC36115}">
   <dimension ref="B9:M234"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA/SuppXLS/scen_tsparameters_s1p1v1_d.xlsx
+++ b/VerveStacks_ITA/SuppXLS/scen_tsparameters_s1p1v1_d.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{34072B02-489D-486F-AE02-EAD0E2A13CA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D91D3A16-D2A1-4908-847D-C3866CF8A4DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -753,13 +753,13 @@
     <t>D</t>
   </si>
   <si>
-    <t>S1b0202h13,S1b0202h16,S5aH4,S5d1209h16,S5d1209h17,S1aH6,S5d1209h08,S5d1209h15,S3aH7,S3c0418h07,S3c0418h11,S5d1209h07,S1aH3,S5d1209h11,S1b0202h10,S1b0202h18,S2aH7,S3aH4,S3c0418h12,S4aH3,S4aH4,S1b0202h09,S3c0418h09,S1b0202h14,S2aH6,S3aH5,S3c0418h08,S5aH3,S5d1209h13,S1aH4,S1b0202h12,S2aH2,S4aH6,S5d1209h18,S3c0418h10,S3c0418h13,S3c0418h18,S4aH5,S5d1209h09,S1b0202h15,S3aH3,S3c0418h16,S1aH2,S1aH7,S1b0202h17,S2aH3,S3aH6,S4aH7,S5aH6,S5aH7,S3c0418h14,S3c0418h17,S4aH2,S5d1209h14,S1aH5,S1b0202h07,S2aH4,S2aH5,S5aH2,S5aH5,S1b0202h08,S1b0202h11,S3aH2,S3c0418h15,S5d1209h10,S5d1209h12</t>
+    <t>S3c0418h10,S3c0418h13,S3c0418h18,S4aH5,S5d1209h09,S1b0202h08,S1b0202h11,S3aH2,S3c0418h15,S5d1209h10,S5d1209h12,S5d1209h11,S1b0202h13,S1b0202h16,S5aH4,S5d1209h16,S5d1209h17,S1aH3,S1b0202h15,S3aH3,S3c0418h16,S1aH6,S5d1209h08,S5d1209h15,S3aH7,S3c0418h07,S3c0418h11,S5d1209h07,S1b0202h10,S1b0202h18,S2aH7,S3aH4,S3c0418h12,S4aH3,S4aH4,S1aH2,S1aH7,S1b0202h17,S2aH3,S3aH6,S4aH7,S5aH6,S5aH7,S1aH5,S1b0202h07,S2aH4,S2aH5,S5aH2,S5aH5,S1b0202h09,S3c0418h09,S3c0418h14,S3c0418h17,S4aH2,S5d1209h14,S1aH4,S1b0202h12,S2aH2,S4aH6,S1b0202h14,S2aH6,S3aH5,S3c0418h08,S5aH3,S5d1209h13,S5d1209h18</t>
   </si>
   <si>
     <t>N</t>
   </si>
   <si>
-    <t>S5d1209h06,S5d1209h22,S5d1209h23,S1b0202h02,S1b0202h21,S2aH8,S3c0418h06,S3c0418h24,S1aH1,S1b0202h20,S1b0202h23,S5d1209h03,S1b0202h04,S3c0418h20,S4aH8,S5d1209h01,S5d1209h19,S1aH8,S3c0418h01,S3c0418h23,S5aH1,S4aH1,S5d1209h21,S5d1209h24,S1b0202h19,S3aH1,S5d1209h02,S1b0202h01,S3c0418h04,S3c0418h05,S3c0418h21,S1b0202h03,S1b0202h22,S2aH1,S3c0418h03,S3c0418h19,S5aH8,S5d1209h05,S1b0202h05,S1b0202h06,S3c0418h02,S5d1209h20,S1b0202h24,S3aH8,S3c0418h22,S5d1209h04</t>
+    <t>S1b0202h24,S3aH8,S3c0418h22,S5d1209h04,S1aH1,S1b0202h20,S1b0202h23,S5d1209h06,S5d1209h22,S5d1209h23,S3c0418h06,S3c0418h24,S1b0202h01,S3c0418h04,S3c0418h05,S1b0202h02,S1b0202h21,S2aH8,S5d1209h03,S3c0418h21,S1b0202h05,S1b0202h06,S3c0418h02,S5d1209h20,S1b0202h04,S3c0418h20,S4aH8,S5d1209h01,S5d1209h19,S1b0202h03,S1b0202h22,S2aH1,S3c0418h03,S3c0418h19,S5aH8,S5d1209h05,S4aH1,S5d1209h21,S5d1209h24,S1aH8,S3c0418h01,S3c0418h23,S5aH1,S1b0202h19,S3aH1,S5d1209h02</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -1362,7 +1362,7 @@
       </c>
       <c r="H23" t="str">
         <f>HLOOKUP($A$10,$D$10:$CU$12,3,FALSE)</f>
-        <v>S5d1209h06,S5d1209h22,S5d1209h23,S1b0202h02,S1b0202h21,S2aH8,S3c0418h06,S3c0418h24,S1aH1,S1b0202h20,S1b0202h23,S5d1209h03,S1b0202h04,S3c0418h20,S4aH8,S5d1209h01,S5d1209h19,S1aH8,S3c0418h01,S3c0418h23,S5aH1,S4aH1,S5d1209h21,S5d1209h24,S1b0202h19,S3aH1,S5d1209h02,S1b0202h01,S3c0418h04,S3c0418h05,S3c0418h21,S1b0202h03,S1b0202h22,S2aH1,S3c0418h03,S3c0418h19,S5aH8,S5d1209h05,S1b0202h05,S1b0202h06,S3c0418h02,S5d1209h20,S1b0202h24,S3aH8,S3c0418h22,S5d1209h04</v>
+        <v>S1b0202h24,S3aH8,S3c0418h22,S5d1209h04,S1aH1,S1b0202h20,S1b0202h23,S5d1209h06,S5d1209h22,S5d1209h23,S3c0418h06,S3c0418h24,S1b0202h01,S3c0418h04,S3c0418h05,S1b0202h02,S1b0202h21,S2aH8,S5d1209h03,S3c0418h21,S1b0202h05,S1b0202h06,S3c0418h02,S5d1209h20,S1b0202h04,S3c0418h20,S4aH8,S5d1209h01,S5d1209h19,S1b0202h03,S1b0202h22,S2aH1,S3c0418h03,S3c0418h19,S5aH8,S5d1209h05,S4aH1,S5d1209h21,S5d1209h24,S1aH8,S3c0418h01,S3c0418h23,S5aH1,S1b0202h19,S3aH1,S5d1209h02</v>
       </c>
       <c r="I23">
         <f>1+I24</f>
@@ -1394,7 +1394,7 @@
       </c>
       <c r="H24" t="str">
         <f>HLOOKUP($A$10,$D$10:$CU$12,2,FALSE)</f>
-        <v>S1b0202h13,S1b0202h16,S5aH4,S5d1209h16,S5d1209h17,S1aH6,S5d1209h08,S5d1209h15,S3aH7,S3c0418h07,S3c0418h11,S5d1209h07,S1aH3,S5d1209h11,S1b0202h10,S1b0202h18,S2aH7,S3aH4,S3c0418h12,S4aH3,S4aH4,S1b0202h09,S3c0418h09,S1b0202h14,S2aH6,S3aH5,S3c0418h08,S5aH3,S5d1209h13,S1aH4,S1b0202h12,S2aH2,S4aH6,S5d1209h18,S3c0418h10,S3c0418h13,S3c0418h18,S4aH5,S5d1209h09,S1b0202h15,S3aH3,S3c0418h16,S1aH2,S1aH7,S1b0202h17,S2aH3,S3aH6,S4aH7,S5aH6,S5aH7,S3c0418h14,S3c0418h17,S4aH2,S5d1209h14,S1aH5,S1b0202h07,S2aH4,S2aH5,S5aH2,S5aH5,S1b0202h08,S1b0202h11,S3aH2,S3c0418h15,S5d1209h10,S5d1209h12</v>
+        <v>S3c0418h10,S3c0418h13,S3c0418h18,S4aH5,S5d1209h09,S1b0202h08,S1b0202h11,S3aH2,S3c0418h15,S5d1209h10,S5d1209h12,S5d1209h11,S1b0202h13,S1b0202h16,S5aH4,S5d1209h16,S5d1209h17,S1aH3,S1b0202h15,S3aH3,S3c0418h16,S1aH6,S5d1209h08,S5d1209h15,S3aH7,S3c0418h07,S3c0418h11,S5d1209h07,S1b0202h10,S1b0202h18,S2aH7,S3aH4,S3c0418h12,S4aH3,S4aH4,S1aH2,S1aH7,S1b0202h17,S2aH3,S3aH6,S4aH7,S5aH6,S5aH7,S1aH5,S1b0202h07,S2aH4,S2aH5,S5aH2,S5aH5,S1b0202h09,S3c0418h09,S3c0418h14,S3c0418h17,S4aH2,S5d1209h14,S1aH4,S1b0202h12,S2aH2,S4aH6,S1b0202h14,S2aH6,S3aH5,S3c0418h08,S5aH3,S5d1209h13,S5d1209h18</v>
       </c>
       <c r="I24">
         <f>-$I$17</f>
@@ -1410,7 +1410,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6E677E9-5D47-4D5E-86FF-45718A0B978C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D17D0CB8-A5D5-429B-B401-25D2CC282D06}">
   <dimension ref="A9:AM234"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -1633,10 +1633,10 @@
         <v>0.29379380207357086</v>
       </c>
       <c r="AK11" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="AL11">
-        <v>8.4821841739935219E-2</v>
+        <v>7.5520592318371119E-2</v>
       </c>
       <c r="AM11" t="s">
         <v>245</v>
@@ -1725,10 +1725,10 @@
         <v>4.4763868067430712E-2</v>
       </c>
       <c r="AK12" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="AL12">
-        <v>0.81410226746876446</v>
+        <v>0.14770939379916706</v>
       </c>
       <c r="AM12" t="s">
         <v>245</v>
@@ -1817,10 +1817,10 @@
         <v>4.5177169042762255E-2</v>
       </c>
       <c r="AK13" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="AL13">
-        <v>7.5520592318371119E-2</v>
+        <v>8.4821841739935219E-2</v>
       </c>
       <c r="AM13" t="s">
         <v>245</v>
@@ -1909,10 +1909,10 @@
         <v>4.2904875095304273E-2</v>
       </c>
       <c r="AK14" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="AL14">
-        <v>0.14770939379916706</v>
+        <v>0.81410226746876446</v>
       </c>
       <c r="AM14" t="s">
         <v>245</v>

--- a/VerveStacks_ITA/SuppXLS/scen_tsparameters_s1p1v1_d.xlsx
+++ b/VerveStacks_ITA/SuppXLS/scen_tsparameters_s1p1v1_d.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CF3EBC03-2526-45D1-AEE8-6355A1E146F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{92A9777D-6C5B-4018-B752-8037AFC88362}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -753,13 +753,13 @@
     <t>D</t>
   </si>
   <si>
-    <t>S1aH6,S5d1209h08,S5d1209h15,S1b0202h10,S1b0202h18,S2aH7,S3aH4,S3c0418h12,S4aH3,S4aH4,S3c0418h14,S3c0418h17,S4aH2,S5d1209h14,S1b0202h09,S3c0418h09,S3aH7,S3c0418h07,S3c0418h11,S5d1209h07,S5d1209h11,S5d1209h18,S1aH5,S1b0202h07,S2aH4,S2aH5,S5aH2,S5aH5,S3c0418h10,S3c0418h13,S3c0418h18,S4aH5,S5d1209h09,S1b0202h08,S1b0202h11,S3aH2,S3c0418h15,S5d1209h10,S5d1209h12,S1b0202h15,S3aH3,S3c0418h16,S1aH3,S1b0202h13,S1b0202h16,S5aH4,S5d1209h16,S5d1209h17,S1aH2,S1aH7,S1b0202h17,S2aH3,S3aH6,S4aH7,S5aH6,S5aH7,S1aH4,S1b0202h12,S2aH2,S4aH6,S1b0202h14,S2aH6,S3aH5,S3c0418h08,S5aH3,S5d1209h13</t>
+    <t>S1aH2,S1aH7,S1b0202h17,S2aH3,S3aH6,S4aH7,S5aH6,S5aH7,S1aH4,S1b0202h12,S2aH2,S4aH6,S1aH5,S1b0202h07,S2aH4,S2aH5,S5aH2,S5aH5,S1aH3,S1b0202h14,S2aH6,S3aH5,S3c0418h08,S5aH3,S5d1209h13,S1b0202h15,S3aH3,S3c0418h16,S1b0202h10,S1b0202h18,S2aH7,S3aH4,S3c0418h12,S4aH3,S4aH4,S1b0202h08,S1b0202h11,S3aH2,S3c0418h15,S5d1209h10,S5d1209h12,S1b0202h13,S1b0202h16,S5aH4,S5d1209h16,S5d1209h17,S3aH7,S3c0418h07,S3c0418h11,S5d1209h07,S3c0418h14,S3c0418h17,S4aH2,S5d1209h14,S5d1209h18,S5d1209h11,S3c0418h10,S3c0418h13,S3c0418h18,S4aH5,S5d1209h09,S1aH6,S5d1209h08,S5d1209h15,S1b0202h09,S3c0418h09</t>
   </si>
   <si>
     <t>N</t>
   </si>
   <si>
-    <t>S5d1209h03,S1b0202h03,S1b0202h22,S2aH1,S3c0418h03,S3c0418h19,S5aH8,S5d1209h05,S1b0202h04,S3c0418h20,S4aH8,S5d1209h01,S5d1209h19,S1b0202h02,S1b0202h21,S2aH8,S1aH1,S1b0202h20,S1b0202h23,S1b0202h19,S3aH1,S5d1209h02,S1b0202h05,S1b0202h06,S3c0418h02,S5d1209h20,S1b0202h24,S3aH8,S3c0418h22,S5d1209h04,S1b0202h01,S3c0418h04,S3c0418h05,S3c0418h06,S3c0418h24,S5d1209h06,S5d1209h22,S5d1209h23,S3c0418h21,S4aH1,S5d1209h21,S5d1209h24,S1aH8,S3c0418h01,S3c0418h23,S5aH1</t>
+    <t>S3c0418h21,S4aH1,S5d1209h21,S5d1209h24,S1b0202h05,S1b0202h06,S3c0418h02,S5d1209h20,S3c0418h06,S3c0418h24,S1aH8,S3c0418h01,S3c0418h23,S5aH1,S1b0202h01,S3c0418h04,S3c0418h05,S5d1209h03,S1b0202h24,S3aH8,S3c0418h22,S5d1209h04,S5d1209h06,S5d1209h22,S5d1209h23,S1b0202h02,S1b0202h21,S2aH8,S1b0202h03,S1b0202h22,S2aH1,S3c0418h03,S3c0418h19,S5aH8,S5d1209h05,S1b0202h19,S3aH1,S5d1209h02,S1aH1,S1b0202h20,S1b0202h23,S1b0202h04,S3c0418h20,S4aH8,S5d1209h01,S5d1209h19</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -1362,7 +1362,7 @@
       </c>
       <c r="H23" t="str">
         <f>HLOOKUP($A$10,$D$10:$CU$12,3,FALSE)</f>
-        <v>S5d1209h03,S1b0202h03,S1b0202h22,S2aH1,S3c0418h03,S3c0418h19,S5aH8,S5d1209h05,S1b0202h04,S3c0418h20,S4aH8,S5d1209h01,S5d1209h19,S1b0202h02,S1b0202h21,S2aH8,S1aH1,S1b0202h20,S1b0202h23,S1b0202h19,S3aH1,S5d1209h02,S1b0202h05,S1b0202h06,S3c0418h02,S5d1209h20,S1b0202h24,S3aH8,S3c0418h22,S5d1209h04,S1b0202h01,S3c0418h04,S3c0418h05,S3c0418h06,S3c0418h24,S5d1209h06,S5d1209h22,S5d1209h23,S3c0418h21,S4aH1,S5d1209h21,S5d1209h24,S1aH8,S3c0418h01,S3c0418h23,S5aH1</v>
+        <v>S3c0418h21,S4aH1,S5d1209h21,S5d1209h24,S1b0202h05,S1b0202h06,S3c0418h02,S5d1209h20,S3c0418h06,S3c0418h24,S1aH8,S3c0418h01,S3c0418h23,S5aH1,S1b0202h01,S3c0418h04,S3c0418h05,S5d1209h03,S1b0202h24,S3aH8,S3c0418h22,S5d1209h04,S5d1209h06,S5d1209h22,S5d1209h23,S1b0202h02,S1b0202h21,S2aH8,S1b0202h03,S1b0202h22,S2aH1,S3c0418h03,S3c0418h19,S5aH8,S5d1209h05,S1b0202h19,S3aH1,S5d1209h02,S1aH1,S1b0202h20,S1b0202h23,S1b0202h04,S3c0418h20,S4aH8,S5d1209h01,S5d1209h19</v>
       </c>
       <c r="I23">
         <f>1+I24</f>
@@ -1394,7 +1394,7 @@
       </c>
       <c r="H24" t="str">
         <f>HLOOKUP($A$10,$D$10:$CU$12,2,FALSE)</f>
-        <v>S1aH6,S5d1209h08,S5d1209h15,S1b0202h10,S1b0202h18,S2aH7,S3aH4,S3c0418h12,S4aH3,S4aH4,S3c0418h14,S3c0418h17,S4aH2,S5d1209h14,S1b0202h09,S3c0418h09,S3aH7,S3c0418h07,S3c0418h11,S5d1209h07,S5d1209h11,S5d1209h18,S1aH5,S1b0202h07,S2aH4,S2aH5,S5aH2,S5aH5,S3c0418h10,S3c0418h13,S3c0418h18,S4aH5,S5d1209h09,S1b0202h08,S1b0202h11,S3aH2,S3c0418h15,S5d1209h10,S5d1209h12,S1b0202h15,S3aH3,S3c0418h16,S1aH3,S1b0202h13,S1b0202h16,S5aH4,S5d1209h16,S5d1209h17,S1aH2,S1aH7,S1b0202h17,S2aH3,S3aH6,S4aH7,S5aH6,S5aH7,S1aH4,S1b0202h12,S2aH2,S4aH6,S1b0202h14,S2aH6,S3aH5,S3c0418h08,S5aH3,S5d1209h13</v>
+        <v>S1aH2,S1aH7,S1b0202h17,S2aH3,S3aH6,S4aH7,S5aH6,S5aH7,S1aH4,S1b0202h12,S2aH2,S4aH6,S1aH5,S1b0202h07,S2aH4,S2aH5,S5aH2,S5aH5,S1aH3,S1b0202h14,S2aH6,S3aH5,S3c0418h08,S5aH3,S5d1209h13,S1b0202h15,S3aH3,S3c0418h16,S1b0202h10,S1b0202h18,S2aH7,S3aH4,S3c0418h12,S4aH3,S4aH4,S1b0202h08,S1b0202h11,S3aH2,S3c0418h15,S5d1209h10,S5d1209h12,S1b0202h13,S1b0202h16,S5aH4,S5d1209h16,S5d1209h17,S3aH7,S3c0418h07,S3c0418h11,S5d1209h07,S3c0418h14,S3c0418h17,S4aH2,S5d1209h14,S5d1209h18,S5d1209h11,S3c0418h10,S3c0418h13,S3c0418h18,S4aH5,S5d1209h09,S1aH6,S5d1209h08,S5d1209h15,S1b0202h09,S3c0418h09</v>
       </c>
       <c r="I24">
         <f>-$I$17</f>
@@ -1410,7 +1410,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71FF6383-0ACD-4858-AFB9-613E3B2C9D07}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4844FFCD-55C1-48F3-B917-7417D934A197}">
   <dimension ref="A9:AM234"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -1633,10 +1633,10 @@
         <v>0.29379380207357086</v>
       </c>
       <c r="AK11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AL11">
-        <v>0.81410226746876457</v>
+        <v>7.5520592318371119E-2</v>
       </c>
       <c r="AM11" t="s">
         <v>245</v>
@@ -1817,10 +1817,10 @@
         <v>4.5177169042762255E-2</v>
       </c>
       <c r="AK13" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="AL13">
-        <v>7.7845904673762151E-2</v>
+        <v>0.81410226746876446</v>
       </c>
       <c r="AM13" t="s">
         <v>245</v>
@@ -1909,10 +1909,10 @@
         <v>4.2904875095304273E-2</v>
       </c>
       <c r="AK14" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AL14">
-        <v>8.4821841739935219E-2</v>
+        <v>7.7845904673762151E-2</v>
       </c>
       <c r="AM14" t="s">
         <v>245</v>
@@ -1995,10 +1995,10 @@
         <v>6.2570664794663333E-2</v>
       </c>
       <c r="AK15" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="AL15">
-        <v>7.5520592318371119E-2</v>
+        <v>8.4821841739935219E-2</v>
       </c>
       <c r="AM15" t="s">
         <v>245</v>
